--- a/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
+++ b/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -16,6 +16,7 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>Source</t>
   </si>
@@ -309,420 +310,6 @@
     <t>t</t>
   </si>
   <si>
-    <t>448.24</t>
-  </si>
-  <si>
-    <t>502.5</t>
-  </si>
-  <si>
-    <t>360.35</t>
-  </si>
-  <si>
-    <t>464.85</t>
-  </si>
-  <si>
-    <t>329.7</t>
-  </si>
-  <si>
-    <t>466.43</t>
-  </si>
-  <si>
-    <t>508.29</t>
-  </si>
-  <si>
-    <t>351.19</t>
-  </si>
-  <si>
-    <t>519.75</t>
-  </si>
-  <si>
-    <t>564.87</t>
-  </si>
-  <si>
-    <t>364.65</t>
-  </si>
-  <si>
-    <t>465.17</t>
-  </si>
-  <si>
-    <t>383.99</t>
-  </si>
-  <si>
-    <t>546.81</t>
-  </si>
-  <si>
-    <t>592.75</t>
-  </si>
-  <si>
-    <t>396.75</t>
-  </si>
-  <si>
-    <t>568.3</t>
-  </si>
-  <si>
-    <t>615.07</t>
-  </si>
-  <si>
-    <t>398.4</t>
-  </si>
-  <si>
-    <t>580.69</t>
-  </si>
-  <si>
-    <t>633.25</t>
-  </si>
-  <si>
-    <t>405.84</t>
-  </si>
-  <si>
-    <t>584.83</t>
-  </si>
-  <si>
-    <t>644.82</t>
-  </si>
-  <si>
-    <t>399.23</t>
-  </si>
-  <si>
-    <t>643.99</t>
-  </si>
-  <si>
-    <t>414.93</t>
-  </si>
-  <si>
-    <t>585.65</t>
-  </si>
-  <si>
-    <t>639.03</t>
-  </si>
-  <si>
-    <t>422.37</t>
-  </si>
-  <si>
-    <t>590.61</t>
-  </si>
-  <si>
-    <t>635.73</t>
-  </si>
-  <si>
-    <t>427.33</t>
-  </si>
-  <si>
-    <t>605.49</t>
-  </si>
-  <si>
-    <t>631.6</t>
-  </si>
-  <si>
-    <t>443.03</t>
-  </si>
-  <si>
-    <t>641.02</t>
-  </si>
-  <si>
-    <t>653.08</t>
-  </si>
-  <si>
-    <t>449.64</t>
-  </si>
-  <si>
-    <t>657.55</t>
-  </si>
-  <si>
-    <t>678.7</t>
-  </si>
-  <si>
-    <t>448.82</t>
-  </si>
-  <si>
-    <t>653.42</t>
-  </si>
-  <si>
-    <t>677.88</t>
-  </si>
-  <si>
-    <t>453.77</t>
-  </si>
-  <si>
-    <t>660.03</t>
-  </si>
-  <si>
-    <t>679.53</t>
-  </si>
-  <si>
-    <t>454.6</t>
-  </si>
-  <si>
-    <t>666.64</t>
-  </si>
-  <si>
-    <t>684.49</t>
-  </si>
-  <si>
-    <t>694.41</t>
-  </si>
-  <si>
-    <t>455.43</t>
-  </si>
-  <si>
-    <t>655.07</t>
-  </si>
-  <si>
-    <t>691.1</t>
-  </si>
-  <si>
-    <t>445.51</t>
-  </si>
-  <si>
-    <t>650.12</t>
-  </si>
-  <si>
-    <t>680.36</t>
-  </si>
-  <si>
-    <t>444.68</t>
-  </si>
-  <si>
-    <t>646.81</t>
-  </si>
-  <si>
-    <t>686.97</t>
-  </si>
-  <si>
-    <t>647.64</t>
-  </si>
-  <si>
-    <t>688.62</t>
-  </si>
-  <si>
-    <t>452.95</t>
-  </si>
-  <si>
-    <t>663.34</t>
-  </si>
-  <si>
-    <t>687.79</t>
-  </si>
-  <si>
-    <t>457.91</t>
-  </si>
-  <si>
-    <t>669.95</t>
-  </si>
-  <si>
-    <t>688.96</t>
-  </si>
-  <si>
-    <t>689.45</t>
-  </si>
-  <si>
-    <t>443.86</t>
-  </si>
-  <si>
-    <t>693.09</t>
-  </si>
-  <si>
-    <t>700.19</t>
-  </si>
-  <si>
-    <t>701.36</t>
-  </si>
-  <si>
-    <t>711.76</t>
-  </si>
-  <si>
-    <t>699.7</t>
-  </si>
-  <si>
-    <t>710.93</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>696.06</t>
-  </si>
-  <si>
-    <t>668.3</t>
-  </si>
-  <si>
-    <t>440.55</t>
-  </si>
-  <si>
-    <t>671.6</t>
-  </si>
-  <si>
-    <t>438.07</t>
-  </si>
-  <si>
-    <t>669.12</t>
-  </si>
-  <si>
-    <t>661.69</t>
-  </si>
-  <si>
-    <t>439.73</t>
-  </si>
-  <si>
-    <t>691.93</t>
-  </si>
-  <si>
-    <t>450.47</t>
-  </si>
-  <si>
-    <t>696.88</t>
-  </si>
-  <si>
-    <t>654.25</t>
-  </si>
-  <si>
-    <t>645.16</t>
-  </si>
-  <si>
-    <t>628.63</t>
-  </si>
-  <si>
-    <t>681.18</t>
-  </si>
-  <si>
-    <t>612.93</t>
-  </si>
-  <si>
-    <t>672.92</t>
-  </si>
-  <si>
-    <t>458.73</t>
-  </si>
-  <si>
-    <t>622.02</t>
-  </si>
-  <si>
-    <t>367.96</t>
-  </si>
-  <si>
-    <t>462.17</t>
-  </si>
-  <si>
-    <t>462.04</t>
-  </si>
-  <si>
-    <t>635.24</t>
-  </si>
-  <si>
-    <t>380.36</t>
-  </si>
-  <si>
-    <t>467.17</t>
-  </si>
-  <si>
-    <t>469.48</t>
-  </si>
-  <si>
-    <t>701.84</t>
-  </si>
-  <si>
-    <t>385.31</t>
-  </si>
-  <si>
-    <t>461.17</t>
-  </si>
-  <si>
-    <t>474.44</t>
-  </si>
-  <si>
-    <t>641.85</t>
-  </si>
-  <si>
-    <t>705.98</t>
-  </si>
-  <si>
-    <t>389.45</t>
-  </si>
-  <si>
-    <t>475.26</t>
-  </si>
-  <si>
-    <t>636.89</t>
-  </si>
-  <si>
-    <t>703.5</t>
-  </si>
-  <si>
-    <t>386.14</t>
-  </si>
-  <si>
-    <t>456.17</t>
-  </si>
-  <si>
-    <t>483.53</t>
-  </si>
-  <si>
-    <t>626.97</t>
-  </si>
-  <si>
-    <t>695.23</t>
-  </si>
-  <si>
-    <t>383.66</t>
-  </si>
-  <si>
-    <t>449.17</t>
-  </si>
-  <si>
-    <t>498.4</t>
-  </si>
-  <si>
-    <t>625.32</t>
-  </si>
-  <si>
-    <t>386.97</t>
-  </si>
-  <si>
-    <t>443.17</t>
-  </si>
-  <si>
-    <t>496.75</t>
-  </si>
-  <si>
-    <t>693.58</t>
-  </si>
-  <si>
-    <t>432.17</t>
-  </si>
-  <si>
-    <t>624.5</t>
-  </si>
-  <si>
-    <t>692.75</t>
-  </si>
-  <si>
-    <t>381.18</t>
-  </si>
-  <si>
-    <t>430.17</t>
-  </si>
-  <si>
-    <t>631.11</t>
-  </si>
-  <si>
-    <t>500.06</t>
-  </si>
-  <si>
-    <t>633.59</t>
-  </si>
-  <si>
-    <t>704.32</t>
-  </si>
-  <si>
-    <t>356.39</t>
-  </si>
-  <si>
-    <t>434.17</t>
-  </si>
-  <si>
-    <t>501.71</t>
-  </si>
-  <si>
     <t>Gasoline</t>
   </si>
   <si>
@@ -741,144 +328,6 @@
     <t>Price for NL without taxes</t>
   </si>
   <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>591.76</t>
-  </si>
-  <si>
-    <t>338.79</t>
-  </si>
-  <si>
-    <t>582.13</t>
-  </si>
-  <si>
-    <t>594.24</t>
-  </si>
-  <si>
-    <t>354.49</t>
-  </si>
-  <si>
-    <t>587.91</t>
-  </si>
-  <si>
-    <t>595.06</t>
-  </si>
-  <si>
-    <t>361.1</t>
-  </si>
-  <si>
-    <t>584.61</t>
-  </si>
-  <si>
-    <t>590.11</t>
-  </si>
-  <si>
-    <t>365.24</t>
-  </si>
-  <si>
-    <t>583.78</t>
-  </si>
-  <si>
-    <t>366.06</t>
-  </si>
-  <si>
-    <t>567.25</t>
-  </si>
-  <si>
-    <t>576.88</t>
-  </si>
-  <si>
-    <t>544.11</t>
-  </si>
-  <si>
-    <t>553.74</t>
-  </si>
-  <si>
-    <t>366.89</t>
-  </si>
-  <si>
-    <t>550.72</t>
-  </si>
-  <si>
-    <t>566.14</t>
-  </si>
-  <si>
-    <t>377.63</t>
-  </si>
-  <si>
-    <t>539.98</t>
-  </si>
-  <si>
-    <t>567.79</t>
-  </si>
-  <si>
-    <t>380.94</t>
-  </si>
-  <si>
-    <t>543.29</t>
-  </si>
-  <si>
-    <t>578.54</t>
-  </si>
-  <si>
-    <t>533.37</t>
-  </si>
-  <si>
-    <t>579.36</t>
-  </si>
-  <si>
-    <t>379.29</t>
-  </si>
-  <si>
-    <t>515.19</t>
-  </si>
-  <si>
-    <t>359.45</t>
-  </si>
-  <si>
-    <t>502.79</t>
-  </si>
-  <si>
-    <t>569.44</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>560.35</t>
-  </si>
-  <si>
-    <t>463.12</t>
-  </si>
-  <si>
-    <t>525.64</t>
-  </si>
-  <si>
-    <t>342.1</t>
-  </si>
-  <si>
-    <t>435.02</t>
-  </si>
-  <si>
-    <t>496.72</t>
-  </si>
-  <si>
-    <t>322.26</t>
-  </si>
-  <si>
-    <t>434.19</t>
-  </si>
-  <si>
-    <t>490.93</t>
-  </si>
-  <si>
-    <t>317.3</t>
-  </si>
-  <si>
-    <t>313.17</t>
-  </si>
-  <si>
     <t>http://www.langegas.com/alte_daten/umrele.htm</t>
   </si>
   <si>
@@ -916,6 +365,9 @@
   </si>
   <si>
     <t>kg_per_liter</t>
+  </si>
+  <si>
+    <t>Calculate monthly averages</t>
   </si>
 </sst>
 </file>
@@ -932,12 +384,19 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1593,610 +1052,613 @@
   </borders>
   <cellStyleXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="28" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="33" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="32" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -2823,6 +2285,26 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3191,10 +2673,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3231,13 +2713,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="145"/>
+      <c r="D9" s="143"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="146"/>
+      <c r="D10" s="144"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -3247,7 +2729,7 @@
       <c r="C11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="146"/>
+      <c r="D11" s="144"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
@@ -3255,7 +2737,7 @@
       <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="146"/>
+      <c r="D12" s="144"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
@@ -3263,7 +2745,7 @@
       <c r="C13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="144"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -3271,13 +2753,13 @@
       <c r="C14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="146"/>
+      <c r="D14" s="144"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
-      <c r="D15" s="146"/>
+      <c r="D15" s="144"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -3287,7 +2769,7 @@
       <c r="C16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="146"/>
+      <c r="D16" s="144"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -3295,7 +2777,7 @@
       <c r="C17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="146"/>
+      <c r="D17" s="144"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -3303,7 +2785,7 @@
       <c r="C18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="146"/>
+      <c r="D18" s="144"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -3311,7 +2793,7 @@
       <c r="C19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="146"/>
+      <c r="D19" s="144"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -3319,7 +2801,7 @@
       <c r="C20" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="144"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -3327,7 +2809,7 @@
       <c r="C21" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="146"/>
+      <c r="D21" s="144"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -3335,19 +2817,19 @@
       <c r="C22" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="146"/>
+      <c r="D22" s="144"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="146"/>
+      <c r="D23" s="144"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="147"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3391,28 +2873,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="152" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="158"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -3464,8 +2946,8 @@
     </row>
     <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="23"/>
-      <c r="C9" s="144" t="s">
-        <v>280</v>
+      <c r="C9" s="142" t="s">
+        <v>96</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -3520,7 +3002,7 @@
     <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="23"/>
       <c r="C12" s="103" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>43</v>
@@ -3539,8 +3021,8 @@
     </row>
     <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="23"/>
-      <c r="C13" s="151" t="s">
-        <v>283</v>
+      <c r="C13" s="149" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>59</v>
@@ -3602,7 +3084,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -3817,13 +3299,13 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="128" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="143" t="s">
-        <v>277</v>
+      <c r="C8" s="141" t="s">
+        <v>93</v>
       </c>
       <c r="D8" s="107" t="s">
         <v>42</v>
@@ -3854,8 +3336,8 @@
     </row>
     <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="143" t="s">
-        <v>283</v>
+      <c r="C9" s="141" t="s">
+        <v>99</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -3910,8 +3392,8 @@
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="150" t="s">
-        <v>282</v>
+      <c r="Q10" s="148" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="16" thickBot="1">
@@ -4054,7 +3536,7 @@
     <row r="7" spans="2:12" ht="16">
       <c r="B7" s="50"/>
       <c r="C7" s="116" t="s">
-        <v>277</v>
+        <v>93</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="118" t="s">
@@ -4173,7 +3655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y220"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4350,12 +3834,12 @@
         <v>16</v>
       </c>
       <c r="E8" s="109" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="141">
+        <v>81</v>
+      </c>
+      <c r="F8" s="139">
         <v>745</v>
       </c>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="139" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="110" t="s">
@@ -4383,10 +3867,10 @@
       <c r="B9" s="99"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
-      <c r="F9" s="141">
+      <c r="F9" s="139">
         <v>43.2</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="139" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="110" t="s">
@@ -4414,11 +3898,11 @@
       <c r="B10" s="99"/>
       <c r="C10" s="109"/>
       <c r="D10" s="109"/>
-      <c r="F10" s="141">
+      <c r="F10" s="139">
         <f>F8/1000</f>
         <v>0.745</v>
       </c>
-      <c r="G10" s="141" t="s">
+      <c r="G10" s="139" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="110" t="s">
@@ -4446,11 +3930,11 @@
       <c r="B11" s="99"/>
       <c r="C11" s="109"/>
       <c r="D11" s="109"/>
-      <c r="F11" s="141">
+      <c r="F11" s="139">
         <f>F9*F10</f>
         <v>32.184000000000005</v>
       </c>
-      <c r="G11" s="141" t="s">
+      <c r="G11" s="139" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="110" t="s">
@@ -4479,10 +3963,10 @@
       <c r="C12" s="109"/>
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
-      <c r="F12" s="141">
+      <c r="F12" s="139">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="139" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="109" t="s">
@@ -4511,8 +3995,8 @@
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
       <c r="H13" s="109"/>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
@@ -4537,12 +4021,12 @@
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
       <c r="E14" s="109" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="141">
+        <v>82</v>
+      </c>
+      <c r="F14" s="139">
         <v>832</v>
       </c>
-      <c r="G14" s="141" t="s">
+      <c r="G14" s="139" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="110" t="s">
@@ -4570,10 +4054,10 @@
       <c r="B15" s="99"/>
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
-      <c r="F15" s="141">
+      <c r="F15" s="139">
         <v>43.1</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="139" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="110" t="s">
@@ -4601,11 +4085,11 @@
       <c r="B16" s="99"/>
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
-      <c r="F16" s="141">
+      <c r="F16" s="139">
         <f>F14/1000</f>
         <v>0.83199999999999996</v>
       </c>
-      <c r="G16" s="141" t="s">
+      <c r="G16" s="139" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="110" t="s">
@@ -4633,11 +4117,11 @@
       <c r="B17" s="99"/>
       <c r="C17" s="109"/>
       <c r="D17" s="109"/>
-      <c r="F17" s="141">
+      <c r="F17" s="139">
         <f>F15*F16</f>
         <v>35.859200000000001</v>
       </c>
-      <c r="G17" s="141" t="s">
+      <c r="G17" s="139" t="s">
         <v>55</v>
       </c>
       <c r="H17" s="110" t="s">
@@ -4666,10 +4150,10 @@
       <c r="C18" s="109"/>
       <c r="D18" s="109"/>
       <c r="E18" s="109"/>
-      <c r="F18" s="141">
+      <c r="F18" s="139">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G18" s="141" t="s">
+      <c r="G18" s="139" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="109" t="s">
@@ -4698,8 +4182,8 @@
       <c r="C19" s="109"/>
       <c r="D19" s="109"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
       <c r="H19" s="109"/>
       <c r="I19" s="109"/>
       <c r="J19" s="109"/>
@@ -4724,10 +4208,10 @@
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109" t="s">
-        <v>221</v>
-      </c>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
+        <v>83</v>
+      </c>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
       <c r="H20" s="110"/>
       <c r="I20" s="109"/>
       <c r="J20" s="109"/>
@@ -4751,11 +4235,11 @@
       <c r="B21" s="99"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141">
+      <c r="E21" s="139"/>
+      <c r="F21" s="139">
         <v>46</v>
       </c>
-      <c r="G21" s="141" t="s">
+      <c r="G21" s="139" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="110" t="s">
@@ -4783,16 +4267,16 @@
       <c r="B22" s="99"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142">
+      <c r="E22" s="139"/>
+      <c r="F22" s="140">
         <f>E69</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="G22" s="141" t="s">
+      <c r="G22" s="139" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="I22" s="109"/>
       <c r="J22" s="109"/>
@@ -4816,12 +4300,12 @@
       <c r="B23" s="99"/>
       <c r="C23" s="109"/>
       <c r="D23" s="109"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141">
+      <c r="E23" s="139"/>
+      <c r="F23" s="139">
         <f>F21*F22</f>
         <v>24.103999999999999</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="139" t="s">
         <v>55</v>
       </c>
       <c r="H23" s="110" t="s">
@@ -4850,10 +4334,10 @@
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
-      <c r="F24" s="141">
+      <c r="F24" s="139">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G24" s="141" t="s">
+      <c r="G24" s="139" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="109" t="s">
@@ -4908,12 +4392,12 @@
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
       <c r="E26" s="109" t="s">
-        <v>274</v>
-      </c>
-      <c r="F26" s="141">
+        <v>90</v>
+      </c>
+      <c r="F26" s="139">
         <v>970</v>
       </c>
-      <c r="G26" s="141" t="s">
+      <c r="G26" s="139" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="110" t="s">
@@ -4942,10 +4426,10 @@
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
       <c r="E27" s="109"/>
-      <c r="F27" s="141">
+      <c r="F27" s="139">
         <v>40.5</v>
       </c>
-      <c r="G27" s="141" t="s">
+      <c r="G27" s="139" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="110" t="s">
@@ -4974,11 +4458,11 @@
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
-      <c r="F28" s="141">
+      <c r="F28" s="139">
         <f>F26/1000</f>
         <v>0.97</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="139" t="s">
         <v>53</v>
       </c>
       <c r="H28" s="110" t="s">
@@ -5004,11 +4488,11 @@
     </row>
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="99"/>
-      <c r="F29" s="141">
+      <c r="F29" s="139">
         <f>F27*F28</f>
         <v>39.284999999999997</v>
       </c>
-      <c r="G29" s="141" t="s">
+      <c r="G29" s="139" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="110" t="s">
@@ -5017,10 +4501,10 @@
     </row>
     <row r="30" spans="2:25" customFormat="1" ht="16">
       <c r="B30" s="99"/>
-      <c r="F30" s="141">
+      <c r="F30" s="139">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="G30" s="141" t="s">
+      <c r="G30" s="139" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="109" t="s">
@@ -5042,7 +4526,7 @@
     <row r="35" spans="2:6" customFormat="1" ht="16">
       <c r="B35" s="99"/>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:6" customFormat="1" ht="16">
@@ -5177,7 +4661,7 @@
     <row r="63" spans="2:25" customFormat="1" ht="16">
       <c r="B63" s="99"/>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="2:25" customFormat="1" ht="16">
@@ -5201,7 +4685,7 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F69" t="s">
-        <v>272</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="2:6" customFormat="1" ht="16">
@@ -5387,7 +4871,9 @@
     <row r="90" spans="2:25" customFormat="1" ht="16">
       <c r="B90" s="99"/>
       <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
+      <c r="D90" s="109" t="s">
+        <v>100</v>
+      </c>
       <c r="E90" s="109"/>
       <c r="F90" s="109"/>
       <c r="G90" s="109"/>
@@ -5491,35 +4977,35 @@
       <c r="C93" s="109"/>
       <c r="D93" s="109"/>
       <c r="E93" t="s">
-        <v>219</v>
-      </c>
-      <c r="F93" s="138" t="str">
-        <f>J93</f>
-        <v>578</v>
+        <v>81</v>
+      </c>
+      <c r="F93" s="161">
+        <f>AVERAGE(J93:J97)</f>
+        <v>595.68200000000002</v>
       </c>
       <c r="G93" s="109" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="H93" s="135">
-        <v>42149</v>
-      </c>
-      <c r="I93" s="137">
-        <v>1</v>
-      </c>
-      <c r="J93" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="K93" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="L93" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M93" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N93" s="136" t="s">
-        <v>227</v>
+        <v>42219</v>
+      </c>
+      <c r="I93" s="136">
+        <v>1</v>
+      </c>
+      <c r="J93" s="159">
+        <v>573.86</v>
+      </c>
+      <c r="K93" s="159">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="L93" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M93" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N93" s="159">
+        <v>312.33999999999997</v>
       </c>
       <c r="O93" s="109"/>
       <c r="P93" s="109"/>
@@ -5538,35 +5024,35 @@
       <c r="C94" s="109"/>
       <c r="D94" s="109"/>
       <c r="E94" t="s">
-        <v>220</v>
-      </c>
-      <c r="F94" s="138" t="str">
-        <f>K93</f>
-        <v>591.76</v>
+        <v>82</v>
+      </c>
+      <c r="F94" s="161">
+        <f>AVERAGE(K93:K97)</f>
+        <v>549.61</v>
       </c>
       <c r="G94" s="109" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="H94" s="135">
-        <v>42142</v>
-      </c>
-      <c r="I94" s="137">
-        <v>1</v>
-      </c>
-      <c r="J94" s="136" t="s">
-        <v>228</v>
-      </c>
-      <c r="K94" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="L94" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M94" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N94" s="136" t="s">
-        <v>230</v>
+        <v>42212</v>
+      </c>
+      <c r="I94" s="136">
+        <v>1</v>
+      </c>
+      <c r="J94" s="159">
+        <v>586.26</v>
+      </c>
+      <c r="K94" s="159">
+        <v>533.91</v>
+      </c>
+      <c r="L94" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M94" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N94" s="159">
+        <v>315.64999999999998</v>
       </c>
       <c r="O94" s="109"/>
       <c r="P94" s="109"/>
@@ -5585,35 +5071,35 @@
       <c r="C95" s="109"/>
       <c r="D95" s="109"/>
       <c r="E95" t="s">
-        <v>221</v>
-      </c>
-      <c r="F95" s="138" t="str">
-        <f>N93</f>
-        <v>338.79</v>
+        <v>83</v>
+      </c>
+      <c r="F95" s="161">
+        <f>AVERAGE(N93:N97)</f>
+        <v>314.49200000000002</v>
       </c>
       <c r="G95" s="109" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="H95" s="135">
-        <v>42135</v>
-      </c>
-      <c r="I95" s="137">
-        <v>1</v>
-      </c>
-      <c r="J95" s="136" t="s">
-        <v>231</v>
-      </c>
-      <c r="K95" s="136" t="s">
-        <v>232</v>
-      </c>
-      <c r="L95" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M95" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N95" s="136" t="s">
-        <v>233</v>
+        <v>42205</v>
+      </c>
+      <c r="I95" s="136">
+        <v>1</v>
+      </c>
+      <c r="J95" s="159">
+        <v>599.48</v>
+      </c>
+      <c r="K95" s="159">
+        <v>547.13</v>
+      </c>
+      <c r="L95" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M95" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N95" s="159">
+        <v>310.69</v>
       </c>
       <c r="O95" s="109"/>
       <c r="P95" s="109"/>
@@ -5632,35 +5118,35 @@
       <c r="C96" s="109"/>
       <c r="D96" s="109"/>
       <c r="E96" t="s">
-        <v>275</v>
-      </c>
-      <c r="F96" s="138" t="str">
-        <f>M93</f>
+        <v>91</v>
+      </c>
+      <c r="F96" s="160">
+        <f>AVERAGE(M93:M97)</f>
         <v>464.85</v>
       </c>
       <c r="G96" s="109" t="s">
-        <v>276</v>
+        <v>92</v>
       </c>
       <c r="H96" s="135">
-        <v>42128</v>
-      </c>
-      <c r="I96" s="137">
-        <v>1</v>
-      </c>
-      <c r="J96" s="136" t="s">
-        <v>234</v>
-      </c>
-      <c r="K96" s="136" t="s">
-        <v>235</v>
-      </c>
-      <c r="L96" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M96" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N96" s="136" t="s">
-        <v>236</v>
+        <v>42198</v>
+      </c>
+      <c r="I96" s="136">
+        <v>1</v>
+      </c>
+      <c r="J96" s="159">
+        <v>617.66999999999996</v>
+      </c>
+      <c r="K96" s="159">
+        <v>568.62</v>
+      </c>
+      <c r="L96" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M96" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N96" s="159">
+        <v>318.95999999999998</v>
       </c>
       <c r="O96" s="109"/>
       <c r="P96" s="109"/>
@@ -5682,25 +5168,25 @@
       <c r="F97" s="98"/>
       <c r="G97" s="98"/>
       <c r="H97" s="135">
-        <v>42121</v>
-      </c>
-      <c r="I97" s="137">
-        <v>1</v>
-      </c>
-      <c r="J97" s="136" t="s">
-        <v>237</v>
-      </c>
-      <c r="K97" s="136" t="s">
-        <v>226</v>
-      </c>
-      <c r="L97" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M97" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N97" s="136" t="s">
-        <v>238</v>
+        <v>42191</v>
+      </c>
+      <c r="I97" s="136">
+        <v>1</v>
+      </c>
+      <c r="J97" s="159">
+        <v>601.14</v>
+      </c>
+      <c r="K97" s="159">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="L97" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M97" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N97" s="159">
+        <v>314.82</v>
       </c>
       <c r="O97" s="109"/>
       <c r="P97" s="109"/>
@@ -5719,35 +5205,35 @@
       <c r="C98" s="109"/>
       <c r="D98" s="109"/>
       <c r="E98" t="s">
-        <v>219</v>
-      </c>
-      <c r="F98" s="139">
+        <v>81</v>
+      </c>
+      <c r="F98" s="137">
         <f>F93/1000</f>
-        <v>0.57799999999999996</v>
+        <v>0.59568200000000004</v>
       </c>
       <c r="G98" s="109" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="H98" s="135">
-        <v>42114</v>
-      </c>
-      <c r="I98" s="137">
-        <v>1</v>
-      </c>
-      <c r="J98" s="136" t="s">
-        <v>239</v>
-      </c>
-      <c r="K98" s="136" t="s">
-        <v>240</v>
-      </c>
-      <c r="L98" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M98" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N98" s="136" t="s">
-        <v>233</v>
+        <v>42184</v>
+      </c>
+      <c r="I98" s="136">
+        <v>1</v>
+      </c>
+      <c r="J98" s="159">
+        <v>593.70000000000005</v>
+      </c>
+      <c r="K98" s="159">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="L98" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M98" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N98" s="159">
+        <v>318.13</v>
       </c>
       <c r="O98" s="109"/>
       <c r="P98" s="109"/>
@@ -5766,35 +5252,35 @@
       <c r="C99" s="109"/>
       <c r="D99" s="109"/>
       <c r="E99" t="s">
-        <v>220</v>
-      </c>
-      <c r="F99" s="139">
+        <v>82</v>
+      </c>
+      <c r="F99" s="137">
         <f>F94/1000</f>
-        <v>0.59175999999999995</v>
+        <v>0.54961000000000004</v>
       </c>
       <c r="G99" s="109" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="H99" s="135">
-        <v>42107</v>
-      </c>
-      <c r="I99" s="137">
-        <v>1</v>
-      </c>
-      <c r="J99" s="136" t="s">
-        <v>241</v>
-      </c>
-      <c r="K99" s="136" t="s">
-        <v>242</v>
-      </c>
-      <c r="L99" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M99" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N99" s="136" t="s">
-        <v>243</v>
+        <v>42177</v>
+      </c>
+      <c r="I99" s="136">
+        <v>1</v>
+      </c>
+      <c r="J99" s="159">
+        <v>604.44000000000005</v>
+      </c>
+      <c r="K99" s="159">
+        <v>585.15</v>
+      </c>
+      <c r="L99" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M99" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N99" s="159">
+        <v>317.3</v>
       </c>
       <c r="O99" s="109"/>
       <c r="P99" s="109"/>
@@ -5813,35 +5299,35 @@
       <c r="C100" s="109"/>
       <c r="D100" s="109"/>
       <c r="E100" t="s">
-        <v>221</v>
-      </c>
-      <c r="F100" s="139">
+        <v>83</v>
+      </c>
+      <c r="F100" s="137">
         <f>F95/1000</f>
-        <v>0.33879000000000004</v>
+        <v>0.31449199999999999</v>
       </c>
       <c r="G100" s="109" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="H100" s="135">
-        <v>42093</v>
-      </c>
-      <c r="I100" s="137">
-        <v>1</v>
-      </c>
-      <c r="J100" s="136" t="s">
-        <v>244</v>
-      </c>
-      <c r="K100" s="136" t="s">
-        <v>245</v>
-      </c>
-      <c r="L100" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M100" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N100" s="136" t="s">
-        <v>246</v>
+        <v>42170</v>
+      </c>
+      <c r="I100" s="136">
+        <v>1</v>
+      </c>
+      <c r="J100" s="159">
+        <v>601.14</v>
+      </c>
+      <c r="K100" s="159">
+        <v>587.63</v>
+      </c>
+      <c r="L100" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M100" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N100" s="159">
+        <v>326.39</v>
       </c>
       <c r="O100" s="109"/>
       <c r="P100" s="109"/>
@@ -5860,30 +5346,30 @@
       <c r="C101" s="109"/>
       <c r="D101" s="109"/>
       <c r="E101" t="s">
-        <v>275</v>
-      </c>
-      <c r="F101" s="139"/>
+        <v>91</v>
+      </c>
+      <c r="F101" s="137"/>
       <c r="G101" s="109"/>
       <c r="H101" s="135">
-        <v>42086</v>
-      </c>
-      <c r="I101" s="137">
-        <v>1</v>
-      </c>
-      <c r="J101" s="136" t="s">
-        <v>247</v>
-      </c>
-      <c r="K101" s="136" t="s">
-        <v>248</v>
-      </c>
-      <c r="L101" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M101" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N101" s="136" t="s">
-        <v>249</v>
+        <v>42163</v>
+      </c>
+      <c r="I101" s="136">
+        <v>1</v>
+      </c>
+      <c r="J101" s="159">
+        <v>585.42999999999995</v>
+      </c>
+      <c r="K101" s="159">
+        <v>587.63</v>
+      </c>
+      <c r="L101" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M101" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N101" s="159">
+        <v>337.14</v>
       </c>
       <c r="O101" s="109"/>
       <c r="P101" s="109"/>
@@ -5905,25 +5391,25 @@
       <c r="F102" s="109"/>
       <c r="G102" s="109"/>
       <c r="H102" s="135">
-        <v>42079</v>
-      </c>
-      <c r="I102" s="137">
-        <v>1</v>
-      </c>
-      <c r="J102" s="136" t="s">
-        <v>250</v>
-      </c>
-      <c r="K102" s="136" t="s">
-        <v>251</v>
-      </c>
-      <c r="L102" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M102" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N102" s="136" t="s">
-        <v>246</v>
+        <v>42156</v>
+      </c>
+      <c r="I102" s="136">
+        <v>1</v>
+      </c>
+      <c r="J102" s="159">
+        <v>579.65</v>
+      </c>
+      <c r="K102" s="159">
+        <v>587.63</v>
+      </c>
+      <c r="L102" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M102" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N102" s="159">
+        <v>342.1</v>
       </c>
       <c r="O102" s="109"/>
       <c r="P102" s="109"/>
@@ -5942,35 +5428,35 @@
       <c r="C103" s="109"/>
       <c r="D103" s="109"/>
       <c r="E103" t="s">
-        <v>219</v>
-      </c>
-      <c r="F103" s="140">
+        <v>81</v>
+      </c>
+      <c r="F103" s="138">
         <f>F98/F11</f>
-        <v>1.795923440218742E-2</v>
+        <v>1.8508637832463336E-2</v>
       </c>
       <c r="G103" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H103" s="135">
-        <v>42072</v>
-      </c>
-      <c r="I103" s="137">
-        <v>1</v>
-      </c>
-      <c r="J103" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="K103" s="136" t="s">
-        <v>253</v>
-      </c>
-      <c r="L103" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M103" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N103" s="136" t="s">
-        <v>254</v>
+        <v>42149</v>
+      </c>
+      <c r="I103" s="136">
+        <v>1</v>
+      </c>
+      <c r="J103" s="159">
+        <v>578</v>
+      </c>
+      <c r="K103" s="159">
+        <v>591.76</v>
+      </c>
+      <c r="L103" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M103" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N103" s="159">
+        <v>338.79</v>
       </c>
       <c r="O103" s="109"/>
       <c r="P103" s="109"/>
@@ -5989,35 +5475,35 @@
       <c r="C104" s="109"/>
       <c r="D104" s="109"/>
       <c r="E104" t="s">
-        <v>220</v>
-      </c>
-      <c r="F104" s="140">
+        <v>82</v>
+      </c>
+      <c r="F104" s="138">
         <f>F99/F17</f>
-        <v>1.6502320185614847E-2</v>
+        <v>1.5326889612707478E-2</v>
       </c>
       <c r="G104" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H104" s="135">
-        <v>42065</v>
-      </c>
-      <c r="I104" s="137">
-        <v>1</v>
-      </c>
-      <c r="J104" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="K104" s="136" t="s">
-        <v>251</v>
-      </c>
-      <c r="L104" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M104" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N104" s="136" t="s">
-        <v>256</v>
+        <v>42142</v>
+      </c>
+      <c r="I104" s="136">
+        <v>1</v>
+      </c>
+      <c r="J104" s="159">
+        <v>582.13</v>
+      </c>
+      <c r="K104" s="159">
+        <v>594.24</v>
+      </c>
+      <c r="L104" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M104" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N104" s="159">
+        <v>354.49</v>
       </c>
       <c r="O104" s="109"/>
       <c r="P104" s="109"/>
@@ -6036,35 +5522,35 @@
       <c r="C105" s="109"/>
       <c r="D105" s="109"/>
       <c r="E105" t="s">
-        <v>221</v>
-      </c>
-      <c r="F105" s="140">
+        <v>83</v>
+      </c>
+      <c r="F105" s="138">
         <f>F100/F23</f>
-        <v>1.4055343511450383E-2</v>
+        <v>1.3047295054762695E-2</v>
       </c>
       <c r="G105" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="135">
-        <v>42058</v>
-      </c>
-      <c r="I105" s="137">
-        <v>1</v>
-      </c>
-      <c r="J105" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="K105" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="L105" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M105" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N105" s="136" t="s">
-        <v>227</v>
+        <v>42135</v>
+      </c>
+      <c r="I105" s="136">
+        <v>1</v>
+      </c>
+      <c r="J105" s="159">
+        <v>587.91</v>
+      </c>
+      <c r="K105" s="159">
+        <v>595.05999999999995</v>
+      </c>
+      <c r="L105" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M105" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N105" s="159">
+        <v>361.1</v>
       </c>
       <c r="O105" s="109"/>
       <c r="P105" s="109"/>
@@ -6083,9 +5569,9 @@
       <c r="C106" s="109"/>
       <c r="D106" s="109"/>
       <c r="E106" t="s">
-        <v>275</v>
-      </c>
-      <c r="F106" s="140">
+        <v>91</v>
+      </c>
+      <c r="F106" s="138">
         <f>F96/(F27*1000)</f>
         <v>1.1477777777777778E-2</v>
       </c>
@@ -6093,25 +5579,25 @@
         <v>44</v>
       </c>
       <c r="H106" s="135">
-        <v>42051</v>
-      </c>
-      <c r="I106" s="137">
-        <v>1</v>
-      </c>
-      <c r="J106" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="K106" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="L106" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M106" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N106" s="136" t="s">
-        <v>227</v>
+        <v>42128</v>
+      </c>
+      <c r="I106" s="136">
+        <v>1</v>
+      </c>
+      <c r="J106" s="159">
+        <v>584.61</v>
+      </c>
+      <c r="K106" s="159">
+        <v>590.11</v>
+      </c>
+      <c r="L106" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M106" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N106" s="159">
+        <v>365.24</v>
       </c>
       <c r="O106" s="109"/>
       <c r="P106" s="109"/>
@@ -6133,25 +5619,25 @@
       <c r="F107" s="109"/>
       <c r="G107" s="109"/>
       <c r="H107" s="135">
-        <v>42044</v>
-      </c>
-      <c r="I107" s="137">
-        <v>1</v>
-      </c>
-      <c r="J107" s="136" t="s">
-        <v>261</v>
-      </c>
-      <c r="K107" s="136" t="s">
-        <v>262</v>
-      </c>
-      <c r="L107" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M107" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N107" s="136" t="s">
-        <v>263</v>
+        <v>42121</v>
+      </c>
+      <c r="I107" s="136">
+        <v>1</v>
+      </c>
+      <c r="J107" s="159">
+        <v>583.78</v>
+      </c>
+      <c r="K107" s="159">
+        <v>591.76</v>
+      </c>
+      <c r="L107" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M107" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N107" s="159">
+        <v>366.06</v>
       </c>
       <c r="O107" s="109"/>
       <c r="P107" s="109"/>
@@ -6173,25 +5659,25 @@
       <c r="F108" s="109"/>
       <c r="G108" s="109"/>
       <c r="H108" s="135">
-        <v>42037</v>
-      </c>
-      <c r="I108" s="137">
-        <v>1</v>
-      </c>
-      <c r="J108" s="136" t="s">
-        <v>264</v>
-      </c>
-      <c r="K108" s="136" t="s">
-        <v>265</v>
-      </c>
-      <c r="L108" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M108" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N108" s="136" t="s">
-        <v>266</v>
+        <v>42114</v>
+      </c>
+      <c r="I108" s="136">
+        <v>1</v>
+      </c>
+      <c r="J108" s="159">
+        <v>567.25</v>
+      </c>
+      <c r="K108" s="159">
+        <v>576.88</v>
+      </c>
+      <c r="L108" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M108" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N108" s="159">
+        <v>361.1</v>
       </c>
       <c r="O108" s="109"/>
       <c r="P108" s="109"/>
@@ -6213,25 +5699,25 @@
       <c r="F109" s="109"/>
       <c r="G109" s="109"/>
       <c r="H109" s="135">
-        <v>42030</v>
-      </c>
-      <c r="I109" s="137">
-        <v>1</v>
-      </c>
-      <c r="J109" s="136" t="s">
-        <v>267</v>
-      </c>
-      <c r="K109" s="136" t="s">
-        <v>268</v>
-      </c>
-      <c r="L109" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M109" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N109" s="136" t="s">
-        <v>269</v>
+        <v>42107</v>
+      </c>
+      <c r="I109" s="136">
+        <v>1</v>
+      </c>
+      <c r="J109" s="159">
+        <v>544.11</v>
+      </c>
+      <c r="K109" s="159">
+        <v>553.74</v>
+      </c>
+      <c r="L109" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M109" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N109" s="159">
+        <v>366.89</v>
       </c>
       <c r="O109" s="109"/>
       <c r="P109" s="109"/>
@@ -6253,25 +5739,25 @@
       <c r="F110" s="109"/>
       <c r="G110" s="109"/>
       <c r="H110" s="135">
-        <v>42023</v>
-      </c>
-      <c r="I110" s="137">
-        <v>1</v>
-      </c>
-      <c r="J110" s="136" t="s">
-        <v>264</v>
-      </c>
-      <c r="K110" s="136" t="s">
-        <v>268</v>
-      </c>
-      <c r="L110" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M110" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N110" s="136" t="s">
-        <v>270</v>
+        <v>42093</v>
+      </c>
+      <c r="I110" s="136">
+        <v>1</v>
+      </c>
+      <c r="J110" s="159">
+        <v>550.72</v>
+      </c>
+      <c r="K110" s="159">
+        <v>566.14</v>
+      </c>
+      <c r="L110" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M110" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N110" s="159">
+        <v>377.63</v>
       </c>
       <c r="O110" s="109"/>
       <c r="P110" s="109"/>
@@ -6293,25 +5779,25 @@
       <c r="F111" s="109"/>
       <c r="G111" s="109"/>
       <c r="H111" s="135">
-        <v>42016</v>
-      </c>
-      <c r="I111" s="137">
-        <v>1</v>
-      </c>
-      <c r="J111" s="136" t="s">
-        <v>81</v>
-      </c>
-      <c r="K111" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="L111" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M111" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N111" s="136" t="s">
-        <v>85</v>
+        <v>42086</v>
+      </c>
+      <c r="I111" s="136">
+        <v>1</v>
+      </c>
+      <c r="J111" s="159">
+        <v>539.98</v>
+      </c>
+      <c r="K111" s="159">
+        <v>567.79</v>
+      </c>
+      <c r="L111" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M111" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N111" s="159">
+        <v>380.94</v>
       </c>
       <c r="O111" s="109"/>
       <c r="P111" s="109"/>
@@ -6331,25 +5817,25 @@
       <c r="F112" s="109"/>
       <c r="G112" s="109"/>
       <c r="H112" s="135">
-        <v>42009</v>
-      </c>
-      <c r="I112" s="137">
-        <v>1</v>
-      </c>
-      <c r="J112" s="136" t="s">
-        <v>86</v>
-      </c>
-      <c r="K112" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="L112" s="136" t="s">
-        <v>83</v>
-      </c>
-      <c r="M112" s="136" t="s">
-        <v>84</v>
-      </c>
-      <c r="N112" s="136" t="s">
-        <v>88</v>
+        <v>42079</v>
+      </c>
+      <c r="I112" s="136">
+        <v>1</v>
+      </c>
+      <c r="J112" s="159">
+        <v>543.29</v>
+      </c>
+      <c r="K112" s="159">
+        <v>578.54</v>
+      </c>
+      <c r="L112" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M112" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N112" s="159">
+        <v>377.63</v>
       </c>
     </row>
     <row r="113" spans="2:14" customFormat="1" ht="16">
@@ -6357,25 +5843,25 @@
       <c r="F113" s="109"/>
       <c r="G113" s="109"/>
       <c r="H113" s="135">
-        <v>41988</v>
-      </c>
-      <c r="I113" s="137">
-        <v>1</v>
-      </c>
-      <c r="J113" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="K113" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="L113" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M113" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N113" s="136" t="s">
-        <v>93</v>
+        <v>42072</v>
+      </c>
+      <c r="I113" s="136">
+        <v>1</v>
+      </c>
+      <c r="J113" s="159">
+        <v>533.37</v>
+      </c>
+      <c r="K113" s="159">
+        <v>579.36</v>
+      </c>
+      <c r="L113" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M113" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N113" s="159">
+        <v>379.29</v>
       </c>
     </row>
     <row r="114" spans="2:14" customFormat="1" ht="16">
@@ -6383,25 +5869,25 @@
       <c r="F114" s="109"/>
       <c r="G114" s="109"/>
       <c r="H114" s="135">
-        <v>41981</v>
-      </c>
-      <c r="I114" s="137">
-        <v>1</v>
-      </c>
-      <c r="J114" s="136" t="s">
-        <v>94</v>
-      </c>
-      <c r="K114" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="L114" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M114" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N114" s="136" t="s">
-        <v>96</v>
+        <v>42065</v>
+      </c>
+      <c r="I114" s="136">
+        <v>1</v>
+      </c>
+      <c r="J114" s="159">
+        <v>515.19000000000005</v>
+      </c>
+      <c r="K114" s="159">
+        <v>578.54</v>
+      </c>
+      <c r="L114" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M114" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N114" s="159">
+        <v>359.45</v>
       </c>
     </row>
     <row r="115" spans="2:14" customFormat="1" ht="16">
@@ -6409,25 +5895,25 @@
       <c r="F115" s="109"/>
       <c r="G115" s="109"/>
       <c r="H115" s="135">
-        <v>41974</v>
-      </c>
-      <c r="I115" s="137">
-        <v>1</v>
-      </c>
-      <c r="J115" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="K115" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="L115" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M115" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N115" s="136" t="s">
-        <v>99</v>
+        <v>42058</v>
+      </c>
+      <c r="I115" s="136">
+        <v>1</v>
+      </c>
+      <c r="J115" s="159">
+        <v>502.79</v>
+      </c>
+      <c r="K115" s="159">
+        <v>569.44000000000005</v>
+      </c>
+      <c r="L115" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M115" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N115" s="159">
+        <v>338.79</v>
       </c>
     </row>
     <row r="116" spans="2:14" customFormat="1" ht="16">
@@ -6435,25 +5921,25 @@
       <c r="F116" s="109"/>
       <c r="G116" s="109"/>
       <c r="H116" s="135">
-        <v>41967</v>
-      </c>
-      <c r="I116" s="137">
-        <v>1</v>
-      </c>
-      <c r="J116" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="K116" s="136" t="s">
-        <v>101</v>
-      </c>
-      <c r="L116" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M116" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N116" s="136" t="s">
-        <v>102</v>
+        <v>42051</v>
+      </c>
+      <c r="I116" s="136">
+        <v>1</v>
+      </c>
+      <c r="J116" s="159">
+        <v>497</v>
+      </c>
+      <c r="K116" s="159">
+        <v>560.35</v>
+      </c>
+      <c r="L116" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M116" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N116" s="159">
+        <v>338.79</v>
       </c>
     </row>
     <row r="117" spans="2:14" customFormat="1" ht="16">
@@ -6461,25 +5947,25 @@
       <c r="F117" s="109"/>
       <c r="G117" s="109"/>
       <c r="H117" s="135">
-        <v>41960</v>
-      </c>
-      <c r="I117" s="137">
-        <v>1</v>
-      </c>
-      <c r="J117" s="136" t="s">
-        <v>103</v>
-      </c>
-      <c r="K117" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="L117" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M117" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N117" s="136" t="s">
-        <v>105</v>
+        <v>42044</v>
+      </c>
+      <c r="I117" s="136">
+        <v>1</v>
+      </c>
+      <c r="J117" s="159">
+        <v>463.12</v>
+      </c>
+      <c r="K117" s="159">
+        <v>525.64</v>
+      </c>
+      <c r="L117" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M117" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N117" s="159">
+        <v>342.1</v>
       </c>
     </row>
     <row r="118" spans="2:14" customFormat="1" ht="16">
@@ -6487,25 +5973,25 @@
       <c r="F118" s="109"/>
       <c r="G118" s="109"/>
       <c r="H118" s="135">
-        <v>41953</v>
-      </c>
-      <c r="I118" s="137">
-        <v>1</v>
-      </c>
-      <c r="J118" s="136" t="s">
-        <v>103</v>
-      </c>
-      <c r="K118" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="L118" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M118" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N118" s="136" t="s">
-        <v>107</v>
+        <v>42037</v>
+      </c>
+      <c r="I118" s="136">
+        <v>1</v>
+      </c>
+      <c r="J118" s="159">
+        <v>435.02</v>
+      </c>
+      <c r="K118" s="159">
+        <v>496.72</v>
+      </c>
+      <c r="L118" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M118" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N118" s="159">
+        <v>322.26</v>
       </c>
     </row>
     <row r="119" spans="2:14" customFormat="1" ht="16">
@@ -6513,25 +5999,25 @@
       <c r="F119" s="109"/>
       <c r="G119" s="109"/>
       <c r="H119" s="135">
-        <v>41946</v>
-      </c>
-      <c r="I119" s="137">
-        <v>1</v>
-      </c>
-      <c r="J119" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="K119" s="136" t="s">
-        <v>109</v>
-      </c>
-      <c r="L119" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M119" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N119" s="136" t="s">
-        <v>110</v>
+        <v>42030</v>
+      </c>
+      <c r="I119" s="136">
+        <v>1</v>
+      </c>
+      <c r="J119" s="159">
+        <v>434.19</v>
+      </c>
+      <c r="K119" s="159">
+        <v>490.93</v>
+      </c>
+      <c r="L119" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M119" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N119" s="159">
+        <v>317.3</v>
       </c>
     </row>
     <row r="120" spans="2:14" customFormat="1" ht="16">
@@ -6539,25 +6025,25 @@
       <c r="F120" s="109"/>
       <c r="G120" s="109"/>
       <c r="H120" s="135">
-        <v>41939</v>
-      </c>
-      <c r="I120" s="137">
-        <v>1</v>
-      </c>
-      <c r="J120" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="K120" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="L120" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M120" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N120" s="136" t="s">
-        <v>113</v>
+        <v>42023</v>
+      </c>
+      <c r="I120" s="136">
+        <v>1</v>
+      </c>
+      <c r="J120" s="159">
+        <v>435.02</v>
+      </c>
+      <c r="K120" s="159">
+        <v>490.93</v>
+      </c>
+      <c r="L120" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M120" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N120" s="159">
+        <v>313.17</v>
       </c>
     </row>
     <row r="121" spans="2:14" customFormat="1" ht="16">
@@ -6565,25 +6051,25 @@
       <c r="F121" s="109"/>
       <c r="G121" s="109"/>
       <c r="H121" s="135">
-        <v>41932</v>
-      </c>
-      <c r="I121" s="137">
-        <v>1</v>
-      </c>
-      <c r="J121" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="K121" s="136" t="s">
-        <v>115</v>
-      </c>
-      <c r="L121" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M121" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N121" s="136" t="s">
-        <v>116</v>
+        <v>42016</v>
+      </c>
+      <c r="I121" s="136">
+        <v>1</v>
+      </c>
+      <c r="J121" s="159">
+        <v>448.24</v>
+      </c>
+      <c r="K121" s="159">
+        <v>502.5</v>
+      </c>
+      <c r="L121" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M121" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N121" s="159">
+        <v>329.7</v>
       </c>
     </row>
     <row r="122" spans="2:14" customFormat="1" ht="16">
@@ -6591,25 +6077,25 @@
       <c r="F122" s="109"/>
       <c r="G122" s="109"/>
       <c r="H122" s="135">
-        <v>41925</v>
-      </c>
-      <c r="I122" s="137">
-        <v>1</v>
-      </c>
-      <c r="J122" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="K122" s="136" t="s">
-        <v>118</v>
-      </c>
-      <c r="L122" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M122" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N122" s="136" t="s">
-        <v>119</v>
+        <v>42009</v>
+      </c>
+      <c r="I122" s="136">
+        <v>1</v>
+      </c>
+      <c r="J122" s="159">
+        <v>466.43</v>
+      </c>
+      <c r="K122" s="159">
+        <v>508.29</v>
+      </c>
+      <c r="L122" s="159">
+        <v>360.35</v>
+      </c>
+      <c r="M122" s="159">
+        <v>464.85</v>
+      </c>
+      <c r="N122" s="159">
+        <v>351.19</v>
       </c>
     </row>
     <row r="123" spans="2:14" customFormat="1" ht="16">
@@ -6617,25 +6103,25 @@
       <c r="F123" s="109"/>
       <c r="G123" s="109"/>
       <c r="H123" s="135">
-        <v>41918</v>
-      </c>
-      <c r="I123" s="137">
-        <v>1</v>
-      </c>
-      <c r="J123" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="K123" s="136" t="s">
-        <v>121</v>
-      </c>
-      <c r="L123" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M123" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N123" s="136" t="s">
-        <v>122</v>
+        <v>41988</v>
+      </c>
+      <c r="I123" s="136">
+        <v>1</v>
+      </c>
+      <c r="J123" s="159">
+        <v>519.75</v>
+      </c>
+      <c r="K123" s="159">
+        <v>564.87</v>
+      </c>
+      <c r="L123" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M123" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N123" s="159">
+        <v>383.99</v>
       </c>
     </row>
     <row r="124" spans="2:14" customFormat="1" ht="16">
@@ -6643,25 +6129,25 @@
       <c r="F124" s="109"/>
       <c r="G124" s="109"/>
       <c r="H124" s="135">
-        <v>41911</v>
-      </c>
-      <c r="I124" s="137">
-        <v>1</v>
-      </c>
-      <c r="J124" s="136" t="s">
-        <v>123</v>
-      </c>
-      <c r="K124" s="136" t="s">
-        <v>124</v>
-      </c>
-      <c r="L124" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M124" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N124" s="136" t="s">
-        <v>125</v>
+        <v>41981</v>
+      </c>
+      <c r="I124" s="136">
+        <v>1</v>
+      </c>
+      <c r="J124" s="159">
+        <v>546.80999999999995</v>
+      </c>
+      <c r="K124" s="159">
+        <v>592.75</v>
+      </c>
+      <c r="L124" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M124" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N124" s="159">
+        <v>396.75</v>
       </c>
     </row>
     <row r="125" spans="2:14" customFormat="1" ht="16">
@@ -6669,25 +6155,25 @@
       <c r="F125" s="109"/>
       <c r="G125" s="109"/>
       <c r="H125" s="135">
-        <v>41904</v>
-      </c>
-      <c r="I125" s="137">
-        <v>1</v>
-      </c>
-      <c r="J125" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="K125" s="136" t="s">
-        <v>127</v>
-      </c>
-      <c r="L125" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M125" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N125" s="136" t="s">
-        <v>128</v>
+        <v>41974</v>
+      </c>
+      <c r="I125" s="136">
+        <v>1</v>
+      </c>
+      <c r="J125" s="159">
+        <v>568.29999999999995</v>
+      </c>
+      <c r="K125" s="159">
+        <v>615.07000000000005</v>
+      </c>
+      <c r="L125" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M125" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N125" s="159">
+        <v>398.4</v>
       </c>
     </row>
     <row r="126" spans="2:14" customFormat="1" ht="16">
@@ -6695,25 +6181,25 @@
       <c r="F126" s="109"/>
       <c r="G126" s="109"/>
       <c r="H126" s="135">
-        <v>41897</v>
-      </c>
-      <c r="I126" s="137">
-        <v>1</v>
-      </c>
-      <c r="J126" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="K126" s="136" t="s">
-        <v>130</v>
-      </c>
-      <c r="L126" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M126" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N126" s="136" t="s">
-        <v>122</v>
+        <v>41967</v>
+      </c>
+      <c r="I126" s="136">
+        <v>1</v>
+      </c>
+      <c r="J126" s="159">
+        <v>580.69000000000005</v>
+      </c>
+      <c r="K126" s="159">
+        <v>633.25</v>
+      </c>
+      <c r="L126" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M126" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N126" s="159">
+        <v>405.84</v>
       </c>
     </row>
     <row r="127" spans="2:14" customFormat="1" ht="16">
@@ -6721,25 +6207,25 @@
       <c r="F127" s="109"/>
       <c r="G127" s="109"/>
       <c r="H127" s="135">
-        <v>41890</v>
-      </c>
-      <c r="I127" s="137">
-        <v>1</v>
-      </c>
-      <c r="J127" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="K127" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="L127" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M127" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N127" s="136" t="s">
-        <v>132</v>
+        <v>41960</v>
+      </c>
+      <c r="I127" s="136">
+        <v>1</v>
+      </c>
+      <c r="J127" s="159">
+        <v>584.83000000000004</v>
+      </c>
+      <c r="K127" s="159">
+        <v>644.82000000000005</v>
+      </c>
+      <c r="L127" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M127" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N127" s="159">
+        <v>399.23</v>
       </c>
     </row>
     <row r="128" spans="2:14" customFormat="1" ht="16">
@@ -6747,25 +6233,25 @@
       <c r="F128" s="109"/>
       <c r="G128" s="109"/>
       <c r="H128" s="135">
-        <v>41883</v>
-      </c>
-      <c r="I128" s="137">
-        <v>1</v>
-      </c>
-      <c r="J128" s="136" t="s">
-        <v>133</v>
-      </c>
-      <c r="K128" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="L128" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M128" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N128" s="136" t="s">
-        <v>135</v>
+        <v>41953</v>
+      </c>
+      <c r="I128" s="136">
+        <v>1</v>
+      </c>
+      <c r="J128" s="159">
+        <v>584.83000000000004</v>
+      </c>
+      <c r="K128" s="159">
+        <v>643.99</v>
+      </c>
+      <c r="L128" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M128" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N128" s="159">
+        <v>414.93</v>
       </c>
     </row>
     <row r="129" spans="2:14" customFormat="1" ht="16">
@@ -6773,25 +6259,25 @@
       <c r="F129" s="109"/>
       <c r="G129" s="109"/>
       <c r="H129" s="135">
-        <v>41876</v>
-      </c>
-      <c r="I129" s="137">
-        <v>1</v>
-      </c>
-      <c r="J129" s="136" t="s">
-        <v>136</v>
-      </c>
-      <c r="K129" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="L129" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M129" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N129" s="136" t="s">
-        <v>138</v>
+        <v>41946</v>
+      </c>
+      <c r="I129" s="136">
+        <v>1</v>
+      </c>
+      <c r="J129" s="159">
+        <v>585.65</v>
+      </c>
+      <c r="K129" s="159">
+        <v>639.03</v>
+      </c>
+      <c r="L129" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M129" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N129" s="159">
+        <v>422.37</v>
       </c>
     </row>
     <row r="130" spans="2:14" customFormat="1" ht="16">
@@ -6799,25 +6285,25 @@
       <c r="F130" s="109"/>
       <c r="G130" s="109"/>
       <c r="H130" s="135">
-        <v>41869</v>
-      </c>
-      <c r="I130" s="137">
-        <v>1</v>
-      </c>
-      <c r="J130" s="136" t="s">
-        <v>139</v>
-      </c>
-      <c r="K130" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="L130" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M130" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N130" s="136" t="s">
-        <v>128</v>
+        <v>41939</v>
+      </c>
+      <c r="I130" s="136">
+        <v>1</v>
+      </c>
+      <c r="J130" s="159">
+        <v>590.61</v>
+      </c>
+      <c r="K130" s="159">
+        <v>635.73</v>
+      </c>
+      <c r="L130" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M130" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N130" s="159">
+        <v>427.33</v>
       </c>
     </row>
     <row r="131" spans="2:14" customFormat="1" ht="16">
@@ -6825,25 +6311,25 @@
       <c r="F131" s="109"/>
       <c r="G131" s="109"/>
       <c r="H131" s="135">
-        <v>41862</v>
-      </c>
-      <c r="I131" s="137">
-        <v>1</v>
-      </c>
-      <c r="J131" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="K131" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="L131" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M131" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N131" s="136" t="s">
-        <v>122</v>
+        <v>41932</v>
+      </c>
+      <c r="I131" s="136">
+        <v>1</v>
+      </c>
+      <c r="J131" s="159">
+        <v>605.49</v>
+      </c>
+      <c r="K131" s="159">
+        <v>631.6</v>
+      </c>
+      <c r="L131" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M131" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N131" s="159">
+        <v>443.03</v>
       </c>
     </row>
     <row r="132" spans="2:14" customFormat="1" ht="16">
@@ -6851,25 +6337,25 @@
       <c r="F132" s="109"/>
       <c r="G132" s="109"/>
       <c r="H132" s="135">
-        <v>41855</v>
-      </c>
-      <c r="I132" s="137">
-        <v>1</v>
-      </c>
-      <c r="J132" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="K132" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="L132" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M132" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N132" s="136" t="s">
-        <v>143</v>
+        <v>41925</v>
+      </c>
+      <c r="I132" s="136">
+        <v>1</v>
+      </c>
+      <c r="J132" s="159">
+        <v>641.02</v>
+      </c>
+      <c r="K132" s="159">
+        <v>653.08000000000004</v>
+      </c>
+      <c r="L132" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M132" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N132" s="159">
+        <v>449.64</v>
       </c>
     </row>
     <row r="133" spans="2:14" customFormat="1" ht="16">
@@ -6877,25 +6363,25 @@
       <c r="F133" s="109"/>
       <c r="G133" s="109"/>
       <c r="H133" s="135">
-        <v>41848</v>
-      </c>
-      <c r="I133" s="137">
-        <v>1</v>
-      </c>
-      <c r="J133" s="136" t="s">
-        <v>144</v>
-      </c>
-      <c r="K133" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="L133" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M133" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N133" s="136" t="s">
-        <v>146</v>
+        <v>41918</v>
+      </c>
+      <c r="I133" s="136">
+        <v>1</v>
+      </c>
+      <c r="J133" s="159">
+        <v>657.55</v>
+      </c>
+      <c r="K133" s="159">
+        <v>678.7</v>
+      </c>
+      <c r="L133" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M133" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N133" s="159">
+        <v>448.82</v>
       </c>
     </row>
     <row r="134" spans="2:14" customFormat="1" ht="16">
@@ -6903,25 +6389,25 @@
       <c r="F134" s="109"/>
       <c r="G134" s="109"/>
       <c r="H134" s="135">
-        <v>41841</v>
-      </c>
-      <c r="I134" s="137">
-        <v>1</v>
-      </c>
-      <c r="J134" s="136" t="s">
-        <v>147</v>
-      </c>
-      <c r="K134" s="136" t="s">
-        <v>130</v>
-      </c>
-      <c r="L134" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M134" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N134" s="136" t="s">
-        <v>119</v>
+        <v>41911</v>
+      </c>
+      <c r="I134" s="136">
+        <v>1</v>
+      </c>
+      <c r="J134" s="159">
+        <v>653.41999999999996</v>
+      </c>
+      <c r="K134" s="159">
+        <v>677.88</v>
+      </c>
+      <c r="L134" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M134" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N134" s="159">
+        <v>453.77</v>
       </c>
     </row>
     <row r="135" spans="2:14" customFormat="1" ht="16">
@@ -6929,25 +6415,25 @@
       <c r="F135" s="109"/>
       <c r="G135" s="109"/>
       <c r="H135" s="135">
-        <v>41834</v>
-      </c>
-      <c r="I135" s="137">
-        <v>1</v>
-      </c>
-      <c r="J135" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="K135" s="136" t="s">
-        <v>149</v>
-      </c>
-      <c r="L135" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M135" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N135" s="136" t="s">
-        <v>150</v>
+        <v>41904</v>
+      </c>
+      <c r="I135" s="136">
+        <v>1</v>
+      </c>
+      <c r="J135" s="159">
+        <v>660.03</v>
+      </c>
+      <c r="K135" s="159">
+        <v>679.53</v>
+      </c>
+      <c r="L135" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M135" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N135" s="159">
+        <v>454.6</v>
       </c>
     </row>
     <row r="136" spans="2:14" customFormat="1" ht="16">
@@ -6955,25 +6441,25 @@
       <c r="F136" s="109"/>
       <c r="G136" s="109"/>
       <c r="H136" s="135">
-        <v>41827</v>
-      </c>
-      <c r="I136" s="137">
-        <v>1</v>
-      </c>
-      <c r="J136" s="136" t="s">
-        <v>151</v>
-      </c>
-      <c r="K136" s="136" t="s">
-        <v>152</v>
-      </c>
-      <c r="L136" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M136" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N136" s="136" t="s">
-        <v>119</v>
+        <v>41897</v>
+      </c>
+      <c r="I136" s="136">
+        <v>1</v>
+      </c>
+      <c r="J136" s="159">
+        <v>666.64</v>
+      </c>
+      <c r="K136" s="159">
+        <v>684.49</v>
+      </c>
+      <c r="L136" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M136" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N136" s="159">
+        <v>448.82</v>
       </c>
     </row>
     <row r="137" spans="2:14" customFormat="1" ht="16">
@@ -6981,25 +6467,25 @@
       <c r="F137" s="109"/>
       <c r="G137" s="109"/>
       <c r="H137" s="135">
-        <v>41820</v>
-      </c>
-      <c r="I137" s="137">
-        <v>1</v>
-      </c>
-      <c r="J137" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="K137" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="L137" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M137" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N137" s="136" t="s">
-        <v>143</v>
+        <v>41890</v>
+      </c>
+      <c r="I137" s="136">
+        <v>1</v>
+      </c>
+      <c r="J137" s="159">
+        <v>666.64</v>
+      </c>
+      <c r="K137" s="159">
+        <v>694.41</v>
+      </c>
+      <c r="L137" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M137" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N137" s="159">
+        <v>455.43</v>
       </c>
     </row>
     <row r="138" spans="2:14" customFormat="1" ht="16">
@@ -7007,25 +6493,25 @@
       <c r="F138" s="109"/>
       <c r="G138" s="109"/>
       <c r="H138" s="135">
-        <v>41813</v>
-      </c>
-      <c r="I138" s="137">
-        <v>1</v>
-      </c>
-      <c r="J138" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="K138" s="136" t="s">
-        <v>156</v>
-      </c>
-      <c r="L138" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M138" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N138" s="136" t="s">
-        <v>122</v>
+        <v>41883</v>
+      </c>
+      <c r="I138" s="136">
+        <v>1</v>
+      </c>
+      <c r="J138" s="159">
+        <v>655.07000000000005</v>
+      </c>
+      <c r="K138" s="159">
+        <v>691.1</v>
+      </c>
+      <c r="L138" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M138" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N138" s="159">
+        <v>445.51</v>
       </c>
     </row>
     <row r="139" spans="2:14" customFormat="1" ht="16">
@@ -7033,25 +6519,25 @@
       <c r="F139" s="109"/>
       <c r="G139" s="109"/>
       <c r="H139" s="135">
-        <v>41806</v>
-      </c>
-      <c r="I139" s="137">
-        <v>1</v>
-      </c>
-      <c r="J139" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="K139" s="136" t="s">
-        <v>158</v>
-      </c>
-      <c r="L139" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M139" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N139" s="136" t="s">
-        <v>135</v>
+        <v>41876</v>
+      </c>
+      <c r="I139" s="136">
+        <v>1</v>
+      </c>
+      <c r="J139" s="159">
+        <v>650.12</v>
+      </c>
+      <c r="K139" s="159">
+        <v>680.36</v>
+      </c>
+      <c r="L139" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M139" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N139" s="159">
+        <v>444.68</v>
       </c>
     </row>
     <row r="140" spans="2:14" customFormat="1" ht="16">
@@ -7059,25 +6545,25 @@
       <c r="F140" s="109"/>
       <c r="G140" s="109"/>
       <c r="H140" s="135">
-        <v>41799</v>
-      </c>
-      <c r="I140" s="137">
-        <v>1</v>
-      </c>
-      <c r="J140" s="136" t="s">
-        <v>159</v>
-      </c>
-      <c r="K140" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="L140" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M140" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N140" s="136" t="s">
-        <v>160</v>
+        <v>41869</v>
+      </c>
+      <c r="I140" s="136">
+        <v>1</v>
+      </c>
+      <c r="J140" s="159">
+        <v>646.80999999999995</v>
+      </c>
+      <c r="K140" s="159">
+        <v>686.97</v>
+      </c>
+      <c r="L140" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M140" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N140" s="159">
+        <v>454.6</v>
       </c>
     </row>
     <row r="141" spans="2:14" customFormat="1" ht="16">
@@ -7085,25 +6571,25 @@
       <c r="F141" s="109"/>
       <c r="G141" s="109"/>
       <c r="H141" s="135">
-        <v>41792</v>
-      </c>
-      <c r="I141" s="137">
-        <v>1</v>
-      </c>
-      <c r="J141" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="K141" s="136" t="s">
-        <v>158</v>
-      </c>
-      <c r="L141" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M141" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N141" s="136" t="s">
-        <v>162</v>
+        <v>41862</v>
+      </c>
+      <c r="I141" s="136">
+        <v>1</v>
+      </c>
+      <c r="J141" s="159">
+        <v>647.64</v>
+      </c>
+      <c r="K141" s="159">
+        <v>688.62</v>
+      </c>
+      <c r="L141" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M141" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N141" s="159">
+        <v>448.82</v>
       </c>
     </row>
     <row r="142" spans="2:14" customFormat="1" ht="16">
@@ -7111,25 +6597,25 @@
       <c r="F142" s="109"/>
       <c r="G142" s="109"/>
       <c r="H142" s="135">
-        <v>41785</v>
-      </c>
-      <c r="I142" s="137">
-        <v>1</v>
-      </c>
-      <c r="J142" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="K142" s="136" t="s">
-        <v>158</v>
-      </c>
-      <c r="L142" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M142" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N142" s="136" t="s">
-        <v>150</v>
+        <v>41855</v>
+      </c>
+      <c r="I142" s="136">
+        <v>1</v>
+      </c>
+      <c r="J142" s="159">
+        <v>660.03</v>
+      </c>
+      <c r="K142" s="159">
+        <v>694.41</v>
+      </c>
+      <c r="L142" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M142" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N142" s="159">
+        <v>452.95</v>
       </c>
     </row>
     <row r="143" spans="2:14" customFormat="1" ht="16">
@@ -7137,25 +6623,25 @@
       <c r="F143" s="109"/>
       <c r="G143" s="109"/>
       <c r="H143" s="135">
-        <v>41778</v>
-      </c>
-      <c r="I143" s="137">
-        <v>1</v>
-      </c>
-      <c r="J143" s="136" t="s">
-        <v>164</v>
-      </c>
-      <c r="K143" s="136" t="s">
-        <v>158</v>
-      </c>
-      <c r="L143" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M143" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N143" s="136" t="s">
-        <v>165</v>
+        <v>41848</v>
+      </c>
+      <c r="I143" s="136">
+        <v>1</v>
+      </c>
+      <c r="J143" s="159">
+        <v>663.34</v>
+      </c>
+      <c r="K143" s="159">
+        <v>687.79</v>
+      </c>
+      <c r="L143" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M143" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N143" s="159">
+        <v>457.91</v>
       </c>
     </row>
     <row r="144" spans="2:14" customFormat="1" ht="16">
@@ -7163,25 +6649,25 @@
       <c r="F144" s="109"/>
       <c r="G144" s="109"/>
       <c r="H144" s="135">
-        <v>41771</v>
-      </c>
-      <c r="I144" s="137">
-        <v>1</v>
-      </c>
-      <c r="J144" s="136" t="s">
-        <v>120</v>
-      </c>
-      <c r="K144" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="L144" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M144" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N144" s="136" t="s">
-        <v>160</v>
+        <v>41841</v>
+      </c>
+      <c r="I144" s="136">
+        <v>1</v>
+      </c>
+      <c r="J144" s="159">
+        <v>669.95</v>
+      </c>
+      <c r="K144" s="159">
+        <v>684.49</v>
+      </c>
+      <c r="L144" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M144" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N144" s="159">
+        <v>449.64</v>
       </c>
     </row>
     <row r="145" spans="2:14" customFormat="1" ht="16">
@@ -7189,440 +6675,650 @@
       <c r="F145" s="109"/>
       <c r="G145" s="109"/>
       <c r="H145" s="135">
-        <v>41764</v>
-      </c>
-      <c r="I145" s="137">
-        <v>1</v>
-      </c>
-      <c r="J145" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="K145" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="L145" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M145" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N145" s="136" t="s">
-        <v>167</v>
+        <v>41834</v>
+      </c>
+      <c r="I145" s="136">
+        <v>1</v>
+      </c>
+      <c r="J145" s="159">
+        <v>688.96</v>
+      </c>
+      <c r="K145" s="159">
+        <v>689.45</v>
+      </c>
+      <c r="L145" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M145" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N145" s="159">
+        <v>443.86</v>
       </c>
     </row>
     <row r="146" spans="2:14" customFormat="1" ht="16">
       <c r="B146" s="99"/>
       <c r="H146" s="135">
-        <v>41757</v>
-      </c>
-      <c r="I146" s="137">
-        <v>1</v>
-      </c>
-      <c r="J146" s="136" t="s">
-        <v>161</v>
-      </c>
-      <c r="K146" s="136" t="s">
-        <v>168</v>
-      </c>
-      <c r="L146" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M146" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N146" s="136" t="s">
-        <v>119</v>
+        <v>41827</v>
+      </c>
+      <c r="I146" s="136">
+        <v>1</v>
+      </c>
+      <c r="J146" s="159">
+        <v>693.09</v>
+      </c>
+      <c r="K146" s="159">
+        <v>700.19</v>
+      </c>
+      <c r="L146" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M146" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N146" s="159">
+        <v>449.64</v>
       </c>
     </row>
     <row r="147" spans="2:14" customFormat="1" ht="16">
       <c r="B147" s="99"/>
       <c r="H147" s="135">
-        <v>41743</v>
-      </c>
-      <c r="I147" s="137">
-        <v>1</v>
-      </c>
-      <c r="J147" s="136" t="s">
-        <v>169</v>
-      </c>
-      <c r="K147" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="L147" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M147" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N147" s="136" t="s">
-        <v>125</v>
+        <v>41820</v>
+      </c>
+      <c r="I147" s="136">
+        <v>1</v>
+      </c>
+      <c r="J147" s="159">
+        <v>701.36</v>
+      </c>
+      <c r="K147" s="159">
+        <v>711.76</v>
+      </c>
+      <c r="L147" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M147" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N147" s="159">
+        <v>452.95</v>
       </c>
     </row>
     <row r="148" spans="2:14" customFormat="1" ht="16">
       <c r="B148" s="99"/>
       <c r="H148" s="135">
-        <v>41736</v>
-      </c>
-      <c r="I148" s="137">
-        <v>1</v>
-      </c>
-      <c r="J148" s="136" t="s">
-        <v>170</v>
-      </c>
-      <c r="K148" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="L148" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M148" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N148" s="136" t="s">
-        <v>167</v>
+        <v>41813</v>
+      </c>
+      <c r="I148" s="136">
+        <v>1</v>
+      </c>
+      <c r="J148" s="159">
+        <v>699.7</v>
+      </c>
+      <c r="K148" s="159">
+        <v>710.93</v>
+      </c>
+      <c r="L148" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M148" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N148" s="159">
+        <v>448.82</v>
       </c>
     </row>
     <row r="149" spans="2:14" customFormat="1" ht="16">
       <c r="B149" s="99"/>
       <c r="H149" s="135">
-        <v>41729</v>
-      </c>
-      <c r="I149" s="137">
-        <v>1</v>
-      </c>
-      <c r="J149" s="136" t="s">
-        <v>171</v>
-      </c>
-      <c r="K149" s="136" t="s">
-        <v>172</v>
-      </c>
-      <c r="L149" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M149" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N149" s="136" t="s">
-        <v>143</v>
+        <v>41806</v>
+      </c>
+      <c r="I149" s="136">
+        <v>1</v>
+      </c>
+      <c r="J149" s="159">
+        <v>684</v>
+      </c>
+      <c r="K149" s="159">
+        <v>696.06</v>
+      </c>
+      <c r="L149" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M149" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N149" s="159">
+        <v>445.51</v>
       </c>
     </row>
     <row r="150" spans="2:14" customFormat="1" ht="16">
       <c r="B150" s="99"/>
       <c r="H150" s="135">
-        <v>41722</v>
-      </c>
-      <c r="I150" s="137">
-        <v>1</v>
-      </c>
-      <c r="J150" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="K150" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="L150" s="136" t="s">
-        <v>91</v>
-      </c>
-      <c r="M150" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="N150" s="136" t="s">
-        <v>175</v>
+        <v>41799</v>
+      </c>
+      <c r="I150" s="136">
+        <v>1</v>
+      </c>
+      <c r="J150" s="159">
+        <v>668.3</v>
+      </c>
+      <c r="K150" s="159">
+        <v>688.62</v>
+      </c>
+      <c r="L150" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M150" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N150" s="159">
+        <v>440.55</v>
       </c>
     </row>
     <row r="151" spans="2:14" customFormat="1" ht="16">
       <c r="B151" s="99"/>
       <c r="H151" s="135">
-        <v>41715</v>
-      </c>
-      <c r="I151" s="137">
-        <v>1</v>
-      </c>
-      <c r="J151" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="K151" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="L151" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="M151" s="136" t="s">
-        <v>178</v>
-      </c>
-      <c r="N151" s="136" t="s">
-        <v>179</v>
+        <v>41792</v>
+      </c>
+      <c r="I151" s="136">
+        <v>1</v>
+      </c>
+      <c r="J151" s="159">
+        <v>671.6</v>
+      </c>
+      <c r="K151" s="159">
+        <v>696.06</v>
+      </c>
+      <c r="L151" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M151" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N151" s="159">
+        <v>438.07</v>
       </c>
     </row>
     <row r="152" spans="2:14" customFormat="1" ht="16">
       <c r="B152" s="99"/>
       <c r="H152" s="135">
-        <v>41708</v>
-      </c>
-      <c r="I152" s="137">
-        <v>1</v>
-      </c>
-      <c r="J152" s="136" t="s">
-        <v>180</v>
-      </c>
-      <c r="K152" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="L152" s="136" t="s">
-        <v>181</v>
-      </c>
-      <c r="M152" s="136" t="s">
-        <v>182</v>
-      </c>
-      <c r="N152" s="136" t="s">
-        <v>183</v>
+        <v>41785</v>
+      </c>
+      <c r="I152" s="136">
+        <v>1</v>
+      </c>
+      <c r="J152" s="159">
+        <v>669.12</v>
+      </c>
+      <c r="K152" s="159">
+        <v>696.06</v>
+      </c>
+      <c r="L152" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M152" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N152" s="159">
+        <v>443.86</v>
       </c>
     </row>
     <row r="153" spans="2:14" customFormat="1" ht="16">
       <c r="B153" s="99"/>
       <c r="H153" s="135">
-        <v>41701</v>
-      </c>
-      <c r="I153" s="137">
-        <v>1</v>
-      </c>
-      <c r="J153" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="K153" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="L153" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="M153" s="136" t="s">
-        <v>186</v>
-      </c>
-      <c r="N153" s="136" t="s">
-        <v>187</v>
+        <v>41778</v>
+      </c>
+      <c r="I153" s="136">
+        <v>1</v>
+      </c>
+      <c r="J153" s="159">
+        <v>661.69</v>
+      </c>
+      <c r="K153" s="159">
+        <v>696.06</v>
+      </c>
+      <c r="L153" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M153" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N153" s="159">
+        <v>439.73</v>
       </c>
     </row>
     <row r="154" spans="2:14" customFormat="1" ht="16">
       <c r="B154" s="99"/>
       <c r="H154" s="135">
-        <v>41694</v>
-      </c>
-      <c r="I154" s="137">
-        <v>1</v>
-      </c>
-      <c r="J154" s="136" t="s">
-        <v>188</v>
-      </c>
-      <c r="K154" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="L154" s="136" t="s">
-        <v>190</v>
-      </c>
-      <c r="M154" s="136" t="s">
-        <v>178</v>
-      </c>
-      <c r="N154" s="136" t="s">
-        <v>191</v>
+        <v>41771</v>
+      </c>
+      <c r="I154" s="136">
+        <v>1</v>
+      </c>
+      <c r="J154" s="159">
+        <v>657.55</v>
+      </c>
+      <c r="K154" s="159">
+        <v>688.62</v>
+      </c>
+      <c r="L154" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M154" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N154" s="159">
+        <v>440.55</v>
       </c>
     </row>
     <row r="155" spans="2:14" customFormat="1" ht="16">
       <c r="B155" s="99"/>
       <c r="H155" s="135">
-        <v>41687</v>
-      </c>
-      <c r="I155" s="137">
-        <v>1</v>
-      </c>
-      <c r="J155" s="136" t="s">
-        <v>192</v>
-      </c>
-      <c r="K155" s="136" t="s">
-        <v>193</v>
-      </c>
-      <c r="L155" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="M155" s="136" t="s">
-        <v>195</v>
-      </c>
-      <c r="N155" s="136" t="s">
-        <v>196</v>
+        <v>41764</v>
+      </c>
+      <c r="I155" s="136">
+        <v>1</v>
+      </c>
+      <c r="J155" s="159">
+        <v>666.64</v>
+      </c>
+      <c r="K155" s="159">
+        <v>691.93</v>
+      </c>
+      <c r="L155" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M155" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N155" s="159">
+        <v>450.47</v>
       </c>
     </row>
     <row r="156" spans="2:14" customFormat="1" ht="16">
       <c r="B156" s="99"/>
       <c r="H156" s="135">
-        <v>41680</v>
-      </c>
-      <c r="I156" s="137">
-        <v>1</v>
-      </c>
-      <c r="J156" s="136" t="s">
-        <v>197</v>
-      </c>
-      <c r="K156" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="L156" s="136" t="s">
-        <v>199</v>
-      </c>
-      <c r="M156" s="136" t="s">
-        <v>200</v>
-      </c>
-      <c r="N156" s="136" t="s">
-        <v>201</v>
+        <v>41757</v>
+      </c>
+      <c r="I156" s="136">
+        <v>1</v>
+      </c>
+      <c r="J156" s="159">
+        <v>671.6</v>
+      </c>
+      <c r="K156" s="159">
+        <v>696.88</v>
+      </c>
+      <c r="L156" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M156" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N156" s="159">
+        <v>449.64</v>
       </c>
     </row>
     <row r="157" spans="2:14" customFormat="1" ht="16">
       <c r="B157" s="99"/>
       <c r="H157" s="135">
-        <v>41673</v>
-      </c>
-      <c r="I157" s="137">
-        <v>1</v>
-      </c>
-      <c r="J157" s="136" t="s">
-        <v>202</v>
-      </c>
-      <c r="K157" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="L157" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="M157" s="136" t="s">
-        <v>204</v>
-      </c>
-      <c r="N157" s="136" t="s">
-        <v>205</v>
+        <v>41743</v>
+      </c>
+      <c r="I157" s="136">
+        <v>1</v>
+      </c>
+      <c r="J157" s="159">
+        <v>654.25</v>
+      </c>
+      <c r="K157" s="159">
+        <v>687.79</v>
+      </c>
+      <c r="L157" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M157" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N157" s="159">
+        <v>453.77</v>
       </c>
     </row>
     <row r="158" spans="2:14" customFormat="1" ht="16">
       <c r="B158" s="99"/>
       <c r="H158" s="135">
-        <v>41666</v>
-      </c>
-      <c r="I158" s="137">
-        <v>1</v>
-      </c>
-      <c r="J158" s="136" t="s">
-        <v>197</v>
-      </c>
-      <c r="K158" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="L158" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="M158" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="N158" s="136" t="s">
-        <v>201</v>
+        <v>41736</v>
+      </c>
+      <c r="I158" s="136">
+        <v>1</v>
+      </c>
+      <c r="J158" s="159">
+        <v>645.16</v>
+      </c>
+      <c r="K158" s="159">
+        <v>687.79</v>
+      </c>
+      <c r="L158" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M158" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N158" s="159">
+        <v>450.47</v>
       </c>
     </row>
     <row r="159" spans="2:14" customFormat="1" ht="16">
       <c r="B159" s="99"/>
       <c r="H159" s="135">
-        <v>41659</v>
-      </c>
-      <c r="I159" s="137">
-        <v>1</v>
-      </c>
-      <c r="J159" s="136" t="s">
-        <v>208</v>
-      </c>
-      <c r="K159" s="136" t="s">
-        <v>209</v>
-      </c>
-      <c r="L159" s="136" t="s">
-        <v>210</v>
-      </c>
-      <c r="M159" s="136" t="s">
-        <v>211</v>
-      </c>
-      <c r="N159" s="136" t="s">
-        <v>201</v>
+        <v>41729</v>
+      </c>
+      <c r="I159" s="136">
+        <v>1</v>
+      </c>
+      <c r="J159" s="159">
+        <v>628.63</v>
+      </c>
+      <c r="K159" s="159">
+        <v>681.18</v>
+      </c>
+      <c r="L159" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M159" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N159" s="159">
+        <v>452.95</v>
       </c>
     </row>
     <row r="160" spans="2:14" customFormat="1" ht="16">
       <c r="B160" s="99"/>
       <c r="H160" s="135">
-        <v>41652</v>
-      </c>
-      <c r="I160" s="137">
-        <v>1</v>
-      </c>
-      <c r="J160" s="136" t="s">
-        <v>212</v>
-      </c>
-      <c r="K160" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="L160" s="136" t="s">
-        <v>210</v>
-      </c>
-      <c r="M160" s="136" t="s">
-        <v>207</v>
-      </c>
-      <c r="N160" s="136" t="s">
-        <v>213</v>
+        <v>41722</v>
+      </c>
+      <c r="I160" s="136">
+        <v>1</v>
+      </c>
+      <c r="J160" s="159">
+        <v>612.92999999999995</v>
+      </c>
+      <c r="K160" s="159">
+        <v>672.92</v>
+      </c>
+      <c r="L160" s="159">
+        <v>364.65</v>
+      </c>
+      <c r="M160" s="159">
+        <v>465.17</v>
+      </c>
+      <c r="N160" s="159">
+        <v>458.73</v>
       </c>
     </row>
     <row r="161" spans="2:14" customFormat="1" ht="16">
       <c r="B161" s="99"/>
       <c r="H161" s="135">
-        <v>41645</v>
-      </c>
-      <c r="I161" s="137">
-        <v>1</v>
-      </c>
-      <c r="J161" s="136" t="s">
-        <v>214</v>
-      </c>
-      <c r="K161" s="136" t="s">
-        <v>215</v>
-      </c>
-      <c r="L161" s="136" t="s">
-        <v>216</v>
-      </c>
-      <c r="M161" s="136" t="s">
-        <v>217</v>
-      </c>
-      <c r="N161" s="136" t="s">
-        <v>218</v>
+        <v>41715</v>
+      </c>
+      <c r="I161" s="136">
+        <v>1</v>
+      </c>
+      <c r="J161" s="159">
+        <v>622.02</v>
+      </c>
+      <c r="K161" s="159">
+        <v>680.36</v>
+      </c>
+      <c r="L161" s="159">
+        <v>367.96</v>
+      </c>
+      <c r="M161" s="159">
+        <v>462.17</v>
+      </c>
+      <c r="N161" s="159">
+        <v>462.04</v>
       </c>
     </row>
     <row r="162" spans="2:14" customFormat="1" ht="16">
       <c r="B162" s="99"/>
+      <c r="H162" s="135">
+        <v>41708</v>
+      </c>
+      <c r="I162" s="136">
+        <v>1</v>
+      </c>
+      <c r="J162" s="159">
+        <v>635.24</v>
+      </c>
+      <c r="K162" s="159">
+        <v>691.93</v>
+      </c>
+      <c r="L162" s="159">
+        <v>380.36</v>
+      </c>
+      <c r="M162" s="159">
+        <v>467.17</v>
+      </c>
+      <c r="N162" s="159">
+        <v>469.48</v>
+      </c>
     </row>
     <row r="163" spans="2:14" customFormat="1" ht="16">
       <c r="B163" s="99"/>
+      <c r="H163" s="135">
+        <v>41701</v>
+      </c>
+      <c r="I163" s="136">
+        <v>1</v>
+      </c>
+      <c r="J163" s="159">
+        <v>641.02</v>
+      </c>
+      <c r="K163" s="159">
+        <v>701.84</v>
+      </c>
+      <c r="L163" s="159">
+        <v>385.31</v>
+      </c>
+      <c r="M163" s="159">
+        <v>461.17</v>
+      </c>
+      <c r="N163" s="159">
+        <v>474.44</v>
+      </c>
     </row>
     <row r="164" spans="2:14" customFormat="1" ht="16">
       <c r="B164" s="99"/>
+      <c r="H164" s="135">
+        <v>41694</v>
+      </c>
+      <c r="I164" s="136">
+        <v>1</v>
+      </c>
+      <c r="J164" s="159">
+        <v>641.85</v>
+      </c>
+      <c r="K164" s="159">
+        <v>705.98</v>
+      </c>
+      <c r="L164" s="159">
+        <v>389.45</v>
+      </c>
+      <c r="M164" s="159">
+        <v>462.17</v>
+      </c>
+      <c r="N164" s="159">
+        <v>475.26</v>
+      </c>
     </row>
     <row r="165" spans="2:14" customFormat="1" ht="16">
       <c r="B165" s="99"/>
+      <c r="H165" s="135">
+        <v>41687</v>
+      </c>
+      <c r="I165" s="136">
+        <v>1</v>
+      </c>
+      <c r="J165" s="159">
+        <v>636.89</v>
+      </c>
+      <c r="K165" s="159">
+        <v>703.5</v>
+      </c>
+      <c r="L165" s="159">
+        <v>386.14</v>
+      </c>
+      <c r="M165" s="159">
+        <v>456.17</v>
+      </c>
+      <c r="N165" s="159">
+        <v>483.53</v>
+      </c>
     </row>
     <row r="166" spans="2:14" customFormat="1" ht="16">
       <c r="B166" s="99"/>
+      <c r="H166" s="135">
+        <v>41680</v>
+      </c>
+      <c r="I166" s="136">
+        <v>1</v>
+      </c>
+      <c r="J166" s="159">
+        <v>626.97</v>
+      </c>
+      <c r="K166" s="159">
+        <v>695.23</v>
+      </c>
+      <c r="L166" s="159">
+        <v>383.66</v>
+      </c>
+      <c r="M166" s="159">
+        <v>449.17</v>
+      </c>
+      <c r="N166" s="159">
+        <v>498.4</v>
+      </c>
     </row>
     <row r="167" spans="2:14" customFormat="1" ht="16">
       <c r="B167" s="99"/>
+      <c r="H167" s="135">
+        <v>41673</v>
+      </c>
+      <c r="I167" s="136">
+        <v>1</v>
+      </c>
+      <c r="J167" s="159">
+        <v>625.32000000000005</v>
+      </c>
+      <c r="K167" s="159">
+        <v>694.41</v>
+      </c>
+      <c r="L167" s="159">
+        <v>386.97</v>
+      </c>
+      <c r="M167" s="159">
+        <v>443.17</v>
+      </c>
+      <c r="N167" s="159">
+        <v>496.75</v>
+      </c>
     </row>
     <row r="168" spans="2:14" customFormat="1" ht="16">
       <c r="B168" s="99"/>
+      <c r="H168" s="135">
+        <v>41666</v>
+      </c>
+      <c r="I168" s="136">
+        <v>1</v>
+      </c>
+      <c r="J168" s="159">
+        <v>626.97</v>
+      </c>
+      <c r="K168" s="159">
+        <v>693.58</v>
+      </c>
+      <c r="L168" s="159">
+        <v>386.14</v>
+      </c>
+      <c r="M168" s="159">
+        <v>432.17</v>
+      </c>
+      <c r="N168" s="159">
+        <v>498.4</v>
+      </c>
     </row>
     <row r="169" spans="2:14" customFormat="1" ht="16">
       <c r="B169" s="99"/>
+      <c r="H169" s="135">
+        <v>41659</v>
+      </c>
+      <c r="I169" s="136">
+        <v>1</v>
+      </c>
+      <c r="J169" s="159">
+        <v>624.5</v>
+      </c>
+      <c r="K169" s="159">
+        <v>692.75</v>
+      </c>
+      <c r="L169" s="159">
+        <v>381.18</v>
+      </c>
+      <c r="M169" s="159">
+        <v>430.17</v>
+      </c>
+      <c r="N169" s="159">
+        <v>498.4</v>
+      </c>
     </row>
     <row r="170" spans="2:14" customFormat="1" ht="16">
       <c r="B170" s="99"/>
+      <c r="H170" s="135">
+        <v>41652</v>
+      </c>
+      <c r="I170" s="136">
+        <v>1</v>
+      </c>
+      <c r="J170" s="159">
+        <v>631.11</v>
+      </c>
+      <c r="K170" s="159">
+        <v>701.84</v>
+      </c>
+      <c r="L170" s="159">
+        <v>381.18</v>
+      </c>
+      <c r="M170" s="159">
+        <v>432.17</v>
+      </c>
+      <c r="N170" s="159">
+        <v>500.06</v>
+      </c>
     </row>
     <row r="171" spans="2:14" customFormat="1" ht="16">
       <c r="B171" s="99"/>
+      <c r="H171" s="135">
+        <v>41645</v>
+      </c>
+      <c r="I171" s="136">
+        <v>1</v>
+      </c>
+      <c r="J171" s="159">
+        <v>633.59</v>
+      </c>
+      <c r="K171" s="159">
+        <v>704.32</v>
+      </c>
+      <c r="L171" s="159">
+        <v>356.39</v>
+      </c>
+      <c r="M171" s="159">
+        <v>434.17</v>
+      </c>
+      <c r="N171" s="159">
+        <v>501.71</v>
+      </c>
     </row>
     <row r="172" spans="2:14" customFormat="1" ht="16">
       <c r="B172" s="99"/>

--- a/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
+++ b/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
@@ -16,7 +16,6 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -384,7 +383,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -580,29 +579,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="16"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
@@ -628,6 +604,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF800000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="17">
@@ -717,18 +721,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="9"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="9"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -973,32 +977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1049,6 +1027,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1393,7 +1408,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1587,36 +1602,18 @@
     <xf numFmtId="49" fontId="28" fillId="14" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="15" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="15" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="33" fillId="15" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="171" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1624,13 +1621,19 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1639,26 +1642,47 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="35" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="37" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="38" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -2285,26 +2309,6 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2713,13 +2717,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="143"/>
+      <c r="D9" s="137"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
-      <c r="D10" s="144"/>
+      <c r="D10" s="138"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -2729,7 +2733,7 @@
       <c r="C11" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
@@ -2737,7 +2741,7 @@
       <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="138"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
@@ -2745,7 +2749,7 @@
       <c r="C13" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="138"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -2753,13 +2757,13 @@
       <c r="C14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="138"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
-      <c r="D15" s="144"/>
+      <c r="D15" s="138"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -2769,7 +2773,7 @@
       <c r="C16" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="144"/>
+      <c r="D16" s="138"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -2777,7 +2781,7 @@
       <c r="C17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="144"/>
+      <c r="D17" s="138"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -2785,7 +2789,7 @@
       <c r="C18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="144"/>
+      <c r="D18" s="138"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -2793,7 +2797,7 @@
       <c r="C19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="144"/>
+      <c r="D19" s="138"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -2801,7 +2805,7 @@
       <c r="C20" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="138"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -2809,7 +2813,7 @@
       <c r="C21" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="144"/>
+      <c r="D21" s="138"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -2817,19 +2821,19 @@
       <c r="C22" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="138"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="144"/>
+      <c r="D23" s="138"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="141"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2873,28 +2877,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="158"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="154"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -2946,7 +2950,7 @@
     </row>
     <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="23"/>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="136" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="31"/>
@@ -2989,7 +2993,7 @@
       </c>
       <c r="E11" s="119">
         <f>'Research data'!G7</f>
-        <v>1.1477777777777778E-2</v>
+        <v>8.7029629629629644E-3</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="103"/>
@@ -3021,7 +3025,7 @@
     </row>
     <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="23"/>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="143" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -3084,7 +3088,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -3284,14 +3288,14 @@
       </c>
       <c r="G7" s="114">
         <f>K7</f>
-        <v>1.1477777777777778E-2</v>
+        <v>8.7029629629629644E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="114">
         <f>Notes!F106</f>
-        <v>1.1477777777777778E-2</v>
+        <v>8.7029629629629644E-3</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -3304,7 +3308,7 @@
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="135" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="107" t="s">
@@ -3336,7 +3340,7 @@
     </row>
     <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="135" t="s">
         <v>99</v>
       </c>
       <c r="D9" s="108"/>
@@ -3392,7 +3396,7 @@
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
-      <c r="Q10" s="148" t="s">
+      <c r="Q10" s="142" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3655,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y220"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3836,10 +3840,10 @@
       <c r="E8" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="139">
+      <c r="F8" s="133">
         <v>745</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="133" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="110" t="s">
@@ -3867,10 +3871,10 @@
       <c r="B9" s="99"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
-      <c r="F9" s="139">
+      <c r="F9" s="133">
         <v>43.2</v>
       </c>
-      <c r="G9" s="139" t="s">
+      <c r="G9" s="133" t="s">
         <v>51</v>
       </c>
       <c r="H9" s="110" t="s">
@@ -3898,11 +3902,11 @@
       <c r="B10" s="99"/>
       <c r="C10" s="109"/>
       <c r="D10" s="109"/>
-      <c r="F10" s="139">
+      <c r="F10" s="133">
         <f>F8/1000</f>
         <v>0.745</v>
       </c>
-      <c r="G10" s="139" t="s">
+      <c r="G10" s="133" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="110" t="s">
@@ -3930,11 +3934,11 @@
       <c r="B11" s="99"/>
       <c r="C11" s="109"/>
       <c r="D11" s="109"/>
-      <c r="F11" s="139">
+      <c r="F11" s="133">
         <f>F9*F10</f>
         <v>32.184000000000005</v>
       </c>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="133" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="110" t="s">
@@ -3963,10 +3967,10 @@
       <c r="C12" s="109"/>
       <c r="D12" s="109"/>
       <c r="E12" s="109"/>
-      <c r="F12" s="139">
+      <c r="F12" s="133">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="G12" s="139" t="s">
+      <c r="G12" s="133" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="109" t="s">
@@ -3995,8 +3999,8 @@
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
       <c r="E13" s="109"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
       <c r="H13" s="109"/>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
@@ -4023,10 +4027,10 @@
       <c r="E14" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="139">
+      <c r="F14" s="133">
         <v>832</v>
       </c>
-      <c r="G14" s="139" t="s">
+      <c r="G14" s="133" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="110" t="s">
@@ -4054,10 +4058,10 @@
       <c r="B15" s="99"/>
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
-      <c r="F15" s="139">
+      <c r="F15" s="133">
         <v>43.1</v>
       </c>
-      <c r="G15" s="139" t="s">
+      <c r="G15" s="133" t="s">
         <v>51</v>
       </c>
       <c r="H15" s="110" t="s">
@@ -4085,11 +4089,11 @@
       <c r="B16" s="99"/>
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
-      <c r="F16" s="139">
+      <c r="F16" s="133">
         <f>F14/1000</f>
         <v>0.83199999999999996</v>
       </c>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="133" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="110" t="s">
@@ -4117,11 +4121,11 @@
       <c r="B17" s="99"/>
       <c r="C17" s="109"/>
       <c r="D17" s="109"/>
-      <c r="F17" s="139">
+      <c r="F17" s="133">
         <f>F15*F16</f>
         <v>35.859200000000001</v>
       </c>
-      <c r="G17" s="139" t="s">
+      <c r="G17" s="133" t="s">
         <v>55</v>
       </c>
       <c r="H17" s="110" t="s">
@@ -4150,10 +4154,10 @@
       <c r="C18" s="109"/>
       <c r="D18" s="109"/>
       <c r="E18" s="109"/>
-      <c r="F18" s="139">
+      <c r="F18" s="133">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="G18" s="139" t="s">
+      <c r="G18" s="133" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="109" t="s">
@@ -4182,8 +4186,8 @@
       <c r="C19" s="109"/>
       <c r="D19" s="109"/>
       <c r="E19" s="109"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
       <c r="H19" s="109"/>
       <c r="I19" s="109"/>
       <c r="J19" s="109"/>
@@ -4210,8 +4214,8 @@
       <c r="E20" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="110"/>
       <c r="I20" s="109"/>
       <c r="J20" s="109"/>
@@ -4235,11 +4239,11 @@
       <c r="B21" s="99"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139">
+      <c r="E21" s="133"/>
+      <c r="F21" s="133">
         <v>46</v>
       </c>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="133" t="s">
         <v>51</v>
       </c>
       <c r="H21" s="110" t="s">
@@ -4267,12 +4271,12 @@
       <c r="B22" s="99"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140">
+      <c r="E22" s="133"/>
+      <c r="F22" s="134">
         <f>E69</f>
         <v>0.52400000000000002</v>
       </c>
-      <c r="G22" s="139" t="s">
+      <c r="G22" s="133" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="110" t="s">
@@ -4300,12 +4304,12 @@
       <c r="B23" s="99"/>
       <c r="C23" s="109"/>
       <c r="D23" s="109"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139">
+      <c r="E23" s="133"/>
+      <c r="F23" s="133">
         <f>F21*F22</f>
         <v>24.103999999999999</v>
       </c>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="133" t="s">
         <v>55</v>
       </c>
       <c r="H23" s="110" t="s">
@@ -4334,10 +4338,10 @@
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
       <c r="E24" s="109"/>
-      <c r="F24" s="139">
+      <c r="F24" s="133">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G24" s="139" t="s">
+      <c r="G24" s="133" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="109" t="s">
@@ -4394,10 +4398,10 @@
       <c r="E26" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="139">
+      <c r="F26" s="133">
         <v>970</v>
       </c>
-      <c r="G26" s="139" t="s">
+      <c r="G26" s="133" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="110" t="s">
@@ -4426,10 +4430,10 @@
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
       <c r="E27" s="109"/>
-      <c r="F27" s="139">
+      <c r="F27" s="133">
         <v>40.5</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="G27" s="133" t="s">
         <v>51</v>
       </c>
       <c r="H27" s="110" t="s">
@@ -4458,11 +4462,11 @@
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
       <c r="E28" s="109"/>
-      <c r="F28" s="139">
+      <c r="F28" s="133">
         <f>F26/1000</f>
         <v>0.97</v>
       </c>
-      <c r="G28" s="139" t="s">
+      <c r="G28" s="133" t="s">
         <v>53</v>
       </c>
       <c r="H28" s="110" t="s">
@@ -4488,11 +4492,11 @@
     </row>
     <row r="29" spans="2:25" customFormat="1" ht="16">
       <c r="B29" s="99"/>
-      <c r="F29" s="139">
+      <c r="F29" s="133">
         <f>F27*F28</f>
         <v>39.284999999999997</v>
       </c>
-      <c r="G29" s="139" t="s">
+      <c r="G29" s="133" t="s">
         <v>55</v>
       </c>
       <c r="H29" s="110" t="s">
@@ -4501,10 +4505,10 @@
     </row>
     <row r="30" spans="2:25" customFormat="1" ht="16">
       <c r="B30" s="99"/>
-      <c r="F30" s="139">
+      <c r="F30" s="133">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="G30" s="139" t="s">
+      <c r="G30" s="133" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="109" t="s">
@@ -4904,25 +4908,25 @@
       </c>
       <c r="F91" s="109"/>
       <c r="G91" s="109"/>
-      <c r="H91" s="131" t="s">
+      <c r="H91" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="I91" s="131" t="s">
+      <c r="I91" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="132" t="s">
+      <c r="J91" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="K91" s="132" t="s">
+      <c r="K91" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="L91" s="132" t="s">
+      <c r="L91" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="M91" s="132" t="s">
+      <c r="M91" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="N91" s="132" t="s">
+      <c r="N91" s="157" t="s">
         <v>78</v>
       </c>
       <c r="O91" s="109"/>
@@ -4943,21 +4947,21 @@
       <c r="D92" s="109"/>
       <c r="F92" s="109"/>
       <c r="G92" s="109"/>
-      <c r="H92" s="133"/>
-      <c r="I92" s="133"/>
-      <c r="J92" s="134" t="s">
+      <c r="H92" s="158"/>
+      <c r="I92" s="159"/>
+      <c r="J92" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="K92" s="134" t="s">
+      <c r="K92" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="L92" s="134" t="s">
+      <c r="L92" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="M92" s="134" t="s">
+      <c r="M92" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="N92" s="134" t="s">
+      <c r="N92" s="160" t="s">
         <v>79</v>
       </c>
       <c r="O92" s="109"/>
@@ -4979,33 +4983,33 @@
       <c r="E93" t="s">
         <v>81</v>
       </c>
-      <c r="F93" s="161">
+      <c r="F93" s="145">
         <f>AVERAGE(J93:J97)</f>
-        <v>595.68200000000002</v>
+        <v>401.60399999999998</v>
       </c>
       <c r="G93" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H93" s="135">
-        <v>42219</v>
-      </c>
-      <c r="I93" s="136">
+      <c r="H93" s="161">
+        <v>42408</v>
+      </c>
+      <c r="I93" s="162">
         <v>1</v>
       </c>
-      <c r="J93" s="159">
-        <v>573.86</v>
-      </c>
-      <c r="K93" s="159">
-        <v>518.20000000000005</v>
-      </c>
-      <c r="L93" s="159">
-        <v>360.35</v>
-      </c>
-      <c r="M93" s="159">
-        <v>464.85</v>
-      </c>
-      <c r="N93" s="159">
-        <v>312.33999999999997</v>
+      <c r="J93" s="163">
+        <v>395.65</v>
+      </c>
+      <c r="K93" s="163">
+        <v>371.99</v>
+      </c>
+      <c r="L93" s="163">
+        <v>192.65</v>
+      </c>
+      <c r="M93" s="163">
+        <v>358.67</v>
+      </c>
+      <c r="N93" s="163">
+        <v>277.56</v>
       </c>
       <c r="O93" s="109"/>
       <c r="P93" s="109"/>
@@ -5026,33 +5030,33 @@
       <c r="E94" t="s">
         <v>82</v>
       </c>
-      <c r="F94" s="161">
+      <c r="F94" s="145">
         <f>AVERAGE(K93:K97)</f>
-        <v>549.61</v>
+        <v>371.00199999999995</v>
       </c>
       <c r="G94" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H94" s="135">
-        <v>42212</v>
-      </c>
-      <c r="I94" s="136">
+      <c r="H94" s="161">
+        <v>42401</v>
+      </c>
+      <c r="I94" s="162">
         <v>1</v>
       </c>
-      <c r="J94" s="159">
-        <v>586.26</v>
-      </c>
-      <c r="K94" s="159">
-        <v>533.91</v>
-      </c>
-      <c r="L94" s="159">
-        <v>360.35</v>
-      </c>
-      <c r="M94" s="159">
-        <v>464.85</v>
-      </c>
-      <c r="N94" s="159">
-        <v>315.64999999999998</v>
+      <c r="J94" s="163">
+        <v>399.79</v>
+      </c>
+      <c r="K94" s="163">
+        <v>362.08</v>
+      </c>
+      <c r="L94" s="163">
+        <v>200.09</v>
+      </c>
+      <c r="M94" s="163">
+        <v>363.67</v>
+      </c>
+      <c r="N94" s="163">
+        <v>285.82</v>
       </c>
       <c r="O94" s="109"/>
       <c r="P94" s="109"/>
@@ -5073,33 +5077,33 @@
       <c r="E95" t="s">
         <v>83</v>
       </c>
-      <c r="F95" s="161">
+      <c r="F95" s="145">
         <f>AVERAGE(N93:N97)</f>
-        <v>314.49200000000002</v>
+        <v>292.10399999999998</v>
       </c>
       <c r="G95" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H95" s="135">
-        <v>42205</v>
-      </c>
-      <c r="I95" s="136">
+      <c r="H95" s="161">
+        <v>42394</v>
+      </c>
+      <c r="I95" s="162">
         <v>1</v>
       </c>
-      <c r="J95" s="159">
-        <v>599.48</v>
-      </c>
-      <c r="K95" s="159">
-        <v>547.13</v>
-      </c>
-      <c r="L95" s="159">
-        <v>360.35</v>
-      </c>
-      <c r="M95" s="159">
-        <v>464.85</v>
-      </c>
-      <c r="N95" s="159">
-        <v>310.69</v>
+      <c r="J95" s="163">
+        <v>393.17</v>
+      </c>
+      <c r="K95" s="163">
+        <v>355.46</v>
+      </c>
+      <c r="L95" s="163">
+        <v>187.7</v>
+      </c>
+      <c r="M95" s="163">
+        <v>341.67</v>
+      </c>
+      <c r="N95" s="163">
+        <v>287.48</v>
       </c>
       <c r="O95" s="109"/>
       <c r="P95" s="109"/>
@@ -5120,33 +5124,33 @@
       <c r="E96" t="s">
         <v>91</v>
       </c>
-      <c r="F96" s="160">
+      <c r="F96" s="144">
         <f>AVERAGE(M93:M97)</f>
-        <v>464.85</v>
+        <v>352.47</v>
       </c>
       <c r="G96" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="H96" s="135">
-        <v>42198</v>
-      </c>
-      <c r="I96" s="136">
+      <c r="H96" s="161">
+        <v>42387</v>
+      </c>
+      <c r="I96" s="162">
         <v>1</v>
       </c>
-      <c r="J96" s="159">
-        <v>617.66999999999996</v>
-      </c>
-      <c r="K96" s="159">
-        <v>568.62</v>
-      </c>
-      <c r="L96" s="159">
-        <v>360.35</v>
-      </c>
-      <c r="M96" s="159">
-        <v>464.85</v>
-      </c>
-      <c r="N96" s="159">
-        <v>318.95999999999998</v>
+      <c r="J96" s="163">
+        <v>402.27</v>
+      </c>
+      <c r="K96" s="163">
+        <v>373.65</v>
+      </c>
+      <c r="L96" s="163">
+        <v>162.08000000000001</v>
+      </c>
+      <c r="M96" s="163">
+        <v>335.67</v>
+      </c>
+      <c r="N96" s="163">
+        <v>307.31</v>
       </c>
       <c r="O96" s="109"/>
       <c r="P96" s="109"/>
@@ -5167,26 +5171,26 @@
       <c r="E97" s="98"/>
       <c r="F97" s="98"/>
       <c r="G97" s="98"/>
-      <c r="H97" s="135">
-        <v>42191</v>
-      </c>
-      <c r="I97" s="136">
+      <c r="H97" s="161">
+        <v>42380</v>
+      </c>
+      <c r="I97" s="162">
         <v>1</v>
       </c>
-      <c r="J97" s="159">
-        <v>601.14</v>
-      </c>
-      <c r="K97" s="159">
-        <v>580.19000000000005</v>
-      </c>
-      <c r="L97" s="159">
-        <v>360.35</v>
-      </c>
-      <c r="M97" s="159">
-        <v>464.85</v>
-      </c>
-      <c r="N97" s="159">
-        <v>314.82</v>
+      <c r="J97" s="163">
+        <v>417.14</v>
+      </c>
+      <c r="K97" s="163">
+        <v>391.83</v>
+      </c>
+      <c r="L97" s="163">
+        <v>181.08</v>
+      </c>
+      <c r="M97" s="163">
+        <v>362.67</v>
+      </c>
+      <c r="N97" s="163">
+        <v>302.35000000000002</v>
       </c>
       <c r="O97" s="109"/>
       <c r="P97" s="109"/>
@@ -5207,33 +5211,33 @@
       <c r="E98" t="s">
         <v>81</v>
       </c>
-      <c r="F98" s="137">
+      <c r="F98" s="131">
         <f>F93/1000</f>
-        <v>0.59568200000000004</v>
+        <v>0.40160399999999996</v>
       </c>
       <c r="G98" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H98" s="135">
-        <v>42184</v>
-      </c>
-      <c r="I98" s="136">
+      <c r="H98" s="161">
+        <v>42373</v>
+      </c>
+      <c r="I98" s="162">
         <v>1</v>
       </c>
-      <c r="J98" s="159">
-        <v>593.70000000000005</v>
-      </c>
-      <c r="K98" s="159">
-        <v>580.19000000000005</v>
-      </c>
-      <c r="L98" s="159">
-        <v>360.35</v>
-      </c>
-      <c r="M98" s="159">
-        <v>464.85</v>
-      </c>
-      <c r="N98" s="159">
-        <v>318.13</v>
+      <c r="J98" s="163">
+        <v>412.18</v>
+      </c>
+      <c r="K98" s="163">
+        <v>391.83</v>
+      </c>
+      <c r="L98" s="163">
+        <v>181.91</v>
+      </c>
+      <c r="M98" s="163">
+        <v>382.67</v>
+      </c>
+      <c r="N98" s="163">
+        <v>303.18</v>
       </c>
       <c r="O98" s="109"/>
       <c r="P98" s="109"/>
@@ -5254,33 +5258,33 @@
       <c r="E99" t="s">
         <v>82</v>
       </c>
-      <c r="F99" s="137">
+      <c r="F99" s="131">
         <f>F94/1000</f>
-        <v>0.54961000000000004</v>
+        <v>0.37100199999999994</v>
       </c>
       <c r="G99" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H99" s="135">
-        <v>42177</v>
-      </c>
-      <c r="I99" s="136">
+      <c r="H99" s="161">
+        <v>42352</v>
+      </c>
+      <c r="I99" s="162">
         <v>1</v>
       </c>
-      <c r="J99" s="159">
-        <v>604.44000000000005</v>
-      </c>
-      <c r="K99" s="159">
-        <v>585.15</v>
-      </c>
-      <c r="L99" s="159">
+      <c r="J99" s="163">
+        <v>435.02</v>
+      </c>
+      <c r="K99" s="163">
+        <v>444.65</v>
+      </c>
+      <c r="L99" s="163">
         <v>360.35</v>
       </c>
-      <c r="M99" s="159">
+      <c r="M99" s="163">
         <v>464.85</v>
       </c>
-      <c r="N99" s="159">
-        <v>317.3</v>
+      <c r="N99" s="163">
+        <v>318.95999999999998</v>
       </c>
       <c r="O99" s="109"/>
       <c r="P99" s="109"/>
@@ -5301,33 +5305,33 @@
       <c r="E100" t="s">
         <v>83</v>
       </c>
-      <c r="F100" s="137">
+      <c r="F100" s="131">
         <f>F95/1000</f>
-        <v>0.31449199999999999</v>
+        <v>0.29210399999999997</v>
       </c>
       <c r="G100" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H100" s="135">
-        <v>42170</v>
-      </c>
-      <c r="I100" s="136">
+      <c r="H100" s="161">
+        <v>42345</v>
+      </c>
+      <c r="I100" s="162">
         <v>1</v>
       </c>
-      <c r="J100" s="159">
-        <v>601.14</v>
-      </c>
-      <c r="K100" s="159">
-        <v>587.63</v>
-      </c>
-      <c r="L100" s="159">
+      <c r="J100" s="163">
+        <v>452.38</v>
+      </c>
+      <c r="K100" s="163">
+        <v>467.79</v>
+      </c>
+      <c r="L100" s="163">
         <v>360.35</v>
       </c>
-      <c r="M100" s="159">
+      <c r="M100" s="163">
         <v>464.85</v>
       </c>
-      <c r="N100" s="159">
-        <v>326.39</v>
+      <c r="N100" s="163">
+        <v>323.91000000000003</v>
       </c>
       <c r="O100" s="109"/>
       <c r="P100" s="109"/>
@@ -5348,28 +5352,28 @@
       <c r="E101" t="s">
         <v>91</v>
       </c>
-      <c r="F101" s="137"/>
+      <c r="F101" s="131"/>
       <c r="G101" s="109"/>
-      <c r="H101" s="135">
-        <v>42163</v>
-      </c>
-      <c r="I101" s="136">
+      <c r="H101" s="161">
+        <v>42338</v>
+      </c>
+      <c r="I101" s="162">
         <v>1</v>
       </c>
-      <c r="J101" s="159">
-        <v>585.42999999999995</v>
-      </c>
-      <c r="K101" s="159">
-        <v>587.63</v>
-      </c>
-      <c r="L101" s="159">
+      <c r="J101" s="163">
+        <v>459.81</v>
+      </c>
+      <c r="K101" s="163">
+        <v>486.8</v>
+      </c>
+      <c r="L101" s="163">
         <v>360.35</v>
       </c>
-      <c r="M101" s="159">
+      <c r="M101" s="163">
         <v>464.85</v>
       </c>
-      <c r="N101" s="159">
-        <v>337.14</v>
+      <c r="N101" s="163">
+        <v>321.44</v>
       </c>
       <c r="O101" s="109"/>
       <c r="P101" s="109"/>
@@ -5390,26 +5394,26 @@
       <c r="E102" s="109"/>
       <c r="F102" s="109"/>
       <c r="G102" s="109"/>
-      <c r="H102" s="135">
-        <v>42156</v>
-      </c>
-      <c r="I102" s="136">
+      <c r="H102" s="161">
+        <v>42331</v>
+      </c>
+      <c r="I102" s="162">
         <v>1</v>
       </c>
-      <c r="J102" s="159">
-        <v>579.65</v>
-      </c>
-      <c r="K102" s="159">
-        <v>587.63</v>
-      </c>
-      <c r="L102" s="159">
+      <c r="J102" s="163">
+        <v>469.73</v>
+      </c>
+      <c r="K102" s="163">
+        <v>491.76</v>
+      </c>
+      <c r="L102" s="163">
         <v>360.35</v>
       </c>
-      <c r="M102" s="159">
+      <c r="M102" s="163">
         <v>464.85</v>
       </c>
-      <c r="N102" s="159">
-        <v>342.1</v>
+      <c r="N102" s="163">
+        <v>323.91000000000003</v>
       </c>
       <c r="O102" s="109"/>
       <c r="P102" s="109"/>
@@ -5430,33 +5434,33 @@
       <c r="E103" t="s">
         <v>81</v>
       </c>
-      <c r="F103" s="138">
+      <c r="F103" s="132">
         <f>F98/F11</f>
-        <v>1.8508637832463336E-2</v>
+        <v>1.2478374347501861E-2</v>
       </c>
       <c r="G103" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="135">
-        <v>42149</v>
-      </c>
-      <c r="I103" s="136">
+      <c r="H103" s="161">
+        <v>42324</v>
+      </c>
+      <c r="I103" s="162">
         <v>1</v>
       </c>
-      <c r="J103" s="159">
-        <v>578</v>
-      </c>
-      <c r="K103" s="159">
-        <v>591.76</v>
-      </c>
-      <c r="L103" s="159">
+      <c r="J103" s="163">
+        <v>492.87</v>
+      </c>
+      <c r="K103" s="163">
+        <v>506.63</v>
+      </c>
+      <c r="L103" s="163">
         <v>360.35</v>
       </c>
-      <c r="M103" s="159">
+      <c r="M103" s="163">
         <v>464.85</v>
       </c>
-      <c r="N103" s="159">
-        <v>338.79</v>
+      <c r="N103" s="163">
+        <v>323.08999999999997</v>
       </c>
       <c r="O103" s="109"/>
       <c r="P103" s="109"/>
@@ -5477,33 +5481,33 @@
       <c r="E104" t="s">
         <v>82</v>
       </c>
-      <c r="F104" s="138">
+      <c r="F104" s="132">
         <f>F99/F17</f>
-        <v>1.5326889612707478E-2</v>
+        <v>1.0346075762984113E-2</v>
       </c>
       <c r="G104" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H104" s="135">
-        <v>42142</v>
-      </c>
-      <c r="I104" s="136">
+      <c r="H104" s="161">
+        <v>42317</v>
+      </c>
+      <c r="I104" s="162">
         <v>1</v>
       </c>
-      <c r="J104" s="159">
-        <v>582.13</v>
-      </c>
-      <c r="K104" s="159">
-        <v>594.24</v>
-      </c>
-      <c r="L104" s="159">
+      <c r="J104" s="163">
+        <v>478</v>
+      </c>
+      <c r="K104" s="163">
+        <v>503.33</v>
+      </c>
+      <c r="L104" s="163">
         <v>360.35</v>
       </c>
-      <c r="M104" s="159">
+      <c r="M104" s="163">
         <v>464.85</v>
       </c>
-      <c r="N104" s="159">
-        <v>354.49</v>
+      <c r="N104" s="163">
+        <v>319.77999999999997</v>
       </c>
       <c r="O104" s="109"/>
       <c r="P104" s="109"/>
@@ -5524,33 +5528,33 @@
       <c r="E105" t="s">
         <v>83</v>
       </c>
-      <c r="F105" s="138">
+      <c r="F105" s="132">
         <f>F100/F23</f>
-        <v>1.3047295054762695E-2</v>
+        <v>1.2118486558247593E-2</v>
       </c>
       <c r="G105" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H105" s="135">
-        <v>42135</v>
-      </c>
-      <c r="I105" s="136">
+      <c r="H105" s="161">
+        <v>42310</v>
+      </c>
+      <c r="I105" s="162">
         <v>1</v>
       </c>
-      <c r="J105" s="159">
-        <v>587.91</v>
-      </c>
-      <c r="K105" s="159">
-        <v>595.05999999999995</v>
-      </c>
-      <c r="L105" s="159">
+      <c r="J105" s="163">
+        <v>449.07</v>
+      </c>
+      <c r="K105" s="163">
+        <v>481.01</v>
+      </c>
+      <c r="L105" s="163">
         <v>360.35</v>
       </c>
-      <c r="M105" s="159">
+      <c r="M105" s="163">
         <v>464.85</v>
       </c>
-      <c r="N105" s="159">
-        <v>361.1</v>
+      <c r="N105" s="163">
+        <v>308.20999999999998</v>
       </c>
       <c r="O105" s="109"/>
       <c r="P105" s="109"/>
@@ -5571,33 +5575,33 @@
       <c r="E106" t="s">
         <v>91</v>
       </c>
-      <c r="F106" s="138">
+      <c r="F106" s="132">
         <f>F96/(F27*1000)</f>
-        <v>1.1477777777777778E-2</v>
+        <v>8.7029629629629644E-3</v>
       </c>
       <c r="G106" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H106" s="135">
-        <v>42128</v>
-      </c>
-      <c r="I106" s="136">
+      <c r="H106" s="161">
+        <v>42303</v>
+      </c>
+      <c r="I106" s="162">
         <v>1</v>
       </c>
-      <c r="J106" s="159">
-        <v>584.61</v>
-      </c>
-      <c r="K106" s="159">
-        <v>590.11</v>
-      </c>
-      <c r="L106" s="159">
+      <c r="J106" s="163">
+        <v>439.98</v>
+      </c>
+      <c r="K106" s="163">
+        <v>478.54</v>
+      </c>
+      <c r="L106" s="163">
         <v>360.35</v>
       </c>
-      <c r="M106" s="159">
+      <c r="M106" s="163">
         <v>464.85</v>
       </c>
-      <c r="N106" s="159">
-        <v>365.24</v>
+      <c r="N106" s="163">
+        <v>304.91000000000003</v>
       </c>
       <c r="O106" s="109"/>
       <c r="P106" s="109"/>
@@ -5618,26 +5622,26 @@
       <c r="E107" s="109"/>
       <c r="F107" s="109"/>
       <c r="G107" s="109"/>
-      <c r="H107" s="135">
-        <v>42121</v>
-      </c>
-      <c r="I107" s="136">
+      <c r="H107" s="161">
+        <v>42296</v>
+      </c>
+      <c r="I107" s="162">
         <v>1</v>
       </c>
-      <c r="J107" s="159">
-        <v>583.78</v>
-      </c>
-      <c r="K107" s="159">
-        <v>591.76</v>
-      </c>
-      <c r="L107" s="159">
+      <c r="J107" s="163">
+        <v>454.03</v>
+      </c>
+      <c r="K107" s="163">
+        <v>493.41</v>
+      </c>
+      <c r="L107" s="163">
         <v>360.35</v>
       </c>
-      <c r="M107" s="159">
+      <c r="M107" s="163">
         <v>464.85</v>
       </c>
-      <c r="N107" s="159">
-        <v>366.06</v>
+      <c r="N107" s="163">
+        <v>305.73</v>
       </c>
       <c r="O107" s="109"/>
       <c r="P107" s="109"/>
@@ -5658,26 +5662,26 @@
       <c r="E108" s="109"/>
       <c r="F108" s="109"/>
       <c r="G108" s="109"/>
-      <c r="H108" s="135">
-        <v>42114</v>
-      </c>
-      <c r="I108" s="136">
+      <c r="H108" s="161">
+        <v>42289</v>
+      </c>
+      <c r="I108" s="162">
         <v>1</v>
       </c>
-      <c r="J108" s="159">
-        <v>567.25</v>
-      </c>
-      <c r="K108" s="159">
-        <v>576.88</v>
-      </c>
-      <c r="L108" s="159">
+      <c r="J108" s="163">
+        <v>462.29</v>
+      </c>
+      <c r="K108" s="163">
+        <v>501.68</v>
+      </c>
+      <c r="L108" s="163">
         <v>360.35</v>
       </c>
-      <c r="M108" s="159">
+      <c r="M108" s="163">
         <v>464.85</v>
       </c>
-      <c r="N108" s="159">
-        <v>361.1</v>
+      <c r="N108" s="163">
+        <v>302.43</v>
       </c>
       <c r="O108" s="109"/>
       <c r="P108" s="109"/>
@@ -5698,26 +5702,26 @@
       <c r="E109" s="109"/>
       <c r="F109" s="109"/>
       <c r="G109" s="109"/>
-      <c r="H109" s="135">
-        <v>42107</v>
-      </c>
-      <c r="I109" s="136">
+      <c r="H109" s="161">
+        <v>42282</v>
+      </c>
+      <c r="I109" s="162">
         <v>1</v>
       </c>
-      <c r="J109" s="159">
-        <v>544.11</v>
-      </c>
-      <c r="K109" s="159">
-        <v>553.74</v>
-      </c>
-      <c r="L109" s="159">
+      <c r="J109" s="163">
+        <v>451.55</v>
+      </c>
+      <c r="K109" s="163">
+        <v>489.28</v>
+      </c>
+      <c r="L109" s="163">
         <v>360.35</v>
       </c>
-      <c r="M109" s="159">
+      <c r="M109" s="163">
         <v>464.85</v>
       </c>
-      <c r="N109" s="159">
-        <v>366.89</v>
+      <c r="N109" s="163">
+        <v>296.64</v>
       </c>
       <c r="O109" s="109"/>
       <c r="P109" s="109"/>
@@ -5738,26 +5742,26 @@
       <c r="E110" s="109"/>
       <c r="F110" s="109"/>
       <c r="G110" s="109"/>
-      <c r="H110" s="135">
-        <v>42093</v>
-      </c>
-      <c r="I110" s="136">
+      <c r="H110" s="161">
+        <v>42275</v>
+      </c>
+      <c r="I110" s="162">
         <v>1</v>
       </c>
-      <c r="J110" s="159">
-        <v>550.72</v>
-      </c>
-      <c r="K110" s="159">
-        <v>566.14</v>
-      </c>
-      <c r="L110" s="159">
+      <c r="J110" s="163">
+        <v>463.12</v>
+      </c>
+      <c r="K110" s="163">
+        <v>490.11</v>
+      </c>
+      <c r="L110" s="163">
         <v>360.35</v>
       </c>
-      <c r="M110" s="159">
+      <c r="M110" s="163">
         <v>464.85</v>
       </c>
-      <c r="N110" s="159">
-        <v>377.63</v>
+      <c r="N110" s="163">
+        <v>287.55</v>
       </c>
       <c r="O110" s="109"/>
       <c r="P110" s="109"/>
@@ -5778,26 +5782,26 @@
       <c r="E111" s="109"/>
       <c r="F111" s="109"/>
       <c r="G111" s="109"/>
-      <c r="H111" s="135">
-        <v>42086</v>
-      </c>
-      <c r="I111" s="136">
+      <c r="H111" s="161">
+        <v>42268</v>
+      </c>
+      <c r="I111" s="162">
         <v>1</v>
       </c>
-      <c r="J111" s="159">
-        <v>539.98</v>
-      </c>
-      <c r="K111" s="159">
-        <v>567.79</v>
-      </c>
-      <c r="L111" s="159">
+      <c r="J111" s="163">
+        <v>472.21</v>
+      </c>
+      <c r="K111" s="163">
+        <v>498.37</v>
+      </c>
+      <c r="L111" s="163">
         <v>360.35</v>
       </c>
-      <c r="M111" s="159">
+      <c r="M111" s="163">
         <v>464.85</v>
       </c>
-      <c r="N111" s="159">
-        <v>380.94</v>
+      <c r="N111" s="163">
+        <v>284.25</v>
       </c>
       <c r="O111" s="109"/>
       <c r="P111" s="109"/>
@@ -5816,1509 +5820,1173 @@
       <c r="E112" s="109"/>
       <c r="F112" s="109"/>
       <c r="G112" s="109"/>
-      <c r="H112" s="135">
-        <v>42079</v>
-      </c>
-      <c r="I112" s="136">
+      <c r="H112" s="161">
+        <v>42261</v>
+      </c>
+      <c r="I112" s="162">
         <v>1</v>
       </c>
-      <c r="J112" s="159">
-        <v>543.29</v>
-      </c>
-      <c r="K112" s="159">
-        <v>578.54</v>
-      </c>
-      <c r="L112" s="159">
+      <c r="J112" s="163">
+        <v>481.3</v>
+      </c>
+      <c r="K112" s="163">
+        <v>502.5</v>
+      </c>
+      <c r="L112" s="163">
         <v>360.35</v>
       </c>
-      <c r="M112" s="159">
+      <c r="M112" s="163">
         <v>464.85</v>
       </c>
-      <c r="N112" s="159">
-        <v>377.63</v>
+      <c r="N112" s="163">
+        <v>285.07</v>
       </c>
     </row>
     <row r="113" spans="2:14" customFormat="1" ht="16">
       <c r="B113" s="99"/>
       <c r="F113" s="109"/>
       <c r="G113" s="109"/>
-      <c r="H113" s="135">
-        <v>42072</v>
-      </c>
-      <c r="I113" s="136">
+      <c r="H113" s="161">
+        <v>42254</v>
+      </c>
+      <c r="I113" s="162">
         <v>1</v>
       </c>
-      <c r="J113" s="159">
-        <v>533.37</v>
-      </c>
-      <c r="K113" s="159">
-        <v>579.36</v>
-      </c>
-      <c r="L113" s="159">
+      <c r="J113" s="163">
+        <v>482.13</v>
+      </c>
+      <c r="K113" s="163">
+        <v>493.41</v>
+      </c>
+      <c r="L113" s="163">
         <v>360.35</v>
       </c>
-      <c r="M113" s="159">
+      <c r="M113" s="163">
         <v>464.85</v>
       </c>
-      <c r="N113" s="159">
-        <v>379.29</v>
+      <c r="N113" s="163">
+        <v>284.25</v>
       </c>
     </row>
     <row r="114" spans="2:14" customFormat="1" ht="16">
       <c r="B114" s="99"/>
       <c r="F114" s="109"/>
       <c r="G114" s="109"/>
-      <c r="H114" s="135">
-        <v>42065</v>
-      </c>
-      <c r="I114" s="136">
+      <c r="H114" s="161">
+        <v>42247</v>
+      </c>
+      <c r="I114" s="162">
         <v>1</v>
       </c>
-      <c r="J114" s="159">
-        <v>515.19000000000005</v>
-      </c>
-      <c r="K114" s="159">
-        <v>578.54</v>
-      </c>
-      <c r="L114" s="159">
+      <c r="J114" s="163">
+        <v>482.95</v>
+      </c>
+      <c r="K114" s="163">
+        <v>466.06</v>
+      </c>
+      <c r="L114" s="163">
         <v>360.35</v>
       </c>
-      <c r="M114" s="159">
+      <c r="M114" s="163">
         <v>464.85</v>
       </c>
-      <c r="N114" s="159">
-        <v>359.45</v>
+      <c r="N114" s="163">
+        <v>276.88</v>
       </c>
     </row>
     <row r="115" spans="2:14" customFormat="1" ht="16">
       <c r="B115" s="99"/>
       <c r="F115" s="109"/>
       <c r="G115" s="109"/>
-      <c r="H115" s="135">
-        <v>42058</v>
-      </c>
-      <c r="I115" s="136">
+      <c r="H115" s="161">
+        <v>42240</v>
+      </c>
+      <c r="I115" s="162">
         <v>1</v>
       </c>
-      <c r="J115" s="159">
-        <v>502.79</v>
-      </c>
-      <c r="K115" s="159">
-        <v>569.44000000000005</v>
-      </c>
-      <c r="L115" s="159">
+      <c r="J115" s="163">
+        <v>513.53</v>
+      </c>
+      <c r="K115" s="163">
+        <v>485.97</v>
+      </c>
+      <c r="L115" s="163">
         <v>360.35</v>
       </c>
-      <c r="M115" s="159">
+      <c r="M115" s="163">
         <v>464.85</v>
       </c>
-      <c r="N115" s="159">
-        <v>338.79</v>
+      <c r="N115" s="163">
+        <v>287.55</v>
       </c>
     </row>
     <row r="116" spans="2:14" customFormat="1" ht="16">
       <c r="B116" s="99"/>
       <c r="F116" s="109"/>
       <c r="G116" s="109"/>
-      <c r="H116" s="135">
-        <v>42051</v>
-      </c>
-      <c r="I116" s="136">
+      <c r="H116" s="161">
+        <v>42233</v>
+      </c>
+      <c r="I116" s="162">
         <v>1</v>
       </c>
-      <c r="J116" s="159">
-        <v>497</v>
-      </c>
-      <c r="K116" s="159">
-        <v>560.35</v>
-      </c>
-      <c r="L116" s="159">
+      <c r="J116" s="163">
+        <v>542.46</v>
+      </c>
+      <c r="K116" s="163">
+        <v>496.72</v>
+      </c>
+      <c r="L116" s="163">
         <v>360.35</v>
       </c>
-      <c r="M116" s="159">
+      <c r="M116" s="163">
         <v>464.85</v>
       </c>
-      <c r="N116" s="159">
-        <v>338.79</v>
+      <c r="N116" s="163">
+        <v>302.43</v>
       </c>
     </row>
     <row r="117" spans="2:14" customFormat="1" ht="16">
       <c r="B117" s="99"/>
       <c r="F117" s="109"/>
       <c r="G117" s="109"/>
-      <c r="H117" s="135">
-        <v>42044</v>
-      </c>
-      <c r="I117" s="136">
+      <c r="H117" s="161">
+        <v>42226</v>
+      </c>
+      <c r="I117" s="162">
         <v>1</v>
       </c>
-      <c r="J117" s="159">
-        <v>463.12</v>
-      </c>
-      <c r="K117" s="159">
-        <v>525.64</v>
-      </c>
-      <c r="L117" s="159">
+      <c r="J117" s="163">
+        <v>562.29</v>
+      </c>
+      <c r="K117" s="163">
+        <v>504.98</v>
+      </c>
+      <c r="L117" s="163">
         <v>360.35</v>
       </c>
-      <c r="M117" s="159">
+      <c r="M117" s="163">
         <v>464.85</v>
       </c>
-      <c r="N117" s="159">
-        <v>342.1</v>
+      <c r="N117" s="163">
+        <v>308.20999999999998</v>
       </c>
     </row>
     <row r="118" spans="2:14" customFormat="1" ht="16">
       <c r="B118" s="99"/>
       <c r="F118" s="109"/>
       <c r="G118" s="109"/>
-      <c r="H118" s="135">
-        <v>42037</v>
-      </c>
-      <c r="I118" s="136">
+      <c r="H118" s="161">
+        <v>42219</v>
+      </c>
+      <c r="I118" s="162">
         <v>1</v>
       </c>
-      <c r="J118" s="159">
-        <v>435.02</v>
-      </c>
-      <c r="K118" s="159">
-        <v>496.72</v>
-      </c>
-      <c r="L118" s="159">
+      <c r="J118" s="163">
+        <v>573.86</v>
+      </c>
+      <c r="K118" s="163">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="L118" s="163">
         <v>360.35</v>
       </c>
-      <c r="M118" s="159">
+      <c r="M118" s="163">
         <v>464.85</v>
       </c>
-      <c r="N118" s="159">
-        <v>322.26</v>
+      <c r="N118" s="163">
+        <v>312.33999999999997</v>
       </c>
     </row>
     <row r="119" spans="2:14" customFormat="1" ht="16">
       <c r="B119" s="99"/>
       <c r="F119" s="109"/>
       <c r="G119" s="109"/>
-      <c r="H119" s="135">
-        <v>42030</v>
-      </c>
-      <c r="I119" s="136">
+      <c r="H119" s="161">
+        <v>42212</v>
+      </c>
+      <c r="I119" s="162">
         <v>1</v>
       </c>
-      <c r="J119" s="159">
-        <v>434.19</v>
-      </c>
-      <c r="K119" s="159">
-        <v>490.93</v>
-      </c>
-      <c r="L119" s="159">
+      <c r="J119" s="163">
+        <v>586.26</v>
+      </c>
+      <c r="K119" s="163">
+        <v>533.91</v>
+      </c>
+      <c r="L119" s="163">
         <v>360.35</v>
       </c>
-      <c r="M119" s="159">
+      <c r="M119" s="163">
         <v>464.85</v>
       </c>
-      <c r="N119" s="159">
-        <v>317.3</v>
+      <c r="N119" s="163">
+        <v>315.64999999999998</v>
       </c>
     </row>
     <row r="120" spans="2:14" customFormat="1" ht="16">
       <c r="B120" s="99"/>
       <c r="F120" s="109"/>
       <c r="G120" s="109"/>
-      <c r="H120" s="135">
-        <v>42023</v>
-      </c>
-      <c r="I120" s="136">
+      <c r="H120" s="161">
+        <v>42205</v>
+      </c>
+      <c r="I120" s="162">
         <v>1</v>
       </c>
-      <c r="J120" s="159">
-        <v>435.02</v>
-      </c>
-      <c r="K120" s="159">
-        <v>490.93</v>
-      </c>
-      <c r="L120" s="159">
+      <c r="J120" s="163">
+        <v>599.48</v>
+      </c>
+      <c r="K120" s="163">
+        <v>547.13</v>
+      </c>
+      <c r="L120" s="163">
         <v>360.35</v>
       </c>
-      <c r="M120" s="159">
+      <c r="M120" s="163">
         <v>464.85</v>
       </c>
-      <c r="N120" s="159">
-        <v>313.17</v>
+      <c r="N120" s="163">
+        <v>310.69</v>
       </c>
     </row>
     <row r="121" spans="2:14" customFormat="1" ht="16">
       <c r="B121" s="99"/>
       <c r="F121" s="109"/>
       <c r="G121" s="109"/>
-      <c r="H121" s="135">
-        <v>42016</v>
-      </c>
-      <c r="I121" s="136">
+      <c r="H121" s="161">
+        <v>42198</v>
+      </c>
+      <c r="I121" s="162">
         <v>1</v>
       </c>
-      <c r="J121" s="159">
-        <v>448.24</v>
-      </c>
-      <c r="K121" s="159">
-        <v>502.5</v>
-      </c>
-      <c r="L121" s="159">
+      <c r="J121" s="163">
+        <v>617.66999999999996</v>
+      </c>
+      <c r="K121" s="163">
+        <v>568.62</v>
+      </c>
+      <c r="L121" s="163">
         <v>360.35</v>
       </c>
-      <c r="M121" s="159">
+      <c r="M121" s="163">
         <v>464.85</v>
       </c>
-      <c r="N121" s="159">
-        <v>329.7</v>
+      <c r="N121" s="163">
+        <v>318.95999999999998</v>
       </c>
     </row>
     <row r="122" spans="2:14" customFormat="1" ht="16">
       <c r="B122" s="99"/>
       <c r="F122" s="109"/>
       <c r="G122" s="109"/>
-      <c r="H122" s="135">
-        <v>42009</v>
-      </c>
-      <c r="I122" s="136">
+      <c r="H122" s="161">
+        <v>42191</v>
+      </c>
+      <c r="I122" s="162">
         <v>1</v>
       </c>
-      <c r="J122" s="159">
-        <v>466.43</v>
-      </c>
-      <c r="K122" s="159">
-        <v>508.29</v>
-      </c>
-      <c r="L122" s="159">
+      <c r="J122" s="163">
+        <v>601.14</v>
+      </c>
+      <c r="K122" s="163">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="L122" s="163">
         <v>360.35</v>
       </c>
-      <c r="M122" s="159">
+      <c r="M122" s="163">
         <v>464.85</v>
       </c>
-      <c r="N122" s="159">
-        <v>351.19</v>
+      <c r="N122" s="163">
+        <v>314.82</v>
       </c>
     </row>
     <row r="123" spans="2:14" customFormat="1" ht="16">
       <c r="B123" s="99"/>
       <c r="F123" s="109"/>
       <c r="G123" s="109"/>
-      <c r="H123" s="135">
-        <v>41988</v>
-      </c>
-      <c r="I123" s="136">
+      <c r="H123" s="161">
+        <v>42184</v>
+      </c>
+      <c r="I123" s="162">
         <v>1</v>
       </c>
-      <c r="J123" s="159">
-        <v>519.75</v>
-      </c>
-      <c r="K123" s="159">
-        <v>564.87</v>
-      </c>
-      <c r="L123" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M123" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N123" s="159">
-        <v>383.99</v>
+      <c r="J123" s="163">
+        <v>593.70000000000005</v>
+      </c>
+      <c r="K123" s="163">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="L123" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M123" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N123" s="163">
+        <v>318.13</v>
       </c>
     </row>
     <row r="124" spans="2:14" customFormat="1" ht="16">
       <c r="B124" s="99"/>
       <c r="F124" s="109"/>
       <c r="G124" s="109"/>
-      <c r="H124" s="135">
-        <v>41981</v>
-      </c>
-      <c r="I124" s="136">
+      <c r="H124" s="161">
+        <v>42177</v>
+      </c>
+      <c r="I124" s="162">
         <v>1</v>
       </c>
-      <c r="J124" s="159">
-        <v>546.80999999999995</v>
-      </c>
-      <c r="K124" s="159">
-        <v>592.75</v>
-      </c>
-      <c r="L124" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M124" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N124" s="159">
-        <v>396.75</v>
+      <c r="J124" s="163">
+        <v>604.44000000000005</v>
+      </c>
+      <c r="K124" s="163">
+        <v>585.15</v>
+      </c>
+      <c r="L124" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M124" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N124" s="163">
+        <v>317.3</v>
       </c>
     </row>
     <row r="125" spans="2:14" customFormat="1" ht="16">
       <c r="B125" s="99"/>
       <c r="F125" s="109"/>
       <c r="G125" s="109"/>
-      <c r="H125" s="135">
-        <v>41974</v>
-      </c>
-      <c r="I125" s="136">
+      <c r="H125" s="161">
+        <v>42170</v>
+      </c>
+      <c r="I125" s="162">
         <v>1</v>
       </c>
-      <c r="J125" s="159">
-        <v>568.29999999999995</v>
-      </c>
-      <c r="K125" s="159">
-        <v>615.07000000000005</v>
-      </c>
-      <c r="L125" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M125" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N125" s="159">
-        <v>398.4</v>
+      <c r="J125" s="163">
+        <v>601.14</v>
+      </c>
+      <c r="K125" s="163">
+        <v>587.63</v>
+      </c>
+      <c r="L125" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M125" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N125" s="163">
+        <v>326.39</v>
       </c>
     </row>
     <row r="126" spans="2:14" customFormat="1" ht="16">
       <c r="B126" s="99"/>
       <c r="F126" s="109"/>
       <c r="G126" s="109"/>
-      <c r="H126" s="135">
-        <v>41967</v>
-      </c>
-      <c r="I126" s="136">
+      <c r="H126" s="161">
+        <v>42163</v>
+      </c>
+      <c r="I126" s="162">
         <v>1</v>
       </c>
-      <c r="J126" s="159">
-        <v>580.69000000000005</v>
-      </c>
-      <c r="K126" s="159">
-        <v>633.25</v>
-      </c>
-      <c r="L126" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M126" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N126" s="159">
-        <v>405.84</v>
+      <c r="J126" s="163">
+        <v>585.42999999999995</v>
+      </c>
+      <c r="K126" s="163">
+        <v>587.63</v>
+      </c>
+      <c r="L126" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M126" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N126" s="163">
+        <v>337.14</v>
       </c>
     </row>
     <row r="127" spans="2:14" customFormat="1" ht="16">
       <c r="B127" s="99"/>
       <c r="F127" s="109"/>
       <c r="G127" s="109"/>
-      <c r="H127" s="135">
-        <v>41960</v>
-      </c>
-      <c r="I127" s="136">
+      <c r="H127" s="161">
+        <v>42156</v>
+      </c>
+      <c r="I127" s="162">
         <v>1</v>
       </c>
-      <c r="J127" s="159">
-        <v>584.83000000000004</v>
-      </c>
-      <c r="K127" s="159">
-        <v>644.82000000000005</v>
-      </c>
-      <c r="L127" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M127" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N127" s="159">
-        <v>399.23</v>
+      <c r="J127" s="163">
+        <v>579.65</v>
+      </c>
+      <c r="K127" s="163">
+        <v>587.63</v>
+      </c>
+      <c r="L127" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M127" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N127" s="163">
+        <v>342.1</v>
       </c>
     </row>
     <row r="128" spans="2:14" customFormat="1" ht="16">
       <c r="B128" s="99"/>
       <c r="F128" s="109"/>
       <c r="G128" s="109"/>
-      <c r="H128" s="135">
-        <v>41953</v>
-      </c>
-      <c r="I128" s="136">
+      <c r="H128" s="161">
+        <v>42149</v>
+      </c>
+      <c r="I128" s="162">
         <v>1</v>
       </c>
-      <c r="J128" s="159">
-        <v>584.83000000000004</v>
-      </c>
-      <c r="K128" s="159">
-        <v>643.99</v>
-      </c>
-      <c r="L128" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M128" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N128" s="159">
-        <v>414.93</v>
+      <c r="J128" s="163">
+        <v>578</v>
+      </c>
+      <c r="K128" s="163">
+        <v>591.76</v>
+      </c>
+      <c r="L128" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M128" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N128" s="163">
+        <v>338.79</v>
       </c>
     </row>
     <row r="129" spans="2:14" customFormat="1" ht="16">
       <c r="B129" s="99"/>
       <c r="F129" s="109"/>
       <c r="G129" s="109"/>
-      <c r="H129" s="135">
-        <v>41946</v>
-      </c>
-      <c r="I129" s="136">
+      <c r="H129" s="161">
+        <v>42142</v>
+      </c>
+      <c r="I129" s="162">
         <v>1</v>
       </c>
-      <c r="J129" s="159">
-        <v>585.65</v>
-      </c>
-      <c r="K129" s="159">
-        <v>639.03</v>
-      </c>
-      <c r="L129" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M129" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N129" s="159">
-        <v>422.37</v>
+      <c r="J129" s="163">
+        <v>582.13</v>
+      </c>
+      <c r="K129" s="163">
+        <v>594.24</v>
+      </c>
+      <c r="L129" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M129" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N129" s="163">
+        <v>354.49</v>
       </c>
     </row>
     <row r="130" spans="2:14" customFormat="1" ht="16">
       <c r="B130" s="99"/>
       <c r="F130" s="109"/>
       <c r="G130" s="109"/>
-      <c r="H130" s="135">
-        <v>41939</v>
-      </c>
-      <c r="I130" s="136">
+      <c r="H130" s="161">
+        <v>42135</v>
+      </c>
+      <c r="I130" s="162">
         <v>1</v>
       </c>
-      <c r="J130" s="159">
-        <v>590.61</v>
-      </c>
-      <c r="K130" s="159">
-        <v>635.73</v>
-      </c>
-      <c r="L130" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M130" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N130" s="159">
-        <v>427.33</v>
+      <c r="J130" s="163">
+        <v>587.91</v>
+      </c>
+      <c r="K130" s="163">
+        <v>595.05999999999995</v>
+      </c>
+      <c r="L130" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M130" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N130" s="163">
+        <v>361.1</v>
       </c>
     </row>
     <row r="131" spans="2:14" customFormat="1" ht="16">
       <c r="B131" s="99"/>
       <c r="F131" s="109"/>
       <c r="G131" s="109"/>
-      <c r="H131" s="135">
-        <v>41932</v>
-      </c>
-      <c r="I131" s="136">
+      <c r="H131" s="161">
+        <v>42128</v>
+      </c>
+      <c r="I131" s="162">
         <v>1</v>
       </c>
-      <c r="J131" s="159">
-        <v>605.49</v>
-      </c>
-      <c r="K131" s="159">
-        <v>631.6</v>
-      </c>
-      <c r="L131" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M131" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N131" s="159">
-        <v>443.03</v>
+      <c r="J131" s="163">
+        <v>584.61</v>
+      </c>
+      <c r="K131" s="163">
+        <v>590.11</v>
+      </c>
+      <c r="L131" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M131" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N131" s="163">
+        <v>365.24</v>
       </c>
     </row>
     <row r="132" spans="2:14" customFormat="1" ht="16">
       <c r="B132" s="99"/>
       <c r="F132" s="109"/>
       <c r="G132" s="109"/>
-      <c r="H132" s="135">
-        <v>41925</v>
-      </c>
-      <c r="I132" s="136">
+      <c r="H132" s="161">
+        <v>42121</v>
+      </c>
+      <c r="I132" s="162">
         <v>1</v>
       </c>
-      <c r="J132" s="159">
-        <v>641.02</v>
-      </c>
-      <c r="K132" s="159">
-        <v>653.08000000000004</v>
-      </c>
-      <c r="L132" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M132" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N132" s="159">
-        <v>449.64</v>
+      <c r="J132" s="163">
+        <v>583.78</v>
+      </c>
+      <c r="K132" s="163">
+        <v>591.76</v>
+      </c>
+      <c r="L132" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M132" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N132" s="163">
+        <v>366.06</v>
       </c>
     </row>
     <row r="133" spans="2:14" customFormat="1" ht="16">
       <c r="B133" s="99"/>
       <c r="F133" s="109"/>
       <c r="G133" s="109"/>
-      <c r="H133" s="135">
-        <v>41918</v>
-      </c>
-      <c r="I133" s="136">
+      <c r="H133" s="161">
+        <v>42114</v>
+      </c>
+      <c r="I133" s="162">
         <v>1</v>
       </c>
-      <c r="J133" s="159">
-        <v>657.55</v>
-      </c>
-      <c r="K133" s="159">
-        <v>678.7</v>
-      </c>
-      <c r="L133" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M133" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N133" s="159">
-        <v>448.82</v>
+      <c r="J133" s="163">
+        <v>567.25</v>
+      </c>
+      <c r="K133" s="163">
+        <v>576.88</v>
+      </c>
+      <c r="L133" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M133" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N133" s="163">
+        <v>361.1</v>
       </c>
     </row>
     <row r="134" spans="2:14" customFormat="1" ht="16">
       <c r="B134" s="99"/>
       <c r="F134" s="109"/>
       <c r="G134" s="109"/>
-      <c r="H134" s="135">
-        <v>41911</v>
-      </c>
-      <c r="I134" s="136">
+      <c r="H134" s="161">
+        <v>42107</v>
+      </c>
+      <c r="I134" s="162">
         <v>1</v>
       </c>
-      <c r="J134" s="159">
-        <v>653.41999999999996</v>
-      </c>
-      <c r="K134" s="159">
-        <v>677.88</v>
-      </c>
-      <c r="L134" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M134" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N134" s="159">
-        <v>453.77</v>
+      <c r="J134" s="163">
+        <v>544.11</v>
+      </c>
+      <c r="K134" s="163">
+        <v>553.74</v>
+      </c>
+      <c r="L134" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M134" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N134" s="163">
+        <v>366.89</v>
       </c>
     </row>
     <row r="135" spans="2:14" customFormat="1" ht="16">
       <c r="B135" s="99"/>
       <c r="F135" s="109"/>
       <c r="G135" s="109"/>
-      <c r="H135" s="135">
-        <v>41904</v>
-      </c>
-      <c r="I135" s="136">
+      <c r="H135" s="161">
+        <v>42093</v>
+      </c>
+      <c r="I135" s="162">
         <v>1</v>
       </c>
-      <c r="J135" s="159">
-        <v>660.03</v>
-      </c>
-      <c r="K135" s="159">
-        <v>679.53</v>
-      </c>
-      <c r="L135" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M135" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N135" s="159">
-        <v>454.6</v>
+      <c r="J135" s="163">
+        <v>550.72</v>
+      </c>
+      <c r="K135" s="163">
+        <v>566.14</v>
+      </c>
+      <c r="L135" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M135" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N135" s="163">
+        <v>377.63</v>
       </c>
     </row>
     <row r="136" spans="2:14" customFormat="1" ht="16">
       <c r="B136" s="99"/>
       <c r="F136" s="109"/>
       <c r="G136" s="109"/>
-      <c r="H136" s="135">
-        <v>41897</v>
-      </c>
-      <c r="I136" s="136">
+      <c r="H136" s="161">
+        <v>42086</v>
+      </c>
+      <c r="I136" s="162">
         <v>1</v>
       </c>
-      <c r="J136" s="159">
-        <v>666.64</v>
-      </c>
-      <c r="K136" s="159">
-        <v>684.49</v>
-      </c>
-      <c r="L136" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M136" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N136" s="159">
-        <v>448.82</v>
+      <c r="J136" s="163">
+        <v>539.98</v>
+      </c>
+      <c r="K136" s="163">
+        <v>567.79</v>
+      </c>
+      <c r="L136" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M136" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N136" s="163">
+        <v>380.94</v>
       </c>
     </row>
     <row r="137" spans="2:14" customFormat="1" ht="16">
       <c r="B137" s="99"/>
       <c r="F137" s="109"/>
       <c r="G137" s="109"/>
-      <c r="H137" s="135">
-        <v>41890</v>
-      </c>
-      <c r="I137" s="136">
+      <c r="H137" s="161">
+        <v>42079</v>
+      </c>
+      <c r="I137" s="162">
         <v>1</v>
       </c>
-      <c r="J137" s="159">
-        <v>666.64</v>
-      </c>
-      <c r="K137" s="159">
-        <v>694.41</v>
-      </c>
-      <c r="L137" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M137" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N137" s="159">
-        <v>455.43</v>
+      <c r="J137" s="163">
+        <v>543.29</v>
+      </c>
+      <c r="K137" s="163">
+        <v>578.54</v>
+      </c>
+      <c r="L137" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M137" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N137" s="163">
+        <v>377.63</v>
       </c>
     </row>
     <row r="138" spans="2:14" customFormat="1" ht="16">
       <c r="B138" s="99"/>
       <c r="F138" s="109"/>
       <c r="G138" s="109"/>
-      <c r="H138" s="135">
-        <v>41883</v>
-      </c>
-      <c r="I138" s="136">
+      <c r="H138" s="161">
+        <v>42072</v>
+      </c>
+      <c r="I138" s="162">
         <v>1</v>
       </c>
-      <c r="J138" s="159">
-        <v>655.07000000000005</v>
-      </c>
-      <c r="K138" s="159">
-        <v>691.1</v>
-      </c>
-      <c r="L138" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M138" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N138" s="159">
-        <v>445.51</v>
+      <c r="J138" s="163">
+        <v>533.37</v>
+      </c>
+      <c r="K138" s="163">
+        <v>579.36</v>
+      </c>
+      <c r="L138" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M138" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N138" s="163">
+        <v>379.29</v>
       </c>
     </row>
     <row r="139" spans="2:14" customFormat="1" ht="16">
       <c r="B139" s="99"/>
       <c r="F139" s="109"/>
       <c r="G139" s="109"/>
-      <c r="H139" s="135">
-        <v>41876</v>
-      </c>
-      <c r="I139" s="136">
+      <c r="H139" s="161">
+        <v>42065</v>
+      </c>
+      <c r="I139" s="162">
         <v>1</v>
       </c>
-      <c r="J139" s="159">
-        <v>650.12</v>
-      </c>
-      <c r="K139" s="159">
-        <v>680.36</v>
-      </c>
-      <c r="L139" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M139" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N139" s="159">
-        <v>444.68</v>
+      <c r="J139" s="163">
+        <v>515.19000000000005</v>
+      </c>
+      <c r="K139" s="163">
+        <v>578.54</v>
+      </c>
+      <c r="L139" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M139" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N139" s="163">
+        <v>359.45</v>
       </c>
     </row>
     <row r="140" spans="2:14" customFormat="1" ht="16">
       <c r="B140" s="99"/>
       <c r="F140" s="109"/>
       <c r="G140" s="109"/>
-      <c r="H140" s="135">
-        <v>41869</v>
-      </c>
-      <c r="I140" s="136">
+      <c r="H140" s="161">
+        <v>42058</v>
+      </c>
+      <c r="I140" s="162">
         <v>1</v>
       </c>
-      <c r="J140" s="159">
-        <v>646.80999999999995</v>
-      </c>
-      <c r="K140" s="159">
-        <v>686.97</v>
-      </c>
-      <c r="L140" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M140" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N140" s="159">
-        <v>454.6</v>
+      <c r="J140" s="163">
+        <v>502.79</v>
+      </c>
+      <c r="K140" s="163">
+        <v>569.44000000000005</v>
+      </c>
+      <c r="L140" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M140" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N140" s="163">
+        <v>338.79</v>
       </c>
     </row>
     <row r="141" spans="2:14" customFormat="1" ht="16">
       <c r="B141" s="99"/>
       <c r="F141" s="109"/>
       <c r="G141" s="109"/>
-      <c r="H141" s="135">
-        <v>41862</v>
-      </c>
-      <c r="I141" s="136">
+      <c r="H141" s="161">
+        <v>42051</v>
+      </c>
+      <c r="I141" s="162">
         <v>1</v>
       </c>
-      <c r="J141" s="159">
-        <v>647.64</v>
-      </c>
-      <c r="K141" s="159">
-        <v>688.62</v>
-      </c>
-      <c r="L141" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M141" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N141" s="159">
-        <v>448.82</v>
+      <c r="J141" s="163">
+        <v>497</v>
+      </c>
+      <c r="K141" s="163">
+        <v>560.35</v>
+      </c>
+      <c r="L141" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M141" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N141" s="163">
+        <v>338.79</v>
       </c>
     </row>
     <row r="142" spans="2:14" customFormat="1" ht="16">
       <c r="B142" s="99"/>
       <c r="F142" s="109"/>
       <c r="G142" s="109"/>
-      <c r="H142" s="135">
-        <v>41855</v>
-      </c>
-      <c r="I142" s="136">
+      <c r="H142" s="161">
+        <v>42044</v>
+      </c>
+      <c r="I142" s="162">
         <v>1</v>
       </c>
-      <c r="J142" s="159">
-        <v>660.03</v>
-      </c>
-      <c r="K142" s="159">
-        <v>694.41</v>
-      </c>
-      <c r="L142" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M142" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N142" s="159">
-        <v>452.95</v>
+      <c r="J142" s="163">
+        <v>463.12</v>
+      </c>
+      <c r="K142" s="163">
+        <v>525.64</v>
+      </c>
+      <c r="L142" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M142" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N142" s="163">
+        <v>342.1</v>
       </c>
     </row>
     <row r="143" spans="2:14" customFormat="1" ht="16">
       <c r="B143" s="99"/>
       <c r="F143" s="109"/>
       <c r="G143" s="109"/>
-      <c r="H143" s="135">
-        <v>41848</v>
-      </c>
-      <c r="I143" s="136">
+      <c r="H143" s="161">
+        <v>42037</v>
+      </c>
+      <c r="I143" s="162">
         <v>1</v>
       </c>
-      <c r="J143" s="159">
-        <v>663.34</v>
-      </c>
-      <c r="K143" s="159">
-        <v>687.79</v>
-      </c>
-      <c r="L143" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M143" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N143" s="159">
-        <v>457.91</v>
+      <c r="J143" s="163">
+        <v>435.02</v>
+      </c>
+      <c r="K143" s="163">
+        <v>496.72</v>
+      </c>
+      <c r="L143" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M143" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N143" s="163">
+        <v>322.26</v>
       </c>
     </row>
     <row r="144" spans="2:14" customFormat="1" ht="16">
       <c r="B144" s="99"/>
       <c r="F144" s="109"/>
       <c r="G144" s="109"/>
-      <c r="H144" s="135">
-        <v>41841</v>
-      </c>
-      <c r="I144" s="136">
+      <c r="H144" s="161">
+        <v>42030</v>
+      </c>
+      <c r="I144" s="162">
         <v>1</v>
       </c>
-      <c r="J144" s="159">
-        <v>669.95</v>
-      </c>
-      <c r="K144" s="159">
-        <v>684.49</v>
-      </c>
-      <c r="L144" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M144" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N144" s="159">
-        <v>449.64</v>
+      <c r="J144" s="163">
+        <v>434.19</v>
+      </c>
+      <c r="K144" s="163">
+        <v>490.93</v>
+      </c>
+      <c r="L144" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M144" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N144" s="163">
+        <v>317.3</v>
       </c>
     </row>
     <row r="145" spans="2:14" customFormat="1" ht="16">
       <c r="B145" s="99"/>
       <c r="F145" s="109"/>
       <c r="G145" s="109"/>
-      <c r="H145" s="135">
-        <v>41834</v>
-      </c>
-      <c r="I145" s="136">
+      <c r="H145" s="161">
+        <v>42023</v>
+      </c>
+      <c r="I145" s="162">
         <v>1</v>
       </c>
-      <c r="J145" s="159">
-        <v>688.96</v>
-      </c>
-      <c r="K145" s="159">
-        <v>689.45</v>
-      </c>
-      <c r="L145" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M145" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N145" s="159">
-        <v>443.86</v>
+      <c r="J145" s="163">
+        <v>435.02</v>
+      </c>
+      <c r="K145" s="163">
+        <v>490.93</v>
+      </c>
+      <c r="L145" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M145" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N145" s="163">
+        <v>313.17</v>
       </c>
     </row>
     <row r="146" spans="2:14" customFormat="1" ht="16">
       <c r="B146" s="99"/>
-      <c r="H146" s="135">
-        <v>41827</v>
-      </c>
-      <c r="I146" s="136">
+      <c r="H146" s="161">
+        <v>42016</v>
+      </c>
+      <c r="I146" s="162">
         <v>1</v>
       </c>
-      <c r="J146" s="159">
-        <v>693.09</v>
-      </c>
-      <c r="K146" s="159">
-        <v>700.19</v>
-      </c>
-      <c r="L146" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M146" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N146" s="159">
-        <v>449.64</v>
+      <c r="J146" s="163">
+        <v>448.24</v>
+      </c>
+      <c r="K146" s="163">
+        <v>502.5</v>
+      </c>
+      <c r="L146" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M146" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N146" s="163">
+        <v>329.7</v>
       </c>
     </row>
     <row r="147" spans="2:14" customFormat="1" ht="16">
       <c r="B147" s="99"/>
-      <c r="H147" s="135">
-        <v>41820</v>
-      </c>
-      <c r="I147" s="136">
+      <c r="H147" s="161">
+        <v>42009</v>
+      </c>
+      <c r="I147" s="162">
         <v>1</v>
       </c>
-      <c r="J147" s="159">
-        <v>701.36</v>
-      </c>
-      <c r="K147" s="159">
-        <v>711.76</v>
-      </c>
-      <c r="L147" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M147" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N147" s="159">
-        <v>452.95</v>
+      <c r="J147" s="163">
+        <v>466.43</v>
+      </c>
+      <c r="K147" s="163">
+        <v>508.29</v>
+      </c>
+      <c r="L147" s="163">
+        <v>360.35</v>
+      </c>
+      <c r="M147" s="163">
+        <v>464.85</v>
+      </c>
+      <c r="N147" s="163">
+        <v>351.19</v>
       </c>
     </row>
     <row r="148" spans="2:14" customFormat="1" ht="16">
       <c r="B148" s="99"/>
-      <c r="H148" s="135">
-        <v>41813</v>
-      </c>
-      <c r="I148" s="136">
-        <v>1</v>
-      </c>
-      <c r="J148" s="159">
-        <v>699.7</v>
-      </c>
-      <c r="K148" s="159">
-        <v>710.93</v>
-      </c>
-      <c r="L148" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M148" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N148" s="159">
-        <v>448.82</v>
-      </c>
+      <c r="H148" s="161"/>
+      <c r="I148" s="164"/>
+      <c r="J148" s="163"/>
+      <c r="K148" s="163"/>
+      <c r="L148" s="163"/>
+      <c r="M148" s="163"/>
+      <c r="N148" s="163"/>
     </row>
     <row r="149" spans="2:14" customFormat="1" ht="16">
       <c r="B149" s="99"/>
-      <c r="H149" s="135">
-        <v>41806</v>
-      </c>
-      <c r="I149" s="136">
-        <v>1</v>
-      </c>
-      <c r="J149" s="159">
-        <v>684</v>
-      </c>
-      <c r="K149" s="159">
-        <v>696.06</v>
-      </c>
-      <c r="L149" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M149" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N149" s="159">
-        <v>445.51</v>
-      </c>
+      <c r="H149" s="161"/>
+      <c r="I149" s="164"/>
+      <c r="J149" s="163"/>
+      <c r="K149" s="163"/>
+      <c r="L149" s="163"/>
+      <c r="M149" s="163"/>
+      <c r="N149" s="163"/>
     </row>
     <row r="150" spans="2:14" customFormat="1" ht="16">
       <c r="B150" s="99"/>
-      <c r="H150" s="135">
-        <v>41799</v>
-      </c>
-      <c r="I150" s="136">
-        <v>1</v>
-      </c>
-      <c r="J150" s="159">
-        <v>668.3</v>
-      </c>
-      <c r="K150" s="159">
-        <v>688.62</v>
-      </c>
-      <c r="L150" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M150" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N150" s="159">
-        <v>440.55</v>
-      </c>
+      <c r="H150" s="161"/>
+      <c r="I150" s="164"/>
+      <c r="J150" s="163"/>
+      <c r="K150" s="163"/>
+      <c r="L150" s="163"/>
+      <c r="M150" s="163"/>
+      <c r="N150" s="163"/>
     </row>
     <row r="151" spans="2:14" customFormat="1" ht="16">
       <c r="B151" s="99"/>
-      <c r="H151" s="135">
-        <v>41792</v>
-      </c>
-      <c r="I151" s="136">
-        <v>1</v>
-      </c>
-      <c r="J151" s="159">
-        <v>671.6</v>
-      </c>
-      <c r="K151" s="159">
-        <v>696.06</v>
-      </c>
-      <c r="L151" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M151" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N151" s="159">
-        <v>438.07</v>
-      </c>
+      <c r="H151" s="161"/>
+      <c r="I151" s="164"/>
+      <c r="J151" s="163"/>
+      <c r="K151" s="163"/>
+      <c r="L151" s="163"/>
+      <c r="M151" s="163"/>
+      <c r="N151" s="163"/>
     </row>
     <row r="152" spans="2:14" customFormat="1" ht="16">
       <c r="B152" s="99"/>
-      <c r="H152" s="135">
-        <v>41785</v>
-      </c>
-      <c r="I152" s="136">
-        <v>1</v>
-      </c>
-      <c r="J152" s="159">
-        <v>669.12</v>
-      </c>
-      <c r="K152" s="159">
-        <v>696.06</v>
-      </c>
-      <c r="L152" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M152" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N152" s="159">
-        <v>443.86</v>
-      </c>
+      <c r="H152" s="161"/>
+      <c r="I152" s="164"/>
+      <c r="J152" s="163"/>
+      <c r="K152" s="163"/>
+      <c r="L152" s="163"/>
+      <c r="M152" s="163"/>
+      <c r="N152" s="163"/>
     </row>
     <row r="153" spans="2:14" customFormat="1" ht="16">
       <c r="B153" s="99"/>
-      <c r="H153" s="135">
-        <v>41778</v>
-      </c>
-      <c r="I153" s="136">
-        <v>1</v>
-      </c>
-      <c r="J153" s="159">
-        <v>661.69</v>
-      </c>
-      <c r="K153" s="159">
-        <v>696.06</v>
-      </c>
-      <c r="L153" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M153" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N153" s="159">
-        <v>439.73</v>
-      </c>
+      <c r="H153" s="161"/>
+      <c r="I153" s="164"/>
+      <c r="J153" s="163"/>
+      <c r="K153" s="163"/>
+      <c r="L153" s="163"/>
+      <c r="M153" s="163"/>
+      <c r="N153" s="163"/>
     </row>
     <row r="154" spans="2:14" customFormat="1" ht="16">
       <c r="B154" s="99"/>
-      <c r="H154" s="135">
-        <v>41771</v>
-      </c>
-      <c r="I154" s="136">
-        <v>1</v>
-      </c>
-      <c r="J154" s="159">
-        <v>657.55</v>
-      </c>
-      <c r="K154" s="159">
-        <v>688.62</v>
-      </c>
-      <c r="L154" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M154" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N154" s="159">
-        <v>440.55</v>
-      </c>
+      <c r="H154" s="161"/>
+      <c r="I154" s="164"/>
+      <c r="J154" s="163"/>
+      <c r="K154" s="163"/>
+      <c r="L154" s="163"/>
+      <c r="M154" s="163"/>
+      <c r="N154" s="163"/>
     </row>
     <row r="155" spans="2:14" customFormat="1" ht="16">
       <c r="B155" s="99"/>
-      <c r="H155" s="135">
-        <v>41764</v>
-      </c>
-      <c r="I155" s="136">
-        <v>1</v>
-      </c>
-      <c r="J155" s="159">
-        <v>666.64</v>
-      </c>
-      <c r="K155" s="159">
-        <v>691.93</v>
-      </c>
-      <c r="L155" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M155" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N155" s="159">
-        <v>450.47</v>
-      </c>
+      <c r="H155" s="161"/>
+      <c r="I155" s="164"/>
+      <c r="J155" s="163"/>
+      <c r="K155" s="163"/>
+      <c r="L155" s="163"/>
+      <c r="M155" s="163"/>
+      <c r="N155" s="163"/>
     </row>
     <row r="156" spans="2:14" customFormat="1" ht="16">
       <c r="B156" s="99"/>
-      <c r="H156" s="135">
-        <v>41757</v>
-      </c>
-      <c r="I156" s="136">
-        <v>1</v>
-      </c>
-      <c r="J156" s="159">
-        <v>671.6</v>
-      </c>
-      <c r="K156" s="159">
-        <v>696.88</v>
-      </c>
-      <c r="L156" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M156" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N156" s="159">
-        <v>449.64</v>
-      </c>
+      <c r="H156" s="161"/>
+      <c r="I156" s="164"/>
+      <c r="J156" s="163"/>
+      <c r="K156" s="163"/>
+      <c r="L156" s="163"/>
+      <c r="M156" s="163"/>
+      <c r="N156" s="163"/>
     </row>
     <row r="157" spans="2:14" customFormat="1" ht="16">
       <c r="B157" s="99"/>
-      <c r="H157" s="135">
-        <v>41743</v>
-      </c>
-      <c r="I157" s="136">
-        <v>1</v>
-      </c>
-      <c r="J157" s="159">
-        <v>654.25</v>
-      </c>
-      <c r="K157" s="159">
-        <v>687.79</v>
-      </c>
-      <c r="L157" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M157" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N157" s="159">
-        <v>453.77</v>
-      </c>
+      <c r="H157" s="161"/>
+      <c r="I157" s="164"/>
+      <c r="J157" s="163"/>
+      <c r="K157" s="163"/>
+      <c r="L157" s="163"/>
+      <c r="M157" s="163"/>
+      <c r="N157" s="163"/>
     </row>
     <row r="158" spans="2:14" customFormat="1" ht="16">
       <c r="B158" s="99"/>
-      <c r="H158" s="135">
-        <v>41736</v>
-      </c>
-      <c r="I158" s="136">
-        <v>1</v>
-      </c>
-      <c r="J158" s="159">
-        <v>645.16</v>
-      </c>
-      <c r="K158" s="159">
-        <v>687.79</v>
-      </c>
-      <c r="L158" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M158" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N158" s="159">
-        <v>450.47</v>
-      </c>
+      <c r="H158" s="161"/>
+      <c r="I158" s="164"/>
+      <c r="J158" s="163"/>
+      <c r="K158" s="163"/>
+      <c r="L158" s="163"/>
+      <c r="M158" s="163"/>
+      <c r="N158" s="163"/>
     </row>
     <row r="159" spans="2:14" customFormat="1" ht="16">
       <c r="B159" s="99"/>
-      <c r="H159" s="135">
-        <v>41729</v>
-      </c>
-      <c r="I159" s="136">
-        <v>1</v>
-      </c>
-      <c r="J159" s="159">
-        <v>628.63</v>
-      </c>
-      <c r="K159" s="159">
-        <v>681.18</v>
-      </c>
-      <c r="L159" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M159" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N159" s="159">
-        <v>452.95</v>
-      </c>
+      <c r="H159" s="161"/>
+      <c r="I159" s="164"/>
+      <c r="J159" s="163"/>
+      <c r="K159" s="163"/>
+      <c r="L159" s="163"/>
+      <c r="M159" s="163"/>
+      <c r="N159" s="163"/>
     </row>
     <row r="160" spans="2:14" customFormat="1" ht="16">
       <c r="B160" s="99"/>
-      <c r="H160" s="135">
-        <v>41722</v>
-      </c>
-      <c r="I160" s="136">
-        <v>1</v>
-      </c>
-      <c r="J160" s="159">
-        <v>612.92999999999995</v>
-      </c>
-      <c r="K160" s="159">
-        <v>672.92</v>
-      </c>
-      <c r="L160" s="159">
-        <v>364.65</v>
-      </c>
-      <c r="M160" s="159">
-        <v>465.17</v>
-      </c>
-      <c r="N160" s="159">
-        <v>458.73</v>
-      </c>
+      <c r="H160" s="161"/>
+      <c r="I160" s="164"/>
+      <c r="J160" s="163"/>
+      <c r="K160" s="163"/>
+      <c r="L160" s="163"/>
+      <c r="M160" s="163"/>
+      <c r="N160" s="163"/>
     </row>
     <row r="161" spans="2:14" customFormat="1" ht="16">
       <c r="B161" s="99"/>
-      <c r="H161" s="135">
-        <v>41715</v>
-      </c>
-      <c r="I161" s="136">
-        <v>1</v>
-      </c>
-      <c r="J161" s="159">
-        <v>622.02</v>
-      </c>
-      <c r="K161" s="159">
-        <v>680.36</v>
-      </c>
-      <c r="L161" s="159">
-        <v>367.96</v>
-      </c>
-      <c r="M161" s="159">
-        <v>462.17</v>
-      </c>
-      <c r="N161" s="159">
-        <v>462.04</v>
-      </c>
+      <c r="H161" s="161"/>
+      <c r="I161" s="164"/>
+      <c r="J161" s="163"/>
+      <c r="K161" s="163"/>
+      <c r="L161" s="163"/>
+      <c r="M161" s="163"/>
+      <c r="N161" s="163"/>
     </row>
     <row r="162" spans="2:14" customFormat="1" ht="16">
       <c r="B162" s="99"/>
-      <c r="H162" s="135">
-        <v>41708</v>
-      </c>
-      <c r="I162" s="136">
-        <v>1</v>
-      </c>
-      <c r="J162" s="159">
-        <v>635.24</v>
-      </c>
-      <c r="K162" s="159">
-        <v>691.93</v>
-      </c>
-      <c r="L162" s="159">
-        <v>380.36</v>
-      </c>
-      <c r="M162" s="159">
-        <v>467.17</v>
-      </c>
-      <c r="N162" s="159">
-        <v>469.48</v>
-      </c>
+      <c r="H162" s="161"/>
+      <c r="I162" s="164"/>
+      <c r="J162" s="163"/>
+      <c r="K162" s="163"/>
+      <c r="L162" s="163"/>
+      <c r="M162" s="163"/>
+      <c r="N162" s="163"/>
     </row>
     <row r="163" spans="2:14" customFormat="1" ht="16">
       <c r="B163" s="99"/>
-      <c r="H163" s="135">
-        <v>41701</v>
-      </c>
-      <c r="I163" s="136">
-        <v>1</v>
-      </c>
-      <c r="J163" s="159">
-        <v>641.02</v>
-      </c>
-      <c r="K163" s="159">
-        <v>701.84</v>
-      </c>
-      <c r="L163" s="159">
-        <v>385.31</v>
-      </c>
-      <c r="M163" s="159">
-        <v>461.17</v>
-      </c>
-      <c r="N163" s="159">
-        <v>474.44</v>
-      </c>
+      <c r="H163" s="161"/>
+      <c r="I163" s="164"/>
+      <c r="J163" s="163"/>
+      <c r="K163" s="163"/>
+      <c r="L163" s="163"/>
+      <c r="M163" s="163"/>
+      <c r="N163" s="163"/>
     </row>
     <row r="164" spans="2:14" customFormat="1" ht="16">
       <c r="B164" s="99"/>
-      <c r="H164" s="135">
-        <v>41694</v>
-      </c>
-      <c r="I164" s="136">
-        <v>1</v>
-      </c>
-      <c r="J164" s="159">
-        <v>641.85</v>
-      </c>
-      <c r="K164" s="159">
-        <v>705.98</v>
-      </c>
-      <c r="L164" s="159">
-        <v>389.45</v>
-      </c>
-      <c r="M164" s="159">
-        <v>462.17</v>
-      </c>
-      <c r="N164" s="159">
-        <v>475.26</v>
-      </c>
+      <c r="H164" s="161"/>
+      <c r="I164" s="164"/>
+      <c r="J164" s="163"/>
+      <c r="K164" s="163"/>
+      <c r="L164" s="163"/>
+      <c r="M164" s="163"/>
+      <c r="N164" s="163"/>
     </row>
     <row r="165" spans="2:14" customFormat="1" ht="16">
       <c r="B165" s="99"/>
-      <c r="H165" s="135">
-        <v>41687</v>
-      </c>
-      <c r="I165" s="136">
-        <v>1</v>
-      </c>
-      <c r="J165" s="159">
-        <v>636.89</v>
-      </c>
-      <c r="K165" s="159">
-        <v>703.5</v>
-      </c>
-      <c r="L165" s="159">
-        <v>386.14</v>
-      </c>
-      <c r="M165" s="159">
-        <v>456.17</v>
-      </c>
-      <c r="N165" s="159">
-        <v>483.53</v>
-      </c>
+      <c r="H165" s="161"/>
+      <c r="I165" s="164"/>
+      <c r="J165" s="163"/>
+      <c r="K165" s="163"/>
+      <c r="L165" s="163"/>
+      <c r="M165" s="163"/>
+      <c r="N165" s="163"/>
     </row>
     <row r="166" spans="2:14" customFormat="1" ht="16">
       <c r="B166" s="99"/>
-      <c r="H166" s="135">
-        <v>41680</v>
-      </c>
-      <c r="I166" s="136">
-        <v>1</v>
-      </c>
-      <c r="J166" s="159">
-        <v>626.97</v>
-      </c>
-      <c r="K166" s="159">
-        <v>695.23</v>
-      </c>
-      <c r="L166" s="159">
-        <v>383.66</v>
-      </c>
-      <c r="M166" s="159">
-        <v>449.17</v>
-      </c>
-      <c r="N166" s="159">
-        <v>498.4</v>
-      </c>
+      <c r="H166" s="161"/>
+      <c r="I166" s="164"/>
+      <c r="J166" s="163"/>
+      <c r="K166" s="163"/>
+      <c r="L166" s="163"/>
+      <c r="M166" s="163"/>
+      <c r="N166" s="163"/>
     </row>
     <row r="167" spans="2:14" customFormat="1" ht="16">
       <c r="B167" s="99"/>
-      <c r="H167" s="135">
-        <v>41673</v>
-      </c>
-      <c r="I167" s="136">
-        <v>1</v>
-      </c>
-      <c r="J167" s="159">
-        <v>625.32000000000005</v>
-      </c>
-      <c r="K167" s="159">
-        <v>694.41</v>
-      </c>
-      <c r="L167" s="159">
-        <v>386.97</v>
-      </c>
-      <c r="M167" s="159">
-        <v>443.17</v>
-      </c>
-      <c r="N167" s="159">
-        <v>496.75</v>
-      </c>
+      <c r="H167" s="161"/>
+      <c r="I167" s="164"/>
+      <c r="J167" s="163"/>
+      <c r="K167" s="163"/>
+      <c r="L167" s="163"/>
+      <c r="M167" s="163"/>
+      <c r="N167" s="163"/>
     </row>
     <row r="168" spans="2:14" customFormat="1" ht="16">
       <c r="B168" s="99"/>
-      <c r="H168" s="135">
-        <v>41666</v>
-      </c>
-      <c r="I168" s="136">
-        <v>1</v>
-      </c>
-      <c r="J168" s="159">
-        <v>626.97</v>
-      </c>
-      <c r="K168" s="159">
-        <v>693.58</v>
-      </c>
-      <c r="L168" s="159">
-        <v>386.14</v>
-      </c>
-      <c r="M168" s="159">
-        <v>432.17</v>
-      </c>
-      <c r="N168" s="159">
-        <v>498.4</v>
-      </c>
+      <c r="H168" s="161"/>
+      <c r="I168" s="164"/>
+      <c r="J168" s="163"/>
+      <c r="K168" s="163"/>
+      <c r="L168" s="163"/>
+      <c r="M168" s="163"/>
+      <c r="N168" s="163"/>
     </row>
     <row r="169" spans="2:14" customFormat="1" ht="16">
       <c r="B169" s="99"/>
-      <c r="H169" s="135">
-        <v>41659</v>
-      </c>
-      <c r="I169" s="136">
-        <v>1</v>
-      </c>
-      <c r="J169" s="159">
-        <v>624.5</v>
-      </c>
-      <c r="K169" s="159">
-        <v>692.75</v>
-      </c>
-      <c r="L169" s="159">
-        <v>381.18</v>
-      </c>
-      <c r="M169" s="159">
-        <v>430.17</v>
-      </c>
-      <c r="N169" s="159">
-        <v>498.4</v>
-      </c>
+      <c r="H169" s="161"/>
+      <c r="I169" s="164"/>
+      <c r="J169" s="163"/>
+      <c r="K169" s="163"/>
+      <c r="L169" s="163"/>
+      <c r="M169" s="163"/>
+      <c r="N169" s="163"/>
     </row>
     <row r="170" spans="2:14" customFormat="1" ht="16">
       <c r="B170" s="99"/>
-      <c r="H170" s="135">
-        <v>41652</v>
-      </c>
-      <c r="I170" s="136">
-        <v>1</v>
-      </c>
-      <c r="J170" s="159">
-        <v>631.11</v>
-      </c>
-      <c r="K170" s="159">
-        <v>701.84</v>
-      </c>
-      <c r="L170" s="159">
-        <v>381.18</v>
-      </c>
-      <c r="M170" s="159">
-        <v>432.17</v>
-      </c>
-      <c r="N170" s="159">
-        <v>500.06</v>
-      </c>
+      <c r="H170" s="161"/>
+      <c r="I170" s="164"/>
+      <c r="J170" s="163"/>
+      <c r="K170" s="163"/>
+      <c r="L170" s="163"/>
+      <c r="M170" s="163"/>
+      <c r="N170" s="163"/>
     </row>
     <row r="171" spans="2:14" customFormat="1" ht="16">
       <c r="B171" s="99"/>
-      <c r="H171" s="135">
-        <v>41645</v>
-      </c>
-      <c r="I171" s="136">
-        <v>1</v>
-      </c>
-      <c r="J171" s="159">
-        <v>633.59</v>
-      </c>
-      <c r="K171" s="159">
-        <v>704.32</v>
-      </c>
-      <c r="L171" s="159">
-        <v>356.39</v>
-      </c>
-      <c r="M171" s="159">
-        <v>434.17</v>
-      </c>
-      <c r="N171" s="159">
-        <v>501.71</v>
-      </c>
+      <c r="H171" s="161"/>
+      <c r="I171" s="164"/>
+      <c r="J171" s="163"/>
+      <c r="K171" s="163"/>
+      <c r="L171" s="163"/>
+      <c r="M171" s="163"/>
+      <c r="N171" s="163"/>
     </row>
     <row r="172" spans="2:14" customFormat="1" ht="16">
       <c r="B172" s="99"/>

--- a/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
+++ b/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="43680" yWindow="-3380" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -357,9 +365,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
-  </si>
-  <si>
     <t>Not used in the ETM, as this calculates CO2 for primary carriers</t>
   </si>
   <si>
@@ -367,6 +372,11 @@
   </si>
   <si>
     <t>Calculate monthly averages</t>
+  </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +393,7 @@
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -592,11 +602,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Lettertype hoofdtekst"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1613,7 +1618,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1626,6 +1631,36 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="37" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="29" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1653,36 +1688,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="37" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="38" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -2027,80 +2032,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2191,7 +2131,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2304,11 +2244,12 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2316,6 +2257,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2648,33 +2590,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>95</v>
@@ -2683,7 +2625,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
@@ -2692,7 +2634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -2701,17 +2643,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="75" t="s">
         <v>14</v>
@@ -2719,13 +2661,13 @@
       <c r="C9" s="76"/>
       <c r="D9" s="137"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
       <c r="D10" s="138"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="77" t="s">
         <v>15</v>
@@ -2735,7 +2677,7 @@
       </c>
       <c r="D11" s="138"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="77"/>
       <c r="C12" s="18" t="s">
@@ -2743,7 +2685,7 @@
       </c>
       <c r="D12" s="138"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
@@ -2751,7 +2693,7 @@
       </c>
       <c r="D13" s="138"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
@@ -2759,13 +2701,13 @@
       </c>
       <c r="D14" s="138"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
       <c r="D15" s="138"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="77" t="s">
         <v>20</v>
@@ -2775,7 +2717,7 @@
       </c>
       <c r="D16" s="138"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
@@ -2783,7 +2725,7 @@
       </c>
       <c r="D17" s="138"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
@@ -2791,7 +2733,7 @@
       </c>
       <c r="D18" s="138"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
@@ -2799,7 +2741,7 @@
       </c>
       <c r="D19" s="138"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
@@ -2807,7 +2749,7 @@
       </c>
       <c r="D20" s="138"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
@@ -2815,7 +2757,7 @@
       </c>
       <c r="D21" s="138"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
@@ -2823,14 +2765,14 @@
       </c>
       <c r="D22" s="138"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="138"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="139"/>
       <c r="C24" s="140"/>
       <c r="D24" s="141"/>
@@ -2838,74 +2780,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="146" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="156" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154"/>
+    <row r="4" spans="2:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -2916,7 +2855,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="90"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -2937,7 +2876,7 @@
       </c>
       <c r="J7" s="92"/>
     </row>
-    <row r="8" spans="2:10" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -2948,7 +2887,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="136" t="s">
         <v>96</v>
@@ -2961,7 +2900,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="97" t="s">
         <v>36</v>
@@ -2983,7 +2922,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="103" t="s">
         <v>37</v>
@@ -3003,7 +2942,7 @@
       </c>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="103" t="s">
         <v>93</v>
@@ -3023,10 +2962,10 @@
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="143" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>59</v>
@@ -3043,7 +2982,7 @@
       </c>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="2:10" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="34" t="s">
         <v>38</v>
@@ -3063,7 +3002,7 @@
       </c>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -3080,43 +3019,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3131,30 +3033,29 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="66" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
     <col min="17" max="17" width="60" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="65"/>
+    <col min="18" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -3172,7 +3073,7 @@
       <c r="P2" s="69"/>
       <c r="Q2" s="70"/>
     </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+    <row r="3" spans="2:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="96" t="s">
         <v>29</v>
@@ -3206,7 +3107,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -3224,7 +3125,7 @@
       <c r="P4" s="95"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71"/>
       <c r="C5" s="18" t="s">
         <v>45</v>
@@ -3244,7 +3145,7 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="106" t="s">
         <v>36</v>
@@ -3272,7 +3173,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="107" t="s">
         <v>37</v>
@@ -3306,7 +3207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="135" t="s">
         <v>93</v>
@@ -3338,10 +3239,10 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="117"/>
     </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -3366,7 +3267,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="108" t="s">
         <v>38</v>
@@ -3397,10 +3298,10 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="142" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="120"/>
       <c r="C11" s="121"/>
       <c r="D11" s="121"/>
@@ -3421,11 +3322,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3438,23 +3334,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="45"/>
+    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3467,7 +3363,7 @@
       <c r="K2" s="49"/>
       <c r="L2" s="48"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>10</v>
@@ -3482,7 +3378,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3495,7 +3391,7 @@
       <c r="K4" s="54"/>
       <c r="L4" s="53"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>12</v>
@@ -3524,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -3537,7 +3433,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="2:12" ht="16">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="116" t="s">
         <v>93</v>
@@ -3564,7 +3460,7 @@
       </c>
       <c r="L7" s="113"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="116" t="s">
         <v>38</v>
@@ -3578,7 +3474,7 @@
       <c r="J8" s="54"/>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="116" t="s">
         <v>63</v>
@@ -3592,7 +3488,7 @@
       <c r="K9" s="54"/>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="116"/>
       <c r="D10" s="59"/>
@@ -3605,7 +3501,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:12" ht="16">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="116" t="s">
         <v>37</v>
@@ -3632,13 +3528,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
     </row>
   </sheetData>
@@ -3647,11 +3543,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3663,19 +3554,19 @@
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
     <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="98"/>
-    <col min="8" max="8" width="8.875" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="24" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="101"/>
       <c r="C2" s="102" t="s">
         <v>24</v>
@@ -3703,7 +3594,7 @@
       <c r="T2" s="102"/>
       <c r="U2" s="102"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="99"/>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -3725,7 +3616,7 @@
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="99"/>
       <c r="C4" s="109" t="s">
         <v>48</v>
@@ -3753,7 +3644,7 @@
       <c r="X4" s="109"/>
       <c r="Y4" s="109"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="99"/>
       <c r="C5" s="109"/>
       <c r="D5" s="109"/>
@@ -3779,7 +3670,7 @@
       <c r="X5" s="109"/>
       <c r="Y5" s="109"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="99"/>
       <c r="C6" s="109"/>
       <c r="D6" s="109"/>
@@ -3805,7 +3696,7 @@
       <c r="X6" s="109"/>
       <c r="Y6" s="109"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99"/>
       <c r="C7" s="109"/>
       <c r="D7" s="109"/>
@@ -3831,7 +3722,7 @@
       <c r="X7" s="109"/>
       <c r="Y7" s="109"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="99"/>
       <c r="C8" s="109"/>
       <c r="D8" s="109">
@@ -3867,7 +3758,7 @@
       <c r="X8" s="109"/>
       <c r="Y8" s="109"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="99"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
@@ -3898,7 +3789,7 @@
       <c r="X9" s="109"/>
       <c r="Y9" s="109"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="99"/>
       <c r="C10" s="109"/>
       <c r="D10" s="109"/>
@@ -3930,7 +3821,7 @@
       <c r="X10" s="109"/>
       <c r="Y10" s="109"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="99"/>
       <c r="C11" s="109"/>
       <c r="D11" s="109"/>
@@ -3962,7 +3853,7 @@
       <c r="X11" s="109"/>
       <c r="Y11" s="109"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="99"/>
       <c r="C12" s="109"/>
       <c r="D12" s="109"/>
@@ -3994,7 +3885,7 @@
       <c r="X12" s="109"/>
       <c r="Y12" s="109"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="99"/>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
@@ -4020,7 +3911,7 @@
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="99"/>
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
@@ -4054,7 +3945,7 @@
       <c r="X14" s="109"/>
       <c r="Y14" s="109"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="99"/>
       <c r="C15" s="109"/>
       <c r="D15" s="109"/>
@@ -4085,7 +3976,7 @@
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="99"/>
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
@@ -4117,7 +4008,7 @@
       <c r="X16" s="109"/>
       <c r="Y16" s="109"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="99"/>
       <c r="C17" s="109"/>
       <c r="D17" s="109"/>
@@ -4149,7 +4040,7 @@
       <c r="X17" s="109"/>
       <c r="Y17" s="109"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="99"/>
       <c r="C18" s="109"/>
       <c r="D18" s="109"/>
@@ -4181,7 +4072,7 @@
       <c r="X18" s="109"/>
       <c r="Y18" s="109"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="99"/>
       <c r="C19" s="109"/>
       <c r="D19" s="109"/>
@@ -4207,7 +4098,7 @@
       <c r="X19" s="109"/>
       <c r="Y19" s="109"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="99"/>
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
@@ -4235,7 +4126,7 @@
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="99"/>
       <c r="C21" s="109"/>
       <c r="D21" s="109"/>
@@ -4267,7 +4158,7 @@
       <c r="X21" s="109"/>
       <c r="Y21" s="109"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="99"/>
       <c r="C22" s="109"/>
       <c r="D22" s="109"/>
@@ -4300,7 +4191,7 @@
       <c r="X22" s="109"/>
       <c r="Y22" s="109"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="99"/>
       <c r="C23" s="109"/>
       <c r="D23" s="109"/>
@@ -4333,7 +4224,7 @@
       <c r="X23" s="109"/>
       <c r="Y23" s="109"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="99"/>
       <c r="C24" s="109"/>
       <c r="D24" s="109"/>
@@ -4365,7 +4256,7 @@
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="99"/>
       <c r="C25" s="109"/>
       <c r="D25" s="109"/>
@@ -4391,7 +4282,7 @@
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="99"/>
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
@@ -4425,7 +4316,7 @@
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="99"/>
       <c r="C27" s="109"/>
       <c r="D27" s="109"/>
@@ -4457,7 +4348,7 @@
       <c r="X27" s="109"/>
       <c r="Y27" s="109"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="99"/>
       <c r="C28" s="109"/>
       <c r="D28" s="109"/>
@@ -4490,7 +4381,7 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="99"/>
       <c r="F29" s="133">
         <f>F27*F28</f>
@@ -4503,7 +4394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="99"/>
       <c r="F30" s="133">
         <v>8.0600000000000005E-2</v>
@@ -4515,100 +4406,100 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="99"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="99"/>
     </row>
-    <row r="33" spans="2:6" customFormat="1" ht="16">
+    <row r="33" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="99"/>
     </row>
-    <row r="34" spans="2:6" customFormat="1" ht="16">
+    <row r="34" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="99"/>
     </row>
-    <row r="35" spans="2:6" customFormat="1" ht="16">
+    <row r="35" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="F35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:6" customFormat="1" ht="16">
+    <row r="36" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="99"/>
     </row>
-    <row r="37" spans="2:6" customFormat="1" ht="16">
+    <row r="37" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="99"/>
     </row>
-    <row r="38" spans="2:6" customFormat="1" ht="16">
+    <row r="38" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="99"/>
     </row>
-    <row r="39" spans="2:6" customFormat="1" ht="16">
+    <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="99"/>
     </row>
-    <row r="40" spans="2:6" customFormat="1" ht="16">
+    <row r="40" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="99"/>
     </row>
-    <row r="41" spans="2:6" customFormat="1" ht="16">
+    <row r="41" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="99"/>
     </row>
-    <row r="42" spans="2:6" customFormat="1" ht="16">
+    <row r="42" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="99"/>
     </row>
-    <row r="43" spans="2:6" customFormat="1" ht="16">
+    <row r="43" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="99"/>
     </row>
-    <row r="44" spans="2:6" customFormat="1" ht="16">
+    <row r="44" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="99"/>
     </row>
-    <row r="45" spans="2:6" customFormat="1" ht="16">
+    <row r="45" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="99"/>
     </row>
-    <row r="46" spans="2:6" customFormat="1" ht="16">
+    <row r="46" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99"/>
     </row>
-    <row r="47" spans="2:6" customFormat="1" ht="16">
+    <row r="47" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="99"/>
     </row>
-    <row r="48" spans="2:6" customFormat="1" ht="16">
+    <row r="48" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" ht="16">
+    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" ht="16">
+    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" ht="16">
+    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="99"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" ht="16">
+    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="99"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" ht="16">
+    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="99"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" ht="16">
+    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="99"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" ht="16">
+    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="99"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" ht="16">
+    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="99"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" ht="16">
+    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="99"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" ht="16">
+    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="99"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" ht="16">
+    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="99"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="60" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="99"/>
     </row>
-    <row r="61" spans="2:25" s="24" customFormat="1">
+    <row r="61" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="102"/>
       <c r="C61" s="102" t="s">
         <v>24</v>
@@ -4636,7 +4527,7 @@
       <c r="T61" s="102"/>
       <c r="U61" s="102"/>
     </row>
-    <row r="62" spans="2:25" customFormat="1" ht="16">
+    <row r="62" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="99"/>
       <c r="C62" s="109"/>
       <c r="D62" s="109"/>
@@ -4662,28 +4553,28 @@
       <c r="X62" s="109"/>
       <c r="Y62" s="109"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" ht="16">
+    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="99"/>
       <c r="C63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="2:25" customFormat="1" ht="16">
+    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="99"/>
     </row>
-    <row r="65" spans="2:6" customFormat="1" ht="16">
+    <row r="65" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="99"/>
     </row>
-    <row r="66" spans="2:6" customFormat="1" ht="16">
+    <row r="66" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="99"/>
     </row>
-    <row r="67" spans="2:6" customFormat="1" ht="16">
+    <row r="67" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="99"/>
     </row>
-    <row r="68" spans="2:6" customFormat="1" ht="16">
+    <row r="68" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="99"/>
     </row>
-    <row r="69" spans="2:6" customFormat="1" ht="16">
+    <row r="69" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="99"/>
       <c r="E69">
         <v>0.52400000000000002</v>
@@ -4692,52 +4583,52 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="2:6" customFormat="1" ht="16">
+    <row r="70" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="99"/>
     </row>
-    <row r="71" spans="2:6" customFormat="1" ht="16">
+    <row r="71" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="99"/>
     </row>
-    <row r="72" spans="2:6" customFormat="1" ht="16">
+    <row r="72" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="99"/>
     </row>
-    <row r="73" spans="2:6" customFormat="1" ht="16">
+    <row r="73" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="99"/>
     </row>
-    <row r="74" spans="2:6" customFormat="1" ht="16">
+    <row r="74" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="99"/>
     </row>
-    <row r="75" spans="2:6" customFormat="1" ht="16">
+    <row r="75" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="99"/>
     </row>
-    <row r="76" spans="2:6" customFormat="1" ht="16">
+    <row r="76" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="99"/>
     </row>
-    <row r="77" spans="2:6" customFormat="1" ht="16">
+    <row r="77" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="99"/>
     </row>
-    <row r="78" spans="2:6" customFormat="1" ht="16">
+    <row r="78" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="99"/>
     </row>
-    <row r="79" spans="2:6" customFormat="1" ht="16">
+    <row r="79" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="99"/>
     </row>
-    <row r="80" spans="2:6" customFormat="1" ht="16">
+    <row r="80" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="99"/>
     </row>
-    <row r="81" spans="2:25" customFormat="1" ht="16">
+    <row r="81" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="99"/>
     </row>
-    <row r="82" spans="2:25" customFormat="1" ht="16">
+    <row r="82" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="99"/>
     </row>
-    <row r="83" spans="2:25" customFormat="1" ht="16">
+    <row r="83" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="99"/>
     </row>
-    <row r="84" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="84" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="99"/>
     </row>
-    <row r="85" spans="2:25" s="24" customFormat="1">
+    <row r="85" spans="2:25" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="102"/>
       <c r="C85" s="102" t="s">
         <v>24</v>
@@ -4765,7 +4656,7 @@
       <c r="T85" s="102"/>
       <c r="U85" s="102"/>
     </row>
-    <row r="86" spans="2:25" customFormat="1" ht="16">
+    <row r="86" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="99"/>
       <c r="C86" s="109"/>
       <c r="D86" s="109"/>
@@ -4791,7 +4682,7 @@
       <c r="X86" s="109"/>
       <c r="Y86" s="109"/>
     </row>
-    <row r="87" spans="2:25" customFormat="1" ht="16">
+    <row r="87" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="99"/>
       <c r="C87" s="129" t="s">
         <v>71</v>
@@ -4819,7 +4710,7 @@
       <c r="X87" s="109"/>
       <c r="Y87" s="109"/>
     </row>
-    <row r="88" spans="2:25" customFormat="1" ht="16">
+    <row r="88" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="99"/>
       <c r="C88" s="127" t="s">
         <v>65</v>
@@ -4847,7 +4738,7 @@
       <c r="X88" s="109"/>
       <c r="Y88" s="109"/>
     </row>
-    <row r="89" spans="2:25" customFormat="1" ht="16">
+    <row r="89" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="99"/>
       <c r="C89" s="109"/>
       <c r="E89" s="109"/>
@@ -4872,11 +4763,11 @@
       <c r="X89" s="109"/>
       <c r="Y89" s="109"/>
     </row>
-    <row r="90" spans="2:25" customFormat="1" ht="16">
+    <row r="90" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="99"/>
       <c r="C90" s="109"/>
       <c r="D90" s="109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="109"/>
       <c r="F90" s="109"/>
@@ -4900,7 +4791,7 @@
       <c r="X90" s="109"/>
       <c r="Y90" s="109"/>
     </row>
-    <row r="91" spans="2:25" customFormat="1" ht="50">
+    <row r="91" spans="2:25" customFormat="1" ht="66" x14ac:dyDescent="0.2">
       <c r="B91" s="99"/>
       <c r="C91" s="109"/>
       <c r="D91" s="130" t="s">
@@ -4908,25 +4799,25 @@
       </c>
       <c r="F91" s="109"/>
       <c r="G91" s="109"/>
-      <c r="H91" s="155" t="s">
+      <c r="H91" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="I91" s="156" t="s">
+      <c r="I91" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="157" t="s">
+      <c r="J91" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="K91" s="157" t="s">
+      <c r="K91" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="L91" s="157" t="s">
+      <c r="L91" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="M91" s="157" t="s">
+      <c r="M91" s="148" t="s">
         <v>77</v>
       </c>
-      <c r="N91" s="157" t="s">
+      <c r="N91" s="148" t="s">
         <v>78</v>
       </c>
       <c r="O91" s="109"/>
@@ -4941,27 +4832,27 @@
       <c r="X91" s="109"/>
       <c r="Y91" s="109"/>
     </row>
-    <row r="92" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="92" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="99"/>
       <c r="C92" s="109"/>
       <c r="D92" s="109"/>
       <c r="F92" s="109"/>
       <c r="G92" s="109"/>
-      <c r="H92" s="158"/>
-      <c r="I92" s="159"/>
-      <c r="J92" s="160" t="s">
+      <c r="H92" s="149"/>
+      <c r="I92" s="150"/>
+      <c r="J92" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="K92" s="160" t="s">
+      <c r="K92" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="L92" s="160" t="s">
+      <c r="L92" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="M92" s="160" t="s">
+      <c r="M92" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="N92" s="160" t="s">
+      <c r="N92" s="151" t="s">
         <v>79</v>
       </c>
       <c r="O92" s="109"/>
@@ -4976,7 +4867,7 @@
       <c r="X92" s="109"/>
       <c r="Y92" s="109"/>
     </row>
-    <row r="93" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="93" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="99"/>
       <c r="C93" s="109"/>
       <c r="D93" s="109"/>
@@ -4990,25 +4881,25 @@
       <c r="G93" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H93" s="161">
+      <c r="H93" s="152">
         <v>42408</v>
       </c>
-      <c r="I93" s="162">
+      <c r="I93" s="153">
         <v>1</v>
       </c>
-      <c r="J93" s="163">
+      <c r="J93" s="154">
         <v>395.65</v>
       </c>
-      <c r="K93" s="163">
+      <c r="K93" s="154">
         <v>371.99</v>
       </c>
-      <c r="L93" s="163">
+      <c r="L93" s="154">
         <v>192.65</v>
       </c>
-      <c r="M93" s="163">
+      <c r="M93" s="154">
         <v>358.67</v>
       </c>
-      <c r="N93" s="163">
+      <c r="N93" s="154">
         <v>277.56</v>
       </c>
       <c r="O93" s="109"/>
@@ -5023,7 +4914,7 @@
       <c r="X93" s="109"/>
       <c r="Y93" s="109"/>
     </row>
-    <row r="94" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="94" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="99"/>
       <c r="C94" s="109"/>
       <c r="D94" s="109"/>
@@ -5037,25 +4928,25 @@
       <c r="G94" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H94" s="161">
+      <c r="H94" s="152">
         <v>42401</v>
       </c>
-      <c r="I94" s="162">
+      <c r="I94" s="153">
         <v>1</v>
       </c>
-      <c r="J94" s="163">
+      <c r="J94" s="154">
         <v>399.79</v>
       </c>
-      <c r="K94" s="163">
+      <c r="K94" s="154">
         <v>362.08</v>
       </c>
-      <c r="L94" s="163">
+      <c r="L94" s="154">
         <v>200.09</v>
       </c>
-      <c r="M94" s="163">
+      <c r="M94" s="154">
         <v>363.67</v>
       </c>
-      <c r="N94" s="163">
+      <c r="N94" s="154">
         <v>285.82</v>
       </c>
       <c r="O94" s="109"/>
@@ -5070,7 +4961,7 @@
       <c r="X94" s="109"/>
       <c r="Y94" s="109"/>
     </row>
-    <row r="95" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="95" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="99"/>
       <c r="C95" s="109"/>
       <c r="D95" s="109"/>
@@ -5084,25 +4975,25 @@
       <c r="G95" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H95" s="161">
+      <c r="H95" s="152">
         <v>42394</v>
       </c>
-      <c r="I95" s="162">
+      <c r="I95" s="153">
         <v>1</v>
       </c>
-      <c r="J95" s="163">
+      <c r="J95" s="154">
         <v>393.17</v>
       </c>
-      <c r="K95" s="163">
+      <c r="K95" s="154">
         <v>355.46</v>
       </c>
-      <c r="L95" s="163">
+      <c r="L95" s="154">
         <v>187.7</v>
       </c>
-      <c r="M95" s="163">
+      <c r="M95" s="154">
         <v>341.67</v>
       </c>
-      <c r="N95" s="163">
+      <c r="N95" s="154">
         <v>287.48</v>
       </c>
       <c r="O95" s="109"/>
@@ -5117,7 +5008,7 @@
       <c r="X95" s="109"/>
       <c r="Y95" s="109"/>
     </row>
-    <row r="96" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="96" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="99"/>
       <c r="C96" s="109"/>
       <c r="D96" s="109"/>
@@ -5131,25 +5022,25 @@
       <c r="G96" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="H96" s="161">
+      <c r="H96" s="152">
         <v>42387</v>
       </c>
-      <c r="I96" s="162">
+      <c r="I96" s="153">
         <v>1</v>
       </c>
-      <c r="J96" s="163">
+      <c r="J96" s="154">
         <v>402.27</v>
       </c>
-      <c r="K96" s="163">
+      <c r="K96" s="154">
         <v>373.65</v>
       </c>
-      <c r="L96" s="163">
+      <c r="L96" s="154">
         <v>162.08000000000001</v>
       </c>
-      <c r="M96" s="163">
+      <c r="M96" s="154">
         <v>335.67</v>
       </c>
-      <c r="N96" s="163">
+      <c r="N96" s="154">
         <v>307.31</v>
       </c>
       <c r="O96" s="109"/>
@@ -5164,32 +5055,32 @@
       <c r="X96" s="109"/>
       <c r="Y96" s="109"/>
     </row>
-    <row r="97" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="97" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="99"/>
       <c r="C97" s="109"/>
       <c r="D97" s="109"/>
       <c r="E97" s="98"/>
       <c r="F97" s="98"/>
       <c r="G97" s="98"/>
-      <c r="H97" s="161">
+      <c r="H97" s="152">
         <v>42380</v>
       </c>
-      <c r="I97" s="162">
+      <c r="I97" s="153">
         <v>1</v>
       </c>
-      <c r="J97" s="163">
+      <c r="J97" s="154">
         <v>417.14</v>
       </c>
-      <c r="K97" s="163">
+      <c r="K97" s="154">
         <v>391.83</v>
       </c>
-      <c r="L97" s="163">
+      <c r="L97" s="154">
         <v>181.08</v>
       </c>
-      <c r="M97" s="163">
+      <c r="M97" s="154">
         <v>362.67</v>
       </c>
-      <c r="N97" s="163">
+      <c r="N97" s="154">
         <v>302.35000000000002</v>
       </c>
       <c r="O97" s="109"/>
@@ -5204,7 +5095,7 @@
       <c r="X97" s="109"/>
       <c r="Y97" s="109"/>
     </row>
-    <row r="98" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="98" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="99"/>
       <c r="C98" s="109"/>
       <c r="D98" s="109"/>
@@ -5218,25 +5109,25 @@
       <c r="G98" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H98" s="161">
+      <c r="H98" s="152">
         <v>42373</v>
       </c>
-      <c r="I98" s="162">
+      <c r="I98" s="153">
         <v>1</v>
       </c>
-      <c r="J98" s="163">
+      <c r="J98" s="154">
         <v>412.18</v>
       </c>
-      <c r="K98" s="163">
+      <c r="K98" s="154">
         <v>391.83</v>
       </c>
-      <c r="L98" s="163">
+      <c r="L98" s="154">
         <v>181.91</v>
       </c>
-      <c r="M98" s="163">
+      <c r="M98" s="154">
         <v>382.67</v>
       </c>
-      <c r="N98" s="163">
+      <c r="N98" s="154">
         <v>303.18</v>
       </c>
       <c r="O98" s="109"/>
@@ -5251,7 +5142,7 @@
       <c r="X98" s="109"/>
       <c r="Y98" s="109"/>
     </row>
-    <row r="99" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="99" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="99"/>
       <c r="C99" s="109"/>
       <c r="D99" s="109"/>
@@ -5265,25 +5156,25 @@
       <c r="G99" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H99" s="161">
+      <c r="H99" s="152">
         <v>42352</v>
       </c>
-      <c r="I99" s="162">
+      <c r="I99" s="153">
         <v>1</v>
       </c>
-      <c r="J99" s="163">
+      <c r="J99" s="154">
         <v>435.02</v>
       </c>
-      <c r="K99" s="163">
+      <c r="K99" s="154">
         <v>444.65</v>
       </c>
-      <c r="L99" s="163">
+      <c r="L99" s="154">
         <v>360.35</v>
       </c>
-      <c r="M99" s="163">
+      <c r="M99" s="154">
         <v>464.85</v>
       </c>
-      <c r="N99" s="163">
+      <c r="N99" s="154">
         <v>318.95999999999998</v>
       </c>
       <c r="O99" s="109"/>
@@ -5298,7 +5189,7 @@
       <c r="X99" s="109"/>
       <c r="Y99" s="109"/>
     </row>
-    <row r="100" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="100" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="99"/>
       <c r="C100" s="109"/>
       <c r="D100" s="109"/>
@@ -5312,25 +5203,25 @@
       <c r="G100" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="H100" s="161">
+      <c r="H100" s="152">
         <v>42345</v>
       </c>
-      <c r="I100" s="162">
+      <c r="I100" s="153">
         <v>1</v>
       </c>
-      <c r="J100" s="163">
+      <c r="J100" s="154">
         <v>452.38</v>
       </c>
-      <c r="K100" s="163">
+      <c r="K100" s="154">
         <v>467.79</v>
       </c>
-      <c r="L100" s="163">
+      <c r="L100" s="154">
         <v>360.35</v>
       </c>
-      <c r="M100" s="163">
+      <c r="M100" s="154">
         <v>464.85</v>
       </c>
-      <c r="N100" s="163">
+      <c r="N100" s="154">
         <v>323.91000000000003</v>
       </c>
       <c r="O100" s="109"/>
@@ -5345,7 +5236,7 @@
       <c r="X100" s="109"/>
       <c r="Y100" s="109"/>
     </row>
-    <row r="101" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="101" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="99"/>
       <c r="C101" s="109"/>
       <c r="D101" s="109"/>
@@ -5354,25 +5245,25 @@
       </c>
       <c r="F101" s="131"/>
       <c r="G101" s="109"/>
-      <c r="H101" s="161">
+      <c r="H101" s="152">
         <v>42338</v>
       </c>
-      <c r="I101" s="162">
+      <c r="I101" s="153">
         <v>1</v>
       </c>
-      <c r="J101" s="163">
+      <c r="J101" s="154">
         <v>459.81</v>
       </c>
-      <c r="K101" s="163">
+      <c r="K101" s="154">
         <v>486.8</v>
       </c>
-      <c r="L101" s="163">
+      <c r="L101" s="154">
         <v>360.35</v>
       </c>
-      <c r="M101" s="163">
+      <c r="M101" s="154">
         <v>464.85</v>
       </c>
-      <c r="N101" s="163">
+      <c r="N101" s="154">
         <v>321.44</v>
       </c>
       <c r="O101" s="109"/>
@@ -5387,32 +5278,32 @@
       <c r="X101" s="109"/>
       <c r="Y101" s="109"/>
     </row>
-    <row r="102" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="102" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="99"/>
       <c r="C102" s="109"/>
       <c r="D102" s="109"/>
       <c r="E102" s="109"/>
       <c r="F102" s="109"/>
       <c r="G102" s="109"/>
-      <c r="H102" s="161">
+      <c r="H102" s="152">
         <v>42331</v>
       </c>
-      <c r="I102" s="162">
+      <c r="I102" s="153">
         <v>1</v>
       </c>
-      <c r="J102" s="163">
+      <c r="J102" s="154">
         <v>469.73</v>
       </c>
-      <c r="K102" s="163">
+      <c r="K102" s="154">
         <v>491.76</v>
       </c>
-      <c r="L102" s="163">
+      <c r="L102" s="154">
         <v>360.35</v>
       </c>
-      <c r="M102" s="163">
+      <c r="M102" s="154">
         <v>464.85</v>
       </c>
-      <c r="N102" s="163">
+      <c r="N102" s="154">
         <v>323.91000000000003</v>
       </c>
       <c r="O102" s="109"/>
@@ -5427,7 +5318,7 @@
       <c r="X102" s="109"/>
       <c r="Y102" s="109"/>
     </row>
-    <row r="103" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="103" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="99"/>
       <c r="C103" s="109"/>
       <c r="D103" s="109"/>
@@ -5441,25 +5332,25 @@
       <c r="G103" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="161">
+      <c r="H103" s="152">
         <v>42324</v>
       </c>
-      <c r="I103" s="162">
+      <c r="I103" s="153">
         <v>1</v>
       </c>
-      <c r="J103" s="163">
+      <c r="J103" s="154">
         <v>492.87</v>
       </c>
-      <c r="K103" s="163">
+      <c r="K103" s="154">
         <v>506.63</v>
       </c>
-      <c r="L103" s="163">
+      <c r="L103" s="154">
         <v>360.35</v>
       </c>
-      <c r="M103" s="163">
+      <c r="M103" s="154">
         <v>464.85</v>
       </c>
-      <c r="N103" s="163">
+      <c r="N103" s="154">
         <v>323.08999999999997</v>
       </c>
       <c r="O103" s="109"/>
@@ -5474,7 +5365,7 @@
       <c r="X103" s="109"/>
       <c r="Y103" s="109"/>
     </row>
-    <row r="104" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="104" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="99"/>
       <c r="C104" s="109"/>
       <c r="D104" s="109"/>
@@ -5488,25 +5379,25 @@
       <c r="G104" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H104" s="161">
+      <c r="H104" s="152">
         <v>42317</v>
       </c>
-      <c r="I104" s="162">
+      <c r="I104" s="153">
         <v>1</v>
       </c>
-      <c r="J104" s="163">
+      <c r="J104" s="154">
         <v>478</v>
       </c>
-      <c r="K104" s="163">
+      <c r="K104" s="154">
         <v>503.33</v>
       </c>
-      <c r="L104" s="163">
+      <c r="L104" s="154">
         <v>360.35</v>
       </c>
-      <c r="M104" s="163">
+      <c r="M104" s="154">
         <v>464.85</v>
       </c>
-      <c r="N104" s="163">
+      <c r="N104" s="154">
         <v>319.77999999999997</v>
       </c>
       <c r="O104" s="109"/>
@@ -5521,7 +5412,7 @@
       <c r="X104" s="109"/>
       <c r="Y104" s="109"/>
     </row>
-    <row r="105" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="105" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="99"/>
       <c r="C105" s="109"/>
       <c r="D105" s="109"/>
@@ -5535,25 +5426,25 @@
       <c r="G105" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H105" s="161">
+      <c r="H105" s="152">
         <v>42310</v>
       </c>
-      <c r="I105" s="162">
+      <c r="I105" s="153">
         <v>1</v>
       </c>
-      <c r="J105" s="163">
+      <c r="J105" s="154">
         <v>449.07</v>
       </c>
-      <c r="K105" s="163">
+      <c r="K105" s="154">
         <v>481.01</v>
       </c>
-      <c r="L105" s="163">
+      <c r="L105" s="154">
         <v>360.35</v>
       </c>
-      <c r="M105" s="163">
+      <c r="M105" s="154">
         <v>464.85</v>
       </c>
-      <c r="N105" s="163">
+      <c r="N105" s="154">
         <v>308.20999999999998</v>
       </c>
       <c r="O105" s="109"/>
@@ -5568,7 +5459,7 @@
       <c r="X105" s="109"/>
       <c r="Y105" s="109"/>
     </row>
-    <row r="106" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="106" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="99"/>
       <c r="C106" s="109"/>
       <c r="D106" s="109"/>
@@ -5582,25 +5473,25 @@
       <c r="G106" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="H106" s="161">
+      <c r="H106" s="152">
         <v>42303</v>
       </c>
-      <c r="I106" s="162">
+      <c r="I106" s="153">
         <v>1</v>
       </c>
-      <c r="J106" s="163">
+      <c r="J106" s="154">
         <v>439.98</v>
       </c>
-      <c r="K106" s="163">
+      <c r="K106" s="154">
         <v>478.54</v>
       </c>
-      <c r="L106" s="163">
+      <c r="L106" s="154">
         <v>360.35</v>
       </c>
-      <c r="M106" s="163">
+      <c r="M106" s="154">
         <v>464.85</v>
       </c>
-      <c r="N106" s="163">
+      <c r="N106" s="154">
         <v>304.91000000000003</v>
       </c>
       <c r="O106" s="109"/>
@@ -5615,32 +5506,32 @@
       <c r="X106" s="109"/>
       <c r="Y106" s="109"/>
     </row>
-    <row r="107" spans="2:25" customFormat="1" ht="16">
+    <row r="107" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="99"/>
       <c r="C107" s="109"/>
       <c r="D107" s="109"/>
       <c r="E107" s="109"/>
       <c r="F107" s="109"/>
       <c r="G107" s="109"/>
-      <c r="H107" s="161">
+      <c r="H107" s="152">
         <v>42296</v>
       </c>
-      <c r="I107" s="162">
+      <c r="I107" s="153">
         <v>1</v>
       </c>
-      <c r="J107" s="163">
+      <c r="J107" s="154">
         <v>454.03</v>
       </c>
-      <c r="K107" s="163">
+      <c r="K107" s="154">
         <v>493.41</v>
       </c>
-      <c r="L107" s="163">
+      <c r="L107" s="154">
         <v>360.35</v>
       </c>
-      <c r="M107" s="163">
+      <c r="M107" s="154">
         <v>464.85</v>
       </c>
-      <c r="N107" s="163">
+      <c r="N107" s="154">
         <v>305.73</v>
       </c>
       <c r="O107" s="109"/>
@@ -5655,32 +5546,32 @@
       <c r="X107" s="109"/>
       <c r="Y107" s="109"/>
     </row>
-    <row r="108" spans="2:25" customFormat="1" ht="16">
+    <row r="108" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="99"/>
       <c r="C108" s="109"/>
       <c r="D108" s="109"/>
       <c r="E108" s="109"/>
       <c r="F108" s="109"/>
       <c r="G108" s="109"/>
-      <c r="H108" s="161">
+      <c r="H108" s="152">
         <v>42289</v>
       </c>
-      <c r="I108" s="162">
+      <c r="I108" s="153">
         <v>1</v>
       </c>
-      <c r="J108" s="163">
+      <c r="J108" s="154">
         <v>462.29</v>
       </c>
-      <c r="K108" s="163">
+      <c r="K108" s="154">
         <v>501.68</v>
       </c>
-      <c r="L108" s="163">
+      <c r="L108" s="154">
         <v>360.35</v>
       </c>
-      <c r="M108" s="163">
+      <c r="M108" s="154">
         <v>464.85</v>
       </c>
-      <c r="N108" s="163">
+      <c r="N108" s="154">
         <v>302.43</v>
       </c>
       <c r="O108" s="109"/>
@@ -5695,32 +5586,32 @@
       <c r="X108" s="109"/>
       <c r="Y108" s="109"/>
     </row>
-    <row r="109" spans="2:25" customFormat="1" ht="16">
+    <row r="109" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="99"/>
       <c r="C109" s="109"/>
       <c r="D109" s="109"/>
       <c r="E109" s="109"/>
       <c r="F109" s="109"/>
       <c r="G109" s="109"/>
-      <c r="H109" s="161">
+      <c r="H109" s="152">
         <v>42282</v>
       </c>
-      <c r="I109" s="162">
+      <c r="I109" s="153">
         <v>1</v>
       </c>
-      <c r="J109" s="163">
+      <c r="J109" s="154">
         <v>451.55</v>
       </c>
-      <c r="K109" s="163">
+      <c r="K109" s="154">
         <v>489.28</v>
       </c>
-      <c r="L109" s="163">
+      <c r="L109" s="154">
         <v>360.35</v>
       </c>
-      <c r="M109" s="163">
+      <c r="M109" s="154">
         <v>464.85</v>
       </c>
-      <c r="N109" s="163">
+      <c r="N109" s="154">
         <v>296.64</v>
       </c>
       <c r="O109" s="109"/>
@@ -5735,32 +5626,32 @@
       <c r="X109" s="109"/>
       <c r="Y109" s="109"/>
     </row>
-    <row r="110" spans="2:25" customFormat="1" ht="16">
+    <row r="110" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="99"/>
       <c r="C110" s="109"/>
       <c r="D110" s="109"/>
       <c r="E110" s="109"/>
       <c r="F110" s="109"/>
       <c r="G110" s="109"/>
-      <c r="H110" s="161">
+      <c r="H110" s="152">
         <v>42275</v>
       </c>
-      <c r="I110" s="162">
+      <c r="I110" s="153">
         <v>1</v>
       </c>
-      <c r="J110" s="163">
+      <c r="J110" s="154">
         <v>463.12</v>
       </c>
-      <c r="K110" s="163">
+      <c r="K110" s="154">
         <v>490.11</v>
       </c>
-      <c r="L110" s="163">
+      <c r="L110" s="154">
         <v>360.35</v>
       </c>
-      <c r="M110" s="163">
+      <c r="M110" s="154">
         <v>464.85</v>
       </c>
-      <c r="N110" s="163">
+      <c r="N110" s="154">
         <v>287.55</v>
       </c>
       <c r="O110" s="109"/>
@@ -5775,32 +5666,32 @@
       <c r="X110" s="109"/>
       <c r="Y110" s="109"/>
     </row>
-    <row r="111" spans="2:25" customFormat="1" ht="16">
+    <row r="111" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="99"/>
       <c r="C111" s="109"/>
       <c r="D111" s="109"/>
       <c r="E111" s="109"/>
       <c r="F111" s="109"/>
       <c r="G111" s="109"/>
-      <c r="H111" s="161">
+      <c r="H111" s="152">
         <v>42268</v>
       </c>
-      <c r="I111" s="162">
+      <c r="I111" s="153">
         <v>1</v>
       </c>
-      <c r="J111" s="163">
+      <c r="J111" s="154">
         <v>472.21</v>
       </c>
-      <c r="K111" s="163">
+      <c r="K111" s="154">
         <v>498.37</v>
       </c>
-      <c r="L111" s="163">
+      <c r="L111" s="154">
         <v>360.35</v>
       </c>
-      <c r="M111" s="163">
+      <c r="M111" s="154">
         <v>464.85</v>
       </c>
-      <c r="N111" s="163">
+      <c r="N111" s="154">
         <v>284.25</v>
       </c>
       <c r="O111" s="109"/>
@@ -5815,1324 +5706,1324 @@
       <c r="X111" s="109"/>
       <c r="Y111" s="109"/>
     </row>
-    <row r="112" spans="2:25" customFormat="1" ht="16">
+    <row r="112" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="99"/>
       <c r="E112" s="109"/>
       <c r="F112" s="109"/>
       <c r="G112" s="109"/>
-      <c r="H112" s="161">
+      <c r="H112" s="152">
         <v>42261</v>
       </c>
-      <c r="I112" s="162">
+      <c r="I112" s="153">
         <v>1</v>
       </c>
-      <c r="J112" s="163">
+      <c r="J112" s="154">
         <v>481.3</v>
       </c>
-      <c r="K112" s="163">
+      <c r="K112" s="154">
         <v>502.5</v>
       </c>
-      <c r="L112" s="163">
+      <c r="L112" s="154">
         <v>360.35</v>
       </c>
-      <c r="M112" s="163">
+      <c r="M112" s="154">
         <v>464.85</v>
       </c>
-      <c r="N112" s="163">
+      <c r="N112" s="154">
         <v>285.07</v>
       </c>
     </row>
-    <row r="113" spans="2:14" customFormat="1" ht="16">
+    <row r="113" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="99"/>
       <c r="F113" s="109"/>
       <c r="G113" s="109"/>
-      <c r="H113" s="161">
+      <c r="H113" s="152">
         <v>42254</v>
       </c>
-      <c r="I113" s="162">
+      <c r="I113" s="153">
         <v>1</v>
       </c>
-      <c r="J113" s="163">
+      <c r="J113" s="154">
         <v>482.13</v>
       </c>
-      <c r="K113" s="163">
+      <c r="K113" s="154">
         <v>493.41</v>
       </c>
-      <c r="L113" s="163">
+      <c r="L113" s="154">
         <v>360.35</v>
       </c>
-      <c r="M113" s="163">
+      <c r="M113" s="154">
         <v>464.85</v>
       </c>
-      <c r="N113" s="163">
+      <c r="N113" s="154">
         <v>284.25</v>
       </c>
     </row>
-    <row r="114" spans="2:14" customFormat="1" ht="16">
+    <row r="114" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="99"/>
       <c r="F114" s="109"/>
       <c r="G114" s="109"/>
-      <c r="H114" s="161">
+      <c r="H114" s="152">
         <v>42247</v>
       </c>
-      <c r="I114" s="162">
+      <c r="I114" s="153">
         <v>1</v>
       </c>
-      <c r="J114" s="163">
+      <c r="J114" s="154">
         <v>482.95</v>
       </c>
-      <c r="K114" s="163">
+      <c r="K114" s="154">
         <v>466.06</v>
       </c>
-      <c r="L114" s="163">
+      <c r="L114" s="154">
         <v>360.35</v>
       </c>
-      <c r="M114" s="163">
+      <c r="M114" s="154">
         <v>464.85</v>
       </c>
-      <c r="N114" s="163">
+      <c r="N114" s="154">
         <v>276.88</v>
       </c>
     </row>
-    <row r="115" spans="2:14" customFormat="1" ht="16">
+    <row r="115" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="99"/>
       <c r="F115" s="109"/>
       <c r="G115" s="109"/>
-      <c r="H115" s="161">
+      <c r="H115" s="152">
         <v>42240</v>
       </c>
-      <c r="I115" s="162">
+      <c r="I115" s="153">
         <v>1</v>
       </c>
-      <c r="J115" s="163">
+      <c r="J115" s="154">
         <v>513.53</v>
       </c>
-      <c r="K115" s="163">
+      <c r="K115" s="154">
         <v>485.97</v>
       </c>
-      <c r="L115" s="163">
+      <c r="L115" s="154">
         <v>360.35</v>
       </c>
-      <c r="M115" s="163">
+      <c r="M115" s="154">
         <v>464.85</v>
       </c>
-      <c r="N115" s="163">
+      <c r="N115" s="154">
         <v>287.55</v>
       </c>
     </row>
-    <row r="116" spans="2:14" customFormat="1" ht="16">
+    <row r="116" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="99"/>
       <c r="F116" s="109"/>
       <c r="G116" s="109"/>
-      <c r="H116" s="161">
+      <c r="H116" s="152">
         <v>42233</v>
       </c>
-      <c r="I116" s="162">
+      <c r="I116" s="153">
         <v>1</v>
       </c>
-      <c r="J116" s="163">
+      <c r="J116" s="154">
         <v>542.46</v>
       </c>
-      <c r="K116" s="163">
+      <c r="K116" s="154">
         <v>496.72</v>
       </c>
-      <c r="L116" s="163">
+      <c r="L116" s="154">
         <v>360.35</v>
       </c>
-      <c r="M116" s="163">
+      <c r="M116" s="154">
         <v>464.85</v>
       </c>
-      <c r="N116" s="163">
+      <c r="N116" s="154">
         <v>302.43</v>
       </c>
     </row>
-    <row r="117" spans="2:14" customFormat="1" ht="16">
+    <row r="117" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="99"/>
       <c r="F117" s="109"/>
       <c r="G117" s="109"/>
-      <c r="H117" s="161">
+      <c r="H117" s="152">
         <v>42226</v>
       </c>
-      <c r="I117" s="162">
+      <c r="I117" s="153">
         <v>1</v>
       </c>
-      <c r="J117" s="163">
+      <c r="J117" s="154">
         <v>562.29</v>
       </c>
-      <c r="K117" s="163">
+      <c r="K117" s="154">
         <v>504.98</v>
       </c>
-      <c r="L117" s="163">
+      <c r="L117" s="154">
         <v>360.35</v>
       </c>
-      <c r="M117" s="163">
+      <c r="M117" s="154">
         <v>464.85</v>
       </c>
-      <c r="N117" s="163">
+      <c r="N117" s="154">
         <v>308.20999999999998</v>
       </c>
     </row>
-    <row r="118" spans="2:14" customFormat="1" ht="16">
+    <row r="118" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="99"/>
       <c r="F118" s="109"/>
       <c r="G118" s="109"/>
-      <c r="H118" s="161">
+      <c r="H118" s="152">
         <v>42219</v>
       </c>
-      <c r="I118" s="162">
+      <c r="I118" s="153">
         <v>1</v>
       </c>
-      <c r="J118" s="163">
+      <c r="J118" s="154">
         <v>573.86</v>
       </c>
-      <c r="K118" s="163">
+      <c r="K118" s="154">
         <v>518.20000000000005</v>
       </c>
-      <c r="L118" s="163">
+      <c r="L118" s="154">
         <v>360.35</v>
       </c>
-      <c r="M118" s="163">
+      <c r="M118" s="154">
         <v>464.85</v>
       </c>
-      <c r="N118" s="163">
+      <c r="N118" s="154">
         <v>312.33999999999997</v>
       </c>
     </row>
-    <row r="119" spans="2:14" customFormat="1" ht="16">
+    <row r="119" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="99"/>
       <c r="F119" s="109"/>
       <c r="G119" s="109"/>
-      <c r="H119" s="161">
+      <c r="H119" s="152">
         <v>42212</v>
       </c>
-      <c r="I119" s="162">
+      <c r="I119" s="153">
         <v>1</v>
       </c>
-      <c r="J119" s="163">
+      <c r="J119" s="154">
         <v>586.26</v>
       </c>
-      <c r="K119" s="163">
+      <c r="K119" s="154">
         <v>533.91</v>
       </c>
-      <c r="L119" s="163">
+      <c r="L119" s="154">
         <v>360.35</v>
       </c>
-      <c r="M119" s="163">
+      <c r="M119" s="154">
         <v>464.85</v>
       </c>
-      <c r="N119" s="163">
+      <c r="N119" s="154">
         <v>315.64999999999998</v>
       </c>
     </row>
-    <row r="120" spans="2:14" customFormat="1" ht="16">
+    <row r="120" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="99"/>
       <c r="F120" s="109"/>
       <c r="G120" s="109"/>
-      <c r="H120" s="161">
+      <c r="H120" s="152">
         <v>42205</v>
       </c>
-      <c r="I120" s="162">
+      <c r="I120" s="153">
         <v>1</v>
       </c>
-      <c r="J120" s="163">
+      <c r="J120" s="154">
         <v>599.48</v>
       </c>
-      <c r="K120" s="163">
+      <c r="K120" s="154">
         <v>547.13</v>
       </c>
-      <c r="L120" s="163">
+      <c r="L120" s="154">
         <v>360.35</v>
       </c>
-      <c r="M120" s="163">
+      <c r="M120" s="154">
         <v>464.85</v>
       </c>
-      <c r="N120" s="163">
+      <c r="N120" s="154">
         <v>310.69</v>
       </c>
     </row>
-    <row r="121" spans="2:14" customFormat="1" ht="16">
+    <row r="121" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="99"/>
       <c r="F121" s="109"/>
       <c r="G121" s="109"/>
-      <c r="H121" s="161">
+      <c r="H121" s="152">
         <v>42198</v>
       </c>
-      <c r="I121" s="162">
+      <c r="I121" s="153">
         <v>1</v>
       </c>
-      <c r="J121" s="163">
+      <c r="J121" s="154">
         <v>617.66999999999996</v>
       </c>
-      <c r="K121" s="163">
+      <c r="K121" s="154">
         <v>568.62</v>
       </c>
-      <c r="L121" s="163">
+      <c r="L121" s="154">
         <v>360.35</v>
       </c>
-      <c r="M121" s="163">
+      <c r="M121" s="154">
         <v>464.85</v>
       </c>
-      <c r="N121" s="163">
+      <c r="N121" s="154">
         <v>318.95999999999998</v>
       </c>
     </row>
-    <row r="122" spans="2:14" customFormat="1" ht="16">
+    <row r="122" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="99"/>
       <c r="F122" s="109"/>
       <c r="G122" s="109"/>
-      <c r="H122" s="161">
+      <c r="H122" s="152">
         <v>42191</v>
       </c>
-      <c r="I122" s="162">
+      <c r="I122" s="153">
         <v>1</v>
       </c>
-      <c r="J122" s="163">
+      <c r="J122" s="154">
         <v>601.14</v>
       </c>
-      <c r="K122" s="163">
+      <c r="K122" s="154">
         <v>580.19000000000005</v>
       </c>
-      <c r="L122" s="163">
+      <c r="L122" s="154">
         <v>360.35</v>
       </c>
-      <c r="M122" s="163">
+      <c r="M122" s="154">
         <v>464.85</v>
       </c>
-      <c r="N122" s="163">
+      <c r="N122" s="154">
         <v>314.82</v>
       </c>
     </row>
-    <row r="123" spans="2:14" customFormat="1" ht="16">
+    <row r="123" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="99"/>
       <c r="F123" s="109"/>
       <c r="G123" s="109"/>
-      <c r="H123" s="161">
+      <c r="H123" s="152">
         <v>42184</v>
       </c>
-      <c r="I123" s="162">
+      <c r="I123" s="153">
         <v>1</v>
       </c>
-      <c r="J123" s="163">
+      <c r="J123" s="154">
         <v>593.70000000000005</v>
       </c>
-      <c r="K123" s="163">
+      <c r="K123" s="154">
         <v>580.19000000000005</v>
       </c>
-      <c r="L123" s="163">
+      <c r="L123" s="154">
         <v>360.35</v>
       </c>
-      <c r="M123" s="163">
+      <c r="M123" s="154">
         <v>464.85</v>
       </c>
-      <c r="N123" s="163">
+      <c r="N123" s="154">
         <v>318.13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" customFormat="1" ht="16">
+    <row r="124" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="99"/>
       <c r="F124" s="109"/>
       <c r="G124" s="109"/>
-      <c r="H124" s="161">
+      <c r="H124" s="152">
         <v>42177</v>
       </c>
-      <c r="I124" s="162">
+      <c r="I124" s="153">
         <v>1</v>
       </c>
-      <c r="J124" s="163">
+      <c r="J124" s="154">
         <v>604.44000000000005</v>
       </c>
-      <c r="K124" s="163">
+      <c r="K124" s="154">
         <v>585.15</v>
       </c>
-      <c r="L124" s="163">
+      <c r="L124" s="154">
         <v>360.35</v>
       </c>
-      <c r="M124" s="163">
+      <c r="M124" s="154">
         <v>464.85</v>
       </c>
-      <c r="N124" s="163">
+      <c r="N124" s="154">
         <v>317.3</v>
       </c>
     </row>
-    <row r="125" spans="2:14" customFormat="1" ht="16">
+    <row r="125" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="99"/>
       <c r="F125" s="109"/>
       <c r="G125" s="109"/>
-      <c r="H125" s="161">
+      <c r="H125" s="152">
         <v>42170</v>
       </c>
-      <c r="I125" s="162">
+      <c r="I125" s="153">
         <v>1</v>
       </c>
-      <c r="J125" s="163">
+      <c r="J125" s="154">
         <v>601.14</v>
       </c>
-      <c r="K125" s="163">
+      <c r="K125" s="154">
         <v>587.63</v>
       </c>
-      <c r="L125" s="163">
+      <c r="L125" s="154">
         <v>360.35</v>
       </c>
-      <c r="M125" s="163">
+      <c r="M125" s="154">
         <v>464.85</v>
       </c>
-      <c r="N125" s="163">
+      <c r="N125" s="154">
         <v>326.39</v>
       </c>
     </row>
-    <row r="126" spans="2:14" customFormat="1" ht="16">
+    <row r="126" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="99"/>
       <c r="F126" s="109"/>
       <c r="G126" s="109"/>
-      <c r="H126" s="161">
+      <c r="H126" s="152">
         <v>42163</v>
       </c>
-      <c r="I126" s="162">
+      <c r="I126" s="153">
         <v>1</v>
       </c>
-      <c r="J126" s="163">
+      <c r="J126" s="154">
         <v>585.42999999999995</v>
       </c>
-      <c r="K126" s="163">
+      <c r="K126" s="154">
         <v>587.63</v>
       </c>
-      <c r="L126" s="163">
+      <c r="L126" s="154">
         <v>360.35</v>
       </c>
-      <c r="M126" s="163">
+      <c r="M126" s="154">
         <v>464.85</v>
       </c>
-      <c r="N126" s="163">
+      <c r="N126" s="154">
         <v>337.14</v>
       </c>
     </row>
-    <row r="127" spans="2:14" customFormat="1" ht="16">
+    <row r="127" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="99"/>
       <c r="F127" s="109"/>
       <c r="G127" s="109"/>
-      <c r="H127" s="161">
+      <c r="H127" s="152">
         <v>42156</v>
       </c>
-      <c r="I127" s="162">
+      <c r="I127" s="153">
         <v>1</v>
       </c>
-      <c r="J127" s="163">
+      <c r="J127" s="154">
         <v>579.65</v>
       </c>
-      <c r="K127" s="163">
+      <c r="K127" s="154">
         <v>587.63</v>
       </c>
-      <c r="L127" s="163">
+      <c r="L127" s="154">
         <v>360.35</v>
       </c>
-      <c r="M127" s="163">
+      <c r="M127" s="154">
         <v>464.85</v>
       </c>
-      <c r="N127" s="163">
+      <c r="N127" s="154">
         <v>342.1</v>
       </c>
     </row>
-    <row r="128" spans="2:14" customFormat="1" ht="16">
+    <row r="128" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="99"/>
       <c r="F128" s="109"/>
       <c r="G128" s="109"/>
-      <c r="H128" s="161">
+      <c r="H128" s="152">
         <v>42149</v>
       </c>
-      <c r="I128" s="162">
+      <c r="I128" s="153">
         <v>1</v>
       </c>
-      <c r="J128" s="163">
+      <c r="J128" s="154">
         <v>578</v>
       </c>
-      <c r="K128" s="163">
+      <c r="K128" s="154">
         <v>591.76</v>
       </c>
-      <c r="L128" s="163">
+      <c r="L128" s="154">
         <v>360.35</v>
       </c>
-      <c r="M128" s="163">
+      <c r="M128" s="154">
         <v>464.85</v>
       </c>
-      <c r="N128" s="163">
+      <c r="N128" s="154">
         <v>338.79</v>
       </c>
     </row>
-    <row r="129" spans="2:14" customFormat="1" ht="16">
+    <row r="129" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="99"/>
       <c r="F129" s="109"/>
       <c r="G129" s="109"/>
-      <c r="H129" s="161">
+      <c r="H129" s="152">
         <v>42142</v>
       </c>
-      <c r="I129" s="162">
+      <c r="I129" s="153">
         <v>1</v>
       </c>
-      <c r="J129" s="163">
+      <c r="J129" s="154">
         <v>582.13</v>
       </c>
-      <c r="K129" s="163">
+      <c r="K129" s="154">
         <v>594.24</v>
       </c>
-      <c r="L129" s="163">
+      <c r="L129" s="154">
         <v>360.35</v>
       </c>
-      <c r="M129" s="163">
+      <c r="M129" s="154">
         <v>464.85</v>
       </c>
-      <c r="N129" s="163">
+      <c r="N129" s="154">
         <v>354.49</v>
       </c>
     </row>
-    <row r="130" spans="2:14" customFormat="1" ht="16">
+    <row r="130" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="99"/>
       <c r="F130" s="109"/>
       <c r="G130" s="109"/>
-      <c r="H130" s="161">
+      <c r="H130" s="152">
         <v>42135</v>
       </c>
-      <c r="I130" s="162">
+      <c r="I130" s="153">
         <v>1</v>
       </c>
-      <c r="J130" s="163">
+      <c r="J130" s="154">
         <v>587.91</v>
       </c>
-      <c r="K130" s="163">
+      <c r="K130" s="154">
         <v>595.05999999999995</v>
       </c>
-      <c r="L130" s="163">
+      <c r="L130" s="154">
         <v>360.35</v>
       </c>
-      <c r="M130" s="163">
+      <c r="M130" s="154">
         <v>464.85</v>
       </c>
-      <c r="N130" s="163">
+      <c r="N130" s="154">
         <v>361.1</v>
       </c>
     </row>
-    <row r="131" spans="2:14" customFormat="1" ht="16">
+    <row r="131" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="99"/>
       <c r="F131" s="109"/>
       <c r="G131" s="109"/>
-      <c r="H131" s="161">
+      <c r="H131" s="152">
         <v>42128</v>
       </c>
-      <c r="I131" s="162">
+      <c r="I131" s="153">
         <v>1</v>
       </c>
-      <c r="J131" s="163">
+      <c r="J131" s="154">
         <v>584.61</v>
       </c>
-      <c r="K131" s="163">
+      <c r="K131" s="154">
         <v>590.11</v>
       </c>
-      <c r="L131" s="163">
+      <c r="L131" s="154">
         <v>360.35</v>
       </c>
-      <c r="M131" s="163">
+      <c r="M131" s="154">
         <v>464.85</v>
       </c>
-      <c r="N131" s="163">
+      <c r="N131" s="154">
         <v>365.24</v>
       </c>
     </row>
-    <row r="132" spans="2:14" customFormat="1" ht="16">
+    <row r="132" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="99"/>
       <c r="F132" s="109"/>
       <c r="G132" s="109"/>
-      <c r="H132" s="161">
+      <c r="H132" s="152">
         <v>42121</v>
       </c>
-      <c r="I132" s="162">
+      <c r="I132" s="153">
         <v>1</v>
       </c>
-      <c r="J132" s="163">
+      <c r="J132" s="154">
         <v>583.78</v>
       </c>
-      <c r="K132" s="163">
+      <c r="K132" s="154">
         <v>591.76</v>
       </c>
-      <c r="L132" s="163">
+      <c r="L132" s="154">
         <v>360.35</v>
       </c>
-      <c r="M132" s="163">
+      <c r="M132" s="154">
         <v>464.85</v>
       </c>
-      <c r="N132" s="163">
+      <c r="N132" s="154">
         <v>366.06</v>
       </c>
     </row>
-    <row r="133" spans="2:14" customFormat="1" ht="16">
+    <row r="133" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="99"/>
       <c r="F133" s="109"/>
       <c r="G133" s="109"/>
-      <c r="H133" s="161">
+      <c r="H133" s="152">
         <v>42114</v>
       </c>
-      <c r="I133" s="162">
+      <c r="I133" s="153">
         <v>1</v>
       </c>
-      <c r="J133" s="163">
+      <c r="J133" s="154">
         <v>567.25</v>
       </c>
-      <c r="K133" s="163">
+      <c r="K133" s="154">
         <v>576.88</v>
       </c>
-      <c r="L133" s="163">
+      <c r="L133" s="154">
         <v>360.35</v>
       </c>
-      <c r="M133" s="163">
+      <c r="M133" s="154">
         <v>464.85</v>
       </c>
-      <c r="N133" s="163">
+      <c r="N133" s="154">
         <v>361.1</v>
       </c>
     </row>
-    <row r="134" spans="2:14" customFormat="1" ht="16">
+    <row r="134" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="99"/>
       <c r="F134" s="109"/>
       <c r="G134" s="109"/>
-      <c r="H134" s="161">
+      <c r="H134" s="152">
         <v>42107</v>
       </c>
-      <c r="I134" s="162">
+      <c r="I134" s="153">
         <v>1</v>
       </c>
-      <c r="J134" s="163">
+      <c r="J134" s="154">
         <v>544.11</v>
       </c>
-      <c r="K134" s="163">
+      <c r="K134" s="154">
         <v>553.74</v>
       </c>
-      <c r="L134" s="163">
+      <c r="L134" s="154">
         <v>360.35</v>
       </c>
-      <c r="M134" s="163">
+      <c r="M134" s="154">
         <v>464.85</v>
       </c>
-      <c r="N134" s="163">
+      <c r="N134" s="154">
         <v>366.89</v>
       </c>
     </row>
-    <row r="135" spans="2:14" customFormat="1" ht="16">
+    <row r="135" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="99"/>
       <c r="F135" s="109"/>
       <c r="G135" s="109"/>
-      <c r="H135" s="161">
+      <c r="H135" s="152">
         <v>42093</v>
       </c>
-      <c r="I135" s="162">
+      <c r="I135" s="153">
         <v>1</v>
       </c>
-      <c r="J135" s="163">
+      <c r="J135" s="154">
         <v>550.72</v>
       </c>
-      <c r="K135" s="163">
+      <c r="K135" s="154">
         <v>566.14</v>
       </c>
-      <c r="L135" s="163">
+      <c r="L135" s="154">
         <v>360.35</v>
       </c>
-      <c r="M135" s="163">
+      <c r="M135" s="154">
         <v>464.85</v>
       </c>
-      <c r="N135" s="163">
+      <c r="N135" s="154">
         <v>377.63</v>
       </c>
     </row>
-    <row r="136" spans="2:14" customFormat="1" ht="16">
+    <row r="136" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="99"/>
       <c r="F136" s="109"/>
       <c r="G136" s="109"/>
-      <c r="H136" s="161">
+      <c r="H136" s="152">
         <v>42086</v>
       </c>
-      <c r="I136" s="162">
+      <c r="I136" s="153">
         <v>1</v>
       </c>
-      <c r="J136" s="163">
+      <c r="J136" s="154">
         <v>539.98</v>
       </c>
-      <c r="K136" s="163">
+      <c r="K136" s="154">
         <v>567.79</v>
       </c>
-      <c r="L136" s="163">
+      <c r="L136" s="154">
         <v>360.35</v>
       </c>
-      <c r="M136" s="163">
+      <c r="M136" s="154">
         <v>464.85</v>
       </c>
-      <c r="N136" s="163">
+      <c r="N136" s="154">
         <v>380.94</v>
       </c>
     </row>
-    <row r="137" spans="2:14" customFormat="1" ht="16">
+    <row r="137" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="99"/>
       <c r="F137" s="109"/>
       <c r="G137" s="109"/>
-      <c r="H137" s="161">
+      <c r="H137" s="152">
         <v>42079</v>
       </c>
-      <c r="I137" s="162">
+      <c r="I137" s="153">
         <v>1</v>
       </c>
-      <c r="J137" s="163">
+      <c r="J137" s="154">
         <v>543.29</v>
       </c>
-      <c r="K137" s="163">
+      <c r="K137" s="154">
         <v>578.54</v>
       </c>
-      <c r="L137" s="163">
+      <c r="L137" s="154">
         <v>360.35</v>
       </c>
-      <c r="M137" s="163">
+      <c r="M137" s="154">
         <v>464.85</v>
       </c>
-      <c r="N137" s="163">
+      <c r="N137" s="154">
         <v>377.63</v>
       </c>
     </row>
-    <row r="138" spans="2:14" customFormat="1" ht="16">
+    <row r="138" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="99"/>
       <c r="F138" s="109"/>
       <c r="G138" s="109"/>
-      <c r="H138" s="161">
+      <c r="H138" s="152">
         <v>42072</v>
       </c>
-      <c r="I138" s="162">
+      <c r="I138" s="153">
         <v>1</v>
       </c>
-      <c r="J138" s="163">
+      <c r="J138" s="154">
         <v>533.37</v>
       </c>
-      <c r="K138" s="163">
+      <c r="K138" s="154">
         <v>579.36</v>
       </c>
-      <c r="L138" s="163">
+      <c r="L138" s="154">
         <v>360.35</v>
       </c>
-      <c r="M138" s="163">
+      <c r="M138" s="154">
         <v>464.85</v>
       </c>
-      <c r="N138" s="163">
+      <c r="N138" s="154">
         <v>379.29</v>
       </c>
     </row>
-    <row r="139" spans="2:14" customFormat="1" ht="16">
+    <row r="139" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="99"/>
       <c r="F139" s="109"/>
       <c r="G139" s="109"/>
-      <c r="H139" s="161">
+      <c r="H139" s="152">
         <v>42065</v>
       </c>
-      <c r="I139" s="162">
+      <c r="I139" s="153">
         <v>1</v>
       </c>
-      <c r="J139" s="163">
+      <c r="J139" s="154">
         <v>515.19000000000005</v>
       </c>
-      <c r="K139" s="163">
+      <c r="K139" s="154">
         <v>578.54</v>
       </c>
-      <c r="L139" s="163">
+      <c r="L139" s="154">
         <v>360.35</v>
       </c>
-      <c r="M139" s="163">
+      <c r="M139" s="154">
         <v>464.85</v>
       </c>
-      <c r="N139" s="163">
+      <c r="N139" s="154">
         <v>359.45</v>
       </c>
     </row>
-    <row r="140" spans="2:14" customFormat="1" ht="16">
+    <row r="140" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="99"/>
       <c r="F140" s="109"/>
       <c r="G140" s="109"/>
-      <c r="H140" s="161">
+      <c r="H140" s="152">
         <v>42058</v>
       </c>
-      <c r="I140" s="162">
+      <c r="I140" s="153">
         <v>1</v>
       </c>
-      <c r="J140" s="163">
+      <c r="J140" s="154">
         <v>502.79</v>
       </c>
-      <c r="K140" s="163">
+      <c r="K140" s="154">
         <v>569.44000000000005</v>
       </c>
-      <c r="L140" s="163">
+      <c r="L140" s="154">
         <v>360.35</v>
       </c>
-      <c r="M140" s="163">
+      <c r="M140" s="154">
         <v>464.85</v>
       </c>
-      <c r="N140" s="163">
+      <c r="N140" s="154">
         <v>338.79</v>
       </c>
     </row>
-    <row r="141" spans="2:14" customFormat="1" ht="16">
+    <row r="141" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="99"/>
       <c r="F141" s="109"/>
       <c r="G141" s="109"/>
-      <c r="H141" s="161">
+      <c r="H141" s="152">
         <v>42051</v>
       </c>
-      <c r="I141" s="162">
+      <c r="I141" s="153">
         <v>1</v>
       </c>
-      <c r="J141" s="163">
+      <c r="J141" s="154">
         <v>497</v>
       </c>
-      <c r="K141" s="163">
+      <c r="K141" s="154">
         <v>560.35</v>
       </c>
-      <c r="L141" s="163">
+      <c r="L141" s="154">
         <v>360.35</v>
       </c>
-      <c r="M141" s="163">
+      <c r="M141" s="154">
         <v>464.85</v>
       </c>
-      <c r="N141" s="163">
+      <c r="N141" s="154">
         <v>338.79</v>
       </c>
     </row>
-    <row r="142" spans="2:14" customFormat="1" ht="16">
+    <row r="142" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="99"/>
       <c r="F142" s="109"/>
       <c r="G142" s="109"/>
-      <c r="H142" s="161">
+      <c r="H142" s="152">
         <v>42044</v>
       </c>
-      <c r="I142" s="162">
+      <c r="I142" s="153">
         <v>1</v>
       </c>
-      <c r="J142" s="163">
+      <c r="J142" s="154">
         <v>463.12</v>
       </c>
-      <c r="K142" s="163">
+      <c r="K142" s="154">
         <v>525.64</v>
       </c>
-      <c r="L142" s="163">
+      <c r="L142" s="154">
         <v>360.35</v>
       </c>
-      <c r="M142" s="163">
+      <c r="M142" s="154">
         <v>464.85</v>
       </c>
-      <c r="N142" s="163">
+      <c r="N142" s="154">
         <v>342.1</v>
       </c>
     </row>
-    <row r="143" spans="2:14" customFormat="1" ht="16">
+    <row r="143" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="99"/>
       <c r="F143" s="109"/>
       <c r="G143" s="109"/>
-      <c r="H143" s="161">
+      <c r="H143" s="152">
         <v>42037</v>
       </c>
-      <c r="I143" s="162">
+      <c r="I143" s="153">
         <v>1</v>
       </c>
-      <c r="J143" s="163">
+      <c r="J143" s="154">
         <v>435.02</v>
       </c>
-      <c r="K143" s="163">
+      <c r="K143" s="154">
         <v>496.72</v>
       </c>
-      <c r="L143" s="163">
+      <c r="L143" s="154">
         <v>360.35</v>
       </c>
-      <c r="M143" s="163">
+      <c r="M143" s="154">
         <v>464.85</v>
       </c>
-      <c r="N143" s="163">
+      <c r="N143" s="154">
         <v>322.26</v>
       </c>
     </row>
-    <row r="144" spans="2:14" customFormat="1" ht="16">
+    <row r="144" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="99"/>
       <c r="F144" s="109"/>
       <c r="G144" s="109"/>
-      <c r="H144" s="161">
+      <c r="H144" s="152">
         <v>42030</v>
       </c>
-      <c r="I144" s="162">
+      <c r="I144" s="153">
         <v>1</v>
       </c>
-      <c r="J144" s="163">
+      <c r="J144" s="154">
         <v>434.19</v>
       </c>
-      <c r="K144" s="163">
+      <c r="K144" s="154">
         <v>490.93</v>
       </c>
-      <c r="L144" s="163">
+      <c r="L144" s="154">
         <v>360.35</v>
       </c>
-      <c r="M144" s="163">
+      <c r="M144" s="154">
         <v>464.85</v>
       </c>
-      <c r="N144" s="163">
+      <c r="N144" s="154">
         <v>317.3</v>
       </c>
     </row>
-    <row r="145" spans="2:14" customFormat="1" ht="16">
+    <row r="145" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="99"/>
       <c r="F145" s="109"/>
       <c r="G145" s="109"/>
-      <c r="H145" s="161">
+      <c r="H145" s="152">
         <v>42023</v>
       </c>
-      <c r="I145" s="162">
+      <c r="I145" s="153">
         <v>1</v>
       </c>
-      <c r="J145" s="163">
+      <c r="J145" s="154">
         <v>435.02</v>
       </c>
-      <c r="K145" s="163">
+      <c r="K145" s="154">
         <v>490.93</v>
       </c>
-      <c r="L145" s="163">
+      <c r="L145" s="154">
         <v>360.35</v>
       </c>
-      <c r="M145" s="163">
+      <c r="M145" s="154">
         <v>464.85</v>
       </c>
-      <c r="N145" s="163">
+      <c r="N145" s="154">
         <v>313.17</v>
       </c>
     </row>
-    <row r="146" spans="2:14" customFormat="1" ht="16">
+    <row r="146" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="99"/>
-      <c r="H146" s="161">
+      <c r="H146" s="152">
         <v>42016</v>
       </c>
-      <c r="I146" s="162">
+      <c r="I146" s="153">
         <v>1</v>
       </c>
-      <c r="J146" s="163">
+      <c r="J146" s="154">
         <v>448.24</v>
       </c>
-      <c r="K146" s="163">
+      <c r="K146" s="154">
         <v>502.5</v>
       </c>
-      <c r="L146" s="163">
+      <c r="L146" s="154">
         <v>360.35</v>
       </c>
-      <c r="M146" s="163">
+      <c r="M146" s="154">
         <v>464.85</v>
       </c>
-      <c r="N146" s="163">
+      <c r="N146" s="154">
         <v>329.7</v>
       </c>
     </row>
-    <row r="147" spans="2:14" customFormat="1" ht="16">
+    <row r="147" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="99"/>
-      <c r="H147" s="161">
+      <c r="H147" s="152">
         <v>42009</v>
       </c>
-      <c r="I147" s="162">
+      <c r="I147" s="153">
         <v>1</v>
       </c>
-      <c r="J147" s="163">
+      <c r="J147" s="154">
         <v>466.43</v>
       </c>
-      <c r="K147" s="163">
+      <c r="K147" s="154">
         <v>508.29</v>
       </c>
-      <c r="L147" s="163">
+      <c r="L147" s="154">
         <v>360.35</v>
       </c>
-      <c r="M147" s="163">
+      <c r="M147" s="154">
         <v>464.85</v>
       </c>
-      <c r="N147" s="163">
+      <c r="N147" s="154">
         <v>351.19</v>
       </c>
     </row>
-    <row r="148" spans="2:14" customFormat="1" ht="16">
+    <row r="148" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="99"/>
-      <c r="H148" s="161"/>
-      <c r="I148" s="164"/>
-      <c r="J148" s="163"/>
-      <c r="K148" s="163"/>
-      <c r="L148" s="163"/>
-      <c r="M148" s="163"/>
-      <c r="N148" s="163"/>
-    </row>
-    <row r="149" spans="2:14" customFormat="1" ht="16">
+      <c r="H148" s="152"/>
+      <c r="I148" s="155"/>
+      <c r="J148" s="154"/>
+      <c r="K148" s="154"/>
+      <c r="L148" s="154"/>
+      <c r="M148" s="154"/>
+      <c r="N148" s="154"/>
+    </row>
+    <row r="149" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="99"/>
-      <c r="H149" s="161"/>
-      <c r="I149" s="164"/>
-      <c r="J149" s="163"/>
-      <c r="K149" s="163"/>
-      <c r="L149" s="163"/>
-      <c r="M149" s="163"/>
-      <c r="N149" s="163"/>
-    </row>
-    <row r="150" spans="2:14" customFormat="1" ht="16">
+      <c r="H149" s="152"/>
+      <c r="I149" s="155"/>
+      <c r="J149" s="154"/>
+      <c r="K149" s="154"/>
+      <c r="L149" s="154"/>
+      <c r="M149" s="154"/>
+      <c r="N149" s="154"/>
+    </row>
+    <row r="150" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="99"/>
-      <c r="H150" s="161"/>
-      <c r="I150" s="164"/>
-      <c r="J150" s="163"/>
-      <c r="K150" s="163"/>
-      <c r="L150" s="163"/>
-      <c r="M150" s="163"/>
-      <c r="N150" s="163"/>
-    </row>
-    <row r="151" spans="2:14" customFormat="1" ht="16">
+      <c r="H150" s="152"/>
+      <c r="I150" s="155"/>
+      <c r="J150" s="154"/>
+      <c r="K150" s="154"/>
+      <c r="L150" s="154"/>
+      <c r="M150" s="154"/>
+      <c r="N150" s="154"/>
+    </row>
+    <row r="151" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="99"/>
-      <c r="H151" s="161"/>
-      <c r="I151" s="164"/>
-      <c r="J151" s="163"/>
-      <c r="K151" s="163"/>
-      <c r="L151" s="163"/>
-      <c r="M151" s="163"/>
-      <c r="N151" s="163"/>
-    </row>
-    <row r="152" spans="2:14" customFormat="1" ht="16">
+      <c r="H151" s="152"/>
+      <c r="I151" s="155"/>
+      <c r="J151" s="154"/>
+      <c r="K151" s="154"/>
+      <c r="L151" s="154"/>
+      <c r="M151" s="154"/>
+      <c r="N151" s="154"/>
+    </row>
+    <row r="152" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="99"/>
-      <c r="H152" s="161"/>
-      <c r="I152" s="164"/>
-      <c r="J152" s="163"/>
-      <c r="K152" s="163"/>
-      <c r="L152" s="163"/>
-      <c r="M152" s="163"/>
-      <c r="N152" s="163"/>
-    </row>
-    <row r="153" spans="2:14" customFormat="1" ht="16">
+      <c r="H152" s="152"/>
+      <c r="I152" s="155"/>
+      <c r="J152" s="154"/>
+      <c r="K152" s="154"/>
+      <c r="L152" s="154"/>
+      <c r="M152" s="154"/>
+      <c r="N152" s="154"/>
+    </row>
+    <row r="153" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="99"/>
-      <c r="H153" s="161"/>
-      <c r="I153" s="164"/>
-      <c r="J153" s="163"/>
-      <c r="K153" s="163"/>
-      <c r="L153" s="163"/>
-      <c r="M153" s="163"/>
-      <c r="N153" s="163"/>
-    </row>
-    <row r="154" spans="2:14" customFormat="1" ht="16">
+      <c r="H153" s="152"/>
+      <c r="I153" s="155"/>
+      <c r="J153" s="154"/>
+      <c r="K153" s="154"/>
+      <c r="L153" s="154"/>
+      <c r="M153" s="154"/>
+      <c r="N153" s="154"/>
+    </row>
+    <row r="154" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="99"/>
-      <c r="H154" s="161"/>
-      <c r="I154" s="164"/>
-      <c r="J154" s="163"/>
-      <c r="K154" s="163"/>
-      <c r="L154" s="163"/>
-      <c r="M154" s="163"/>
-      <c r="N154" s="163"/>
-    </row>
-    <row r="155" spans="2:14" customFormat="1" ht="16">
+      <c r="H154" s="152"/>
+      <c r="I154" s="155"/>
+      <c r="J154" s="154"/>
+      <c r="K154" s="154"/>
+      <c r="L154" s="154"/>
+      <c r="M154" s="154"/>
+      <c r="N154" s="154"/>
+    </row>
+    <row r="155" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="99"/>
-      <c r="H155" s="161"/>
-      <c r="I155" s="164"/>
-      <c r="J155" s="163"/>
-      <c r="K155" s="163"/>
-      <c r="L155" s="163"/>
-      <c r="M155" s="163"/>
-      <c r="N155" s="163"/>
-    </row>
-    <row r="156" spans="2:14" customFormat="1" ht="16">
+      <c r="H155" s="152"/>
+      <c r="I155" s="155"/>
+      <c r="J155" s="154"/>
+      <c r="K155" s="154"/>
+      <c r="L155" s="154"/>
+      <c r="M155" s="154"/>
+      <c r="N155" s="154"/>
+    </row>
+    <row r="156" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="99"/>
-      <c r="H156" s="161"/>
-      <c r="I156" s="164"/>
-      <c r="J156" s="163"/>
-      <c r="K156" s="163"/>
-      <c r="L156" s="163"/>
-      <c r="M156" s="163"/>
-      <c r="N156" s="163"/>
-    </row>
-    <row r="157" spans="2:14" customFormat="1" ht="16">
+      <c r="H156" s="152"/>
+      <c r="I156" s="155"/>
+      <c r="J156" s="154"/>
+      <c r="K156" s="154"/>
+      <c r="L156" s="154"/>
+      <c r="M156" s="154"/>
+      <c r="N156" s="154"/>
+    </row>
+    <row r="157" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="99"/>
-      <c r="H157" s="161"/>
-      <c r="I157" s="164"/>
-      <c r="J157" s="163"/>
-      <c r="K157" s="163"/>
-      <c r="L157" s="163"/>
-      <c r="M157" s="163"/>
-      <c r="N157" s="163"/>
-    </row>
-    <row r="158" spans="2:14" customFormat="1" ht="16">
+      <c r="H157" s="152"/>
+      <c r="I157" s="155"/>
+      <c r="J157" s="154"/>
+      <c r="K157" s="154"/>
+      <c r="L157" s="154"/>
+      <c r="M157" s="154"/>
+      <c r="N157" s="154"/>
+    </row>
+    <row r="158" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="99"/>
-      <c r="H158" s="161"/>
-      <c r="I158" s="164"/>
-      <c r="J158" s="163"/>
-      <c r="K158" s="163"/>
-      <c r="L158" s="163"/>
-      <c r="M158" s="163"/>
-      <c r="N158" s="163"/>
-    </row>
-    <row r="159" spans="2:14" customFormat="1" ht="16">
+      <c r="H158" s="152"/>
+      <c r="I158" s="155"/>
+      <c r="J158" s="154"/>
+      <c r="K158" s="154"/>
+      <c r="L158" s="154"/>
+      <c r="M158" s="154"/>
+      <c r="N158" s="154"/>
+    </row>
+    <row r="159" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="99"/>
-      <c r="H159" s="161"/>
-      <c r="I159" s="164"/>
-      <c r="J159" s="163"/>
-      <c r="K159" s="163"/>
-      <c r="L159" s="163"/>
-      <c r="M159" s="163"/>
-      <c r="N159" s="163"/>
-    </row>
-    <row r="160" spans="2:14" customFormat="1" ht="16">
+      <c r="H159" s="152"/>
+      <c r="I159" s="155"/>
+      <c r="J159" s="154"/>
+      <c r="K159" s="154"/>
+      <c r="L159" s="154"/>
+      <c r="M159" s="154"/>
+      <c r="N159" s="154"/>
+    </row>
+    <row r="160" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="99"/>
-      <c r="H160" s="161"/>
-      <c r="I160" s="164"/>
-      <c r="J160" s="163"/>
-      <c r="K160" s="163"/>
-      <c r="L160" s="163"/>
-      <c r="M160" s="163"/>
-      <c r="N160" s="163"/>
-    </row>
-    <row r="161" spans="2:14" customFormat="1" ht="16">
+      <c r="H160" s="152"/>
+      <c r="I160" s="155"/>
+      <c r="J160" s="154"/>
+      <c r="K160" s="154"/>
+      <c r="L160" s="154"/>
+      <c r="M160" s="154"/>
+      <c r="N160" s="154"/>
+    </row>
+    <row r="161" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="99"/>
-      <c r="H161" s="161"/>
-      <c r="I161" s="164"/>
-      <c r="J161" s="163"/>
-      <c r="K161" s="163"/>
-      <c r="L161" s="163"/>
-      <c r="M161" s="163"/>
-      <c r="N161" s="163"/>
-    </row>
-    <row r="162" spans="2:14" customFormat="1" ht="16">
+      <c r="H161" s="152"/>
+      <c r="I161" s="155"/>
+      <c r="J161" s="154"/>
+      <c r="K161" s="154"/>
+      <c r="L161" s="154"/>
+      <c r="M161" s="154"/>
+      <c r="N161" s="154"/>
+    </row>
+    <row r="162" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="99"/>
-      <c r="H162" s="161"/>
-      <c r="I162" s="164"/>
-      <c r="J162" s="163"/>
-      <c r="K162" s="163"/>
-      <c r="L162" s="163"/>
-      <c r="M162" s="163"/>
-      <c r="N162" s="163"/>
-    </row>
-    <row r="163" spans="2:14" customFormat="1" ht="16">
+      <c r="H162" s="152"/>
+      <c r="I162" s="155"/>
+      <c r="J162" s="154"/>
+      <c r="K162" s="154"/>
+      <c r="L162" s="154"/>
+      <c r="M162" s="154"/>
+      <c r="N162" s="154"/>
+    </row>
+    <row r="163" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="99"/>
-      <c r="H163" s="161"/>
-      <c r="I163" s="164"/>
-      <c r="J163" s="163"/>
-      <c r="K163" s="163"/>
-      <c r="L163" s="163"/>
-      <c r="M163" s="163"/>
-      <c r="N163" s="163"/>
-    </row>
-    <row r="164" spans="2:14" customFormat="1" ht="16">
+      <c r="H163" s="152"/>
+      <c r="I163" s="155"/>
+      <c r="J163" s="154"/>
+      <c r="K163" s="154"/>
+      <c r="L163" s="154"/>
+      <c r="M163" s="154"/>
+      <c r="N163" s="154"/>
+    </row>
+    <row r="164" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="99"/>
-      <c r="H164" s="161"/>
-      <c r="I164" s="164"/>
-      <c r="J164" s="163"/>
-      <c r="K164" s="163"/>
-      <c r="L164" s="163"/>
-      <c r="M164" s="163"/>
-      <c r="N164" s="163"/>
-    </row>
-    <row r="165" spans="2:14" customFormat="1" ht="16">
+      <c r="H164" s="152"/>
+      <c r="I164" s="155"/>
+      <c r="J164" s="154"/>
+      <c r="K164" s="154"/>
+      <c r="L164" s="154"/>
+      <c r="M164" s="154"/>
+      <c r="N164" s="154"/>
+    </row>
+    <row r="165" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="99"/>
-      <c r="H165" s="161"/>
-      <c r="I165" s="164"/>
-      <c r="J165" s="163"/>
-      <c r="K165" s="163"/>
-      <c r="L165" s="163"/>
-      <c r="M165" s="163"/>
-      <c r="N165" s="163"/>
-    </row>
-    <row r="166" spans="2:14" customFormat="1" ht="16">
+      <c r="H165" s="152"/>
+      <c r="I165" s="155"/>
+      <c r="J165" s="154"/>
+      <c r="K165" s="154"/>
+      <c r="L165" s="154"/>
+      <c r="M165" s="154"/>
+      <c r="N165" s="154"/>
+    </row>
+    <row r="166" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="99"/>
-      <c r="H166" s="161"/>
-      <c r="I166" s="164"/>
-      <c r="J166" s="163"/>
-      <c r="K166" s="163"/>
-      <c r="L166" s="163"/>
-      <c r="M166" s="163"/>
-      <c r="N166" s="163"/>
-    </row>
-    <row r="167" spans="2:14" customFormat="1" ht="16">
+      <c r="H166" s="152"/>
+      <c r="I166" s="155"/>
+      <c r="J166" s="154"/>
+      <c r="K166" s="154"/>
+      <c r="L166" s="154"/>
+      <c r="M166" s="154"/>
+      <c r="N166" s="154"/>
+    </row>
+    <row r="167" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="99"/>
-      <c r="H167" s="161"/>
-      <c r="I167" s="164"/>
-      <c r="J167" s="163"/>
-      <c r="K167" s="163"/>
-      <c r="L167" s="163"/>
-      <c r="M167" s="163"/>
-      <c r="N167" s="163"/>
-    </row>
-    <row r="168" spans="2:14" customFormat="1" ht="16">
+      <c r="H167" s="152"/>
+      <c r="I167" s="155"/>
+      <c r="J167" s="154"/>
+      <c r="K167" s="154"/>
+      <c r="L167" s="154"/>
+      <c r="M167" s="154"/>
+      <c r="N167" s="154"/>
+    </row>
+    <row r="168" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="99"/>
-      <c r="H168" s="161"/>
-      <c r="I168" s="164"/>
-      <c r="J168" s="163"/>
-      <c r="K168" s="163"/>
-      <c r="L168" s="163"/>
-      <c r="M168" s="163"/>
-      <c r="N168" s="163"/>
-    </row>
-    <row r="169" spans="2:14" customFormat="1" ht="16">
+      <c r="H168" s="152"/>
+      <c r="I168" s="155"/>
+      <c r="J168" s="154"/>
+      <c r="K168" s="154"/>
+      <c r="L168" s="154"/>
+      <c r="M168" s="154"/>
+      <c r="N168" s="154"/>
+    </row>
+    <row r="169" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="99"/>
-      <c r="H169" s="161"/>
-      <c r="I169" s="164"/>
-      <c r="J169" s="163"/>
-      <c r="K169" s="163"/>
-      <c r="L169" s="163"/>
-      <c r="M169" s="163"/>
-      <c r="N169" s="163"/>
-    </row>
-    <row r="170" spans="2:14" customFormat="1" ht="16">
+      <c r="H169" s="152"/>
+      <c r="I169" s="155"/>
+      <c r="J169" s="154"/>
+      <c r="K169" s="154"/>
+      <c r="L169" s="154"/>
+      <c r="M169" s="154"/>
+      <c r="N169" s="154"/>
+    </row>
+    <row r="170" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="99"/>
-      <c r="H170" s="161"/>
-      <c r="I170" s="164"/>
-      <c r="J170" s="163"/>
-      <c r="K170" s="163"/>
-      <c r="L170" s="163"/>
-      <c r="M170" s="163"/>
-      <c r="N170" s="163"/>
-    </row>
-    <row r="171" spans="2:14" customFormat="1" ht="16">
+      <c r="H170" s="152"/>
+      <c r="I170" s="155"/>
+      <c r="J170" s="154"/>
+      <c r="K170" s="154"/>
+      <c r="L170" s="154"/>
+      <c r="M170" s="154"/>
+      <c r="N170" s="154"/>
+    </row>
+    <row r="171" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="99"/>
-      <c r="H171" s="161"/>
-      <c r="I171" s="164"/>
-      <c r="J171" s="163"/>
-      <c r="K171" s="163"/>
-      <c r="L171" s="163"/>
-      <c r="M171" s="163"/>
-      <c r="N171" s="163"/>
-    </row>
-    <row r="172" spans="2:14" customFormat="1" ht="16">
+      <c r="H171" s="152"/>
+      <c r="I171" s="155"/>
+      <c r="J171" s="154"/>
+      <c r="K171" s="154"/>
+      <c r="L171" s="154"/>
+      <c r="M171" s="154"/>
+      <c r="N171" s="154"/>
+    </row>
+    <row r="172" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="99"/>
     </row>
-    <row r="173" spans="2:14" customFormat="1" ht="16">
+    <row r="173" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="99"/>
     </row>
-    <row r="174" spans="2:14" customFormat="1" ht="16">
+    <row r="174" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="99"/>
     </row>
-    <row r="175" spans="2:14" customFormat="1" ht="16">
+    <row r="175" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="99"/>
     </row>
-    <row r="176" spans="2:14" customFormat="1" ht="16">
+    <row r="176" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="99"/>
     </row>
-    <row r="177" spans="2:2" customFormat="1" ht="16">
+    <row r="177" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="99"/>
     </row>
-    <row r="178" spans="2:2" customFormat="1" ht="16">
+    <row r="178" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="99"/>
     </row>
-    <row r="179" spans="2:2" customFormat="1" ht="16">
+    <row r="179" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="99"/>
     </row>
-    <row r="180" spans="2:2" customFormat="1" ht="16">
+    <row r="180" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="99"/>
     </row>
-    <row r="181" spans="2:2" customFormat="1" ht="16">
+    <row r="181" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="99"/>
     </row>
-    <row r="182" spans="2:2" customFormat="1" ht="16">
+    <row r="182" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="99"/>
     </row>
-    <row r="183" spans="2:2" customFormat="1" ht="16">
+    <row r="183" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="99"/>
     </row>
-    <row r="184" spans="2:2" customFormat="1" ht="16">
+    <row r="184" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="99"/>
     </row>
-    <row r="185" spans="2:2" customFormat="1" ht="16">
+    <row r="185" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="99"/>
     </row>
-    <row r="186" spans="2:2" customFormat="1" ht="16">
+    <row r="186" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="99"/>
     </row>
-    <row r="187" spans="2:2" customFormat="1" ht="16">
+    <row r="187" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="99"/>
     </row>
-    <row r="188" spans="2:2" customFormat="1" ht="16">
+    <row r="188" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="99"/>
     </row>
-    <row r="189" spans="2:2" customFormat="1" ht="16">
+    <row r="189" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="99"/>
     </row>
-    <row r="190" spans="2:2" customFormat="1" ht="16">
+    <row r="190" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="99"/>
     </row>
-    <row r="191" spans="2:2" customFormat="1" ht="16">
+    <row r="191" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="99"/>
     </row>
-    <row r="192" spans="2:2" customFormat="1" ht="16">
+    <row r="192" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="99"/>
     </row>
-    <row r="193" spans="2:2" customFormat="1" ht="16">
+    <row r="193" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="99"/>
     </row>
-    <row r="194" spans="2:2" customFormat="1" ht="16">
+    <row r="194" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="99"/>
     </row>
-    <row r="195" spans="2:2" customFormat="1" ht="16">
+    <row r="195" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="99"/>
     </row>
-    <row r="196" spans="2:2" customFormat="1" ht="16">
+    <row r="196" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="99"/>
     </row>
-    <row r="197" spans="2:2" customFormat="1" ht="16">
+    <row r="197" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="99"/>
     </row>
-    <row r="198" spans="2:2" customFormat="1" ht="16">
+    <row r="198" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="99"/>
     </row>
-    <row r="199" spans="2:2" customFormat="1" ht="16">
+    <row r="199" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="99"/>
     </row>
-    <row r="200" spans="2:2" customFormat="1" ht="16">
+    <row r="200" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="99"/>
     </row>
-    <row r="201" spans="2:2" customFormat="1" ht="16">
+    <row r="201" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="99"/>
     </row>
-    <row r="202" spans="2:2" customFormat="1" ht="16">
+    <row r="202" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="99"/>
     </row>
-    <row r="203" spans="2:2" customFormat="1" ht="16">
+    <row r="203" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="99"/>
     </row>
-    <row r="204" spans="2:2" customFormat="1" ht="16">
+    <row r="204" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="99"/>
     </row>
-    <row r="205" spans="2:2" customFormat="1" ht="16">
+    <row r="205" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="99"/>
     </row>
-    <row r="206" spans="2:2" customFormat="1" ht="16">
+    <row r="206" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="99"/>
     </row>
-    <row r="207" spans="2:2" customFormat="1" ht="16">
+    <row r="207" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="99"/>
     </row>
-    <row r="208" spans="2:2" customFormat="1" ht="16">
+    <row r="208" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="99"/>
     </row>
-    <row r="209" spans="2:7" customFormat="1" ht="16">
+    <row r="209" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="99"/>
     </row>
-    <row r="210" spans="2:7" customFormat="1" ht="16">
+    <row r="210" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="99"/>
     </row>
-    <row r="211" spans="2:7" customFormat="1" ht="16">
+    <row r="211" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="99"/>
     </row>
-    <row r="212" spans="2:7" customFormat="1" ht="16">
+    <row r="212" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="99"/>
     </row>
-    <row r="213" spans="2:7" customFormat="1" ht="16">
+    <row r="213" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="99"/>
     </row>
-    <row r="214" spans="2:7" customFormat="1" ht="16">
+    <row r="214" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="99"/>
     </row>
-    <row r="215" spans="2:7" customFormat="1" ht="16">
+    <row r="215" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="99"/>
     </row>
-    <row r="216" spans="2:7" customFormat="1" ht="16">
+    <row r="216" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="99"/>
     </row>
-    <row r="217" spans="2:7" customFormat="1" ht="16">
+    <row r="217" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="99"/>
     </row>
-    <row r="218" spans="2:7" customFormat="1" ht="16">
+    <row r="218" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="99"/>
     </row>
-    <row r="219" spans="2:7" customFormat="1" ht="16">
+    <row r="219" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="99"/>
     </row>
-    <row r="220" spans="2:7" ht="16">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220"/>
@@ -7144,10 +7035,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
+++ b/carriers_source_analyses/heavy_fuel_oil.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="43680" yWindow="-3380" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26920" tabRatio="762" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -278,12 +277,6 @@
     <t>European Commission Weekly Oil Bulletin - Price history</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Jan 2015</t>
-  </si>
-  <si>
     <t>EC Oil Bulletin</t>
   </si>
   <si>
@@ -377,6 +370,12 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>11/2017</t>
   </si>
 </sst>
 </file>
@@ -517,6 +516,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -524,6 +524,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,6 +532,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,6 +540,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,17 +548,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,6 +575,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -587,10 +594,12 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -615,28 +624,33 @@
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1413,7 +1427,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1661,6 +1675,12 @@
     </xf>
     <xf numFmtId="169" fontId="29" fillId="15" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="36" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2243,26 +2263,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2592,11 +2592,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2619,10 +2619,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,23 +2790,23 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -2816,28 +2816,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="B2" s="158" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:10" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="166"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -2890,7 +2890,7 @@
     <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="136" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="18"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="E11" s="119">
         <f>'Research data'!G7</f>
-        <v>8.7029629629629644E-3</v>
+        <v>1.4813827160493825E-2</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="103"/>
@@ -2945,7 +2945,7 @@
     <row r="12" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="103" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>43</v>
@@ -2965,7 +2965,7 @@
     <row r="13" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="143" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>59</v>
@@ -3035,23 +3035,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="66" customWidth="1"/>
     <col min="17" max="17" width="60" style="65" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="65"/>
+    <col min="18" max="16384" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L3" s="63"/>
       <c r="M3" s="63" t="s">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="G7" s="114">
         <f>K7</f>
-        <v>8.7029629629629644E-3</v>
+        <v>1.4813827160493825E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
       <c r="K7" s="114">
         <f>Notes!F106</f>
-        <v>8.7029629629629644E-3</v>
+        <v>1.4813827160493825E-2</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -3204,13 +3204,13 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="128" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="135" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="107" t="s">
         <v>42</v>
@@ -3242,7 +3242,7 @@
     <row r="9" spans="2:17" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="135" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -3298,7 +3298,7 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="142" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3332,21 +3332,23 @@
   </sheetPr>
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="45"/>
+    <col min="7" max="7" width="10.33203125" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3436,7 +3438,7 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="116" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="118" t="s">
@@ -3515,13 +3517,13 @@
         <v>66</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="K11" s="54"/>
       <c r="L11" s="127" t="s">
@@ -3548,20 +3550,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y220"/>
+  <dimension ref="B1:Y224"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="98" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="98" customWidth="1"/>
     <col min="2" max="2" width="5" style="98" customWidth="1"/>
     <col min="3" max="5" width="7" style="98"/>
-    <col min="6" max="6" width="12" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="98" customWidth="1"/>
     <col min="7" max="7" width="7" style="98"/>
-    <col min="8" max="8" width="8.85546875" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="98" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="98"/>
   </cols>
   <sheetData>
@@ -3729,7 +3731,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="133">
         <v>745</v>
@@ -3916,7 +3918,7 @@
       <c r="C14" s="109"/>
       <c r="D14" s="109"/>
       <c r="E14" s="109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="133">
         <v>832</v>
@@ -4103,7 +4105,7 @@
       <c r="C20" s="109"/>
       <c r="D20" s="109"/>
       <c r="E20" s="109" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F20" s="133"/>
       <c r="G20" s="133"/>
@@ -4171,7 +4173,7 @@
         <v>59</v>
       </c>
       <c r="H22" s="110" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I22" s="109"/>
       <c r="J22" s="109"/>
@@ -4287,7 +4289,7 @@
       <c r="C26" s="109"/>
       <c r="D26" s="109"/>
       <c r="E26" s="109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F26" s="133">
         <v>970</v>
@@ -4421,7 +4423,7 @@
     <row r="35" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="99"/>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4556,7 +4558,7 @@
     <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="99"/>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
@@ -4580,7 +4582,7 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="2:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4685,7 +4687,7 @@
     <row r="87" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="99"/>
       <c r="C87" s="129" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D87" s="109"/>
       <c r="E87" s="109"/>
@@ -4767,7 +4769,7 @@
       <c r="B90" s="99"/>
       <c r="C90" s="109"/>
       <c r="D90" s="109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E90" s="109"/>
       <c r="F90" s="109"/>
@@ -4800,25 +4802,25 @@
       <c r="F91" s="109"/>
       <c r="G91" s="109"/>
       <c r="H91" s="146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I91" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="J91" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="I91" s="147" t="s">
+      <c r="K91" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="148" t="s">
+      <c r="L91" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="K91" s="148" t="s">
+      <c r="M91" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="L91" s="148" t="s">
+      <c r="N91" s="148" t="s">
         <v>76</v>
-      </c>
-      <c r="M91" s="148" t="s">
-        <v>77</v>
-      </c>
-      <c r="N91" s="148" t="s">
-        <v>78</v>
       </c>
       <c r="O91" s="109"/>
       <c r="P91" s="109"/>
@@ -4841,19 +4843,19 @@
       <c r="H92" s="149"/>
       <c r="I92" s="150"/>
       <c r="J92" s="151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K92" s="151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L92" s="151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M92" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N92" s="151" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O92" s="109"/>
       <c r="P92" s="109"/>
@@ -4872,35 +4874,33 @@
       <c r="C93" s="109"/>
       <c r="D93" s="109"/>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F93" s="145">
         <f>AVERAGE(J93:J97)</f>
-        <v>401.60399999999998</v>
+        <v>519.13</v>
       </c>
       <c r="G93" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="H93" s="152">
-        <v>42408</v>
-      </c>
-      <c r="I93" s="153">
-        <v>1</v>
-      </c>
-      <c r="J93" s="154">
-        <v>395.65</v>
-      </c>
-      <c r="K93" s="154">
-        <v>371.99</v>
-      </c>
-      <c r="L93" s="154">
-        <v>192.65</v>
-      </c>
-      <c r="M93" s="154">
-        <v>358.67</v>
-      </c>
-      <c r="N93" s="154">
-        <v>277.56</v>
+        <v>82</v>
+      </c>
+      <c r="H93" s="157">
+        <v>43059</v>
+      </c>
+      <c r="I93" s="150"/>
+      <c r="J93" s="156">
+        <v>534.66999999999996</v>
+      </c>
+      <c r="K93" s="156">
+        <v>550.71</v>
+      </c>
+      <c r="L93" s="156">
+        <v>364.76</v>
+      </c>
+      <c r="M93" s="156">
+        <v>614.55999999999995</v>
+      </c>
+      <c r="N93" s="156">
+        <v>384.46</v>
       </c>
       <c r="O93" s="109"/>
       <c r="P93" s="109"/>
@@ -4919,35 +4919,33 @@
       <c r="C94" s="109"/>
       <c r="D94" s="109"/>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F94" s="145">
         <f>AVERAGE(K93:K97)</f>
-        <v>371.00199999999995</v>
+        <v>545.58600000000001</v>
       </c>
       <c r="G94" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="H94" s="152">
-        <v>42401</v>
-      </c>
-      <c r="I94" s="153">
-        <v>1</v>
-      </c>
-      <c r="J94" s="154">
-        <v>399.79</v>
-      </c>
-      <c r="K94" s="154">
-        <v>362.08</v>
-      </c>
-      <c r="L94" s="154">
-        <v>200.09</v>
-      </c>
-      <c r="M94" s="154">
-        <v>363.67</v>
-      </c>
-      <c r="N94" s="154">
-        <v>285.82</v>
+        <v>82</v>
+      </c>
+      <c r="H94" s="157">
+        <v>43052</v>
+      </c>
+      <c r="I94" s="150"/>
+      <c r="J94" s="156">
+        <v>546.24</v>
+      </c>
+      <c r="K94" s="156">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="L94" s="156">
+        <v>386.25</v>
+      </c>
+      <c r="M94" s="156">
+        <v>621.55999999999995</v>
+      </c>
+      <c r="N94" s="156">
+        <v>381.15</v>
       </c>
       <c r="O94" s="109"/>
       <c r="P94" s="109"/>
@@ -4966,35 +4964,33 @@
       <c r="C95" s="109"/>
       <c r="D95" s="109"/>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" s="145">
         <f>AVERAGE(N93:N97)</f>
-        <v>292.10399999999998</v>
+        <v>366.11</v>
       </c>
       <c r="G95" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="H95" s="152">
-        <v>42394</v>
-      </c>
-      <c r="I95" s="153">
-        <v>1</v>
-      </c>
-      <c r="J95" s="154">
-        <v>393.17</v>
-      </c>
-      <c r="K95" s="154">
-        <v>355.46</v>
-      </c>
-      <c r="L95" s="154">
-        <v>187.7</v>
-      </c>
-      <c r="M95" s="154">
-        <v>341.67</v>
-      </c>
-      <c r="N95" s="154">
-        <v>287.48</v>
+        <v>82</v>
+      </c>
+      <c r="H95" s="157">
+        <v>43045</v>
+      </c>
+      <c r="I95" s="150"/>
+      <c r="J95" s="156">
+        <v>526.4</v>
+      </c>
+      <c r="K95" s="156">
+        <v>550.71</v>
+      </c>
+      <c r="L95" s="156">
+        <v>373.85</v>
+      </c>
+      <c r="M95" s="156">
+        <v>606.55999999999995</v>
+      </c>
+      <c r="N95" s="156">
+        <v>362.14</v>
       </c>
       <c r="O95" s="109"/>
       <c r="P95" s="109"/>
@@ -5013,35 +5009,33 @@
       <c r="C96" s="109"/>
       <c r="D96" s="109"/>
       <c r="E96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F96" s="144">
         <f>AVERAGE(M93:M97)</f>
-        <v>352.47</v>
+        <v>599.95999999999992</v>
       </c>
       <c r="G96" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="152">
-        <v>42387</v>
-      </c>
-      <c r="I96" s="153">
-        <v>1</v>
-      </c>
-      <c r="J96" s="154">
-        <v>402.27</v>
-      </c>
-      <c r="K96" s="154">
-        <v>373.65</v>
-      </c>
-      <c r="L96" s="154">
-        <v>162.08000000000001</v>
-      </c>
-      <c r="M96" s="154">
-        <v>335.67</v>
-      </c>
-      <c r="N96" s="154">
-        <v>307.31</v>
+        <v>90</v>
+      </c>
+      <c r="H96" s="157">
+        <v>43038</v>
+      </c>
+      <c r="I96" s="150"/>
+      <c r="J96" s="156">
+        <v>501.61</v>
+      </c>
+      <c r="K96" s="156">
+        <v>535.01</v>
+      </c>
+      <c r="L96" s="156">
+        <v>354.01</v>
+      </c>
+      <c r="M96" s="156">
+        <v>588.55999999999995</v>
+      </c>
+      <c r="N96" s="156">
+        <v>351.4</v>
       </c>
       <c r="O96" s="109"/>
       <c r="P96" s="109"/>
@@ -5062,26 +5056,24 @@
       <c r="E97" s="98"/>
       <c r="F97" s="98"/>
       <c r="G97" s="98"/>
-      <c r="H97" s="152">
-        <v>42380</v>
-      </c>
-      <c r="I97" s="153">
-        <v>1</v>
-      </c>
-      <c r="J97" s="154">
-        <v>417.14</v>
-      </c>
-      <c r="K97" s="154">
-        <v>391.83</v>
-      </c>
-      <c r="L97" s="154">
-        <v>181.08</v>
-      </c>
-      <c r="M97" s="154">
-        <v>362.67</v>
-      </c>
-      <c r="N97" s="154">
-        <v>302.35000000000002</v>
+      <c r="H97" s="157">
+        <v>43031</v>
+      </c>
+      <c r="I97" s="150"/>
+      <c r="J97" s="156">
+        <v>486.73</v>
+      </c>
+      <c r="K97" s="156">
+        <v>531.70000000000005</v>
+      </c>
+      <c r="L97" s="156">
+        <v>344.1</v>
+      </c>
+      <c r="M97" s="156">
+        <v>568.55999999999995</v>
+      </c>
+      <c r="N97" s="156">
+        <v>351.4</v>
       </c>
       <c r="O97" s="109"/>
       <c r="P97" s="109"/>
@@ -5100,35 +5092,35 @@
       <c r="C98" s="109"/>
       <c r="D98" s="109"/>
       <c r="E98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F98" s="131">
         <f>F93/1000</f>
-        <v>0.40160399999999996</v>
+        <v>0.51912999999999998</v>
       </c>
       <c r="G98" s="109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H98" s="152">
-        <v>42373</v>
+        <v>42408</v>
       </c>
       <c r="I98" s="153">
         <v>1</v>
       </c>
       <c r="J98" s="154">
-        <v>412.18</v>
+        <v>395.65</v>
       </c>
       <c r="K98" s="154">
-        <v>391.83</v>
+        <v>371.99</v>
       </c>
       <c r="L98" s="154">
-        <v>181.91</v>
+        <v>192.65</v>
       </c>
       <c r="M98" s="154">
-        <v>382.67</v>
+        <v>358.67</v>
       </c>
       <c r="N98" s="154">
-        <v>303.18</v>
+        <v>277.56</v>
       </c>
       <c r="O98" s="109"/>
       <c r="P98" s="109"/>
@@ -5147,35 +5139,35 @@
       <c r="C99" s="109"/>
       <c r="D99" s="109"/>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F99" s="131">
         <f>F94/1000</f>
-        <v>0.37100199999999994</v>
+        <v>0.54558600000000002</v>
       </c>
       <c r="G99" s="109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H99" s="152">
-        <v>42352</v>
+        <v>42401</v>
       </c>
       <c r="I99" s="153">
         <v>1</v>
       </c>
       <c r="J99" s="154">
-        <v>435.02</v>
+        <v>399.79</v>
       </c>
       <c r="K99" s="154">
-        <v>444.65</v>
+        <v>362.08</v>
       </c>
       <c r="L99" s="154">
-        <v>360.35</v>
+        <v>200.09</v>
       </c>
       <c r="M99" s="154">
-        <v>464.85</v>
+        <v>363.67</v>
       </c>
       <c r="N99" s="154">
-        <v>318.95999999999998</v>
+        <v>285.82</v>
       </c>
       <c r="O99" s="109"/>
       <c r="P99" s="109"/>
@@ -5194,35 +5186,35 @@
       <c r="C100" s="109"/>
       <c r="D100" s="109"/>
       <c r="E100" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F100" s="131">
         <f>F95/1000</f>
-        <v>0.29210399999999997</v>
+        <v>0.36610999999999999</v>
       </c>
       <c r="G100" s="109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H100" s="152">
-        <v>42345</v>
+        <v>42394</v>
       </c>
       <c r="I100" s="153">
         <v>1</v>
       </c>
       <c r="J100" s="154">
-        <v>452.38</v>
+        <v>393.17</v>
       </c>
       <c r="K100" s="154">
-        <v>467.79</v>
+        <v>355.46</v>
       </c>
       <c r="L100" s="154">
-        <v>360.35</v>
+        <v>187.7</v>
       </c>
       <c r="M100" s="154">
-        <v>464.85</v>
+        <v>341.67</v>
       </c>
       <c r="N100" s="154">
-        <v>323.91000000000003</v>
+        <v>287.48</v>
       </c>
       <c r="O100" s="109"/>
       <c r="P100" s="109"/>
@@ -5241,30 +5233,30 @@
       <c r="C101" s="109"/>
       <c r="D101" s="109"/>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F101" s="131"/>
       <c r="G101" s="109"/>
       <c r="H101" s="152">
-        <v>42338</v>
+        <v>42387</v>
       </c>
       <c r="I101" s="153">
         <v>1</v>
       </c>
       <c r="J101" s="154">
-        <v>459.81</v>
+        <v>402.27</v>
       </c>
       <c r="K101" s="154">
-        <v>486.8</v>
+        <v>373.65</v>
       </c>
       <c r="L101" s="154">
-        <v>360.35</v>
+        <v>162.08000000000001</v>
       </c>
       <c r="M101" s="154">
-        <v>464.85</v>
+        <v>335.67</v>
       </c>
       <c r="N101" s="154">
-        <v>321.44</v>
+        <v>307.31</v>
       </c>
       <c r="O101" s="109"/>
       <c r="P101" s="109"/>
@@ -5286,25 +5278,25 @@
       <c r="F102" s="109"/>
       <c r="G102" s="109"/>
       <c r="H102" s="152">
-        <v>42331</v>
+        <v>42380</v>
       </c>
       <c r="I102" s="153">
         <v>1</v>
       </c>
       <c r="J102" s="154">
-        <v>469.73</v>
+        <v>417.14</v>
       </c>
       <c r="K102" s="154">
-        <v>491.76</v>
+        <v>391.83</v>
       </c>
       <c r="L102" s="154">
-        <v>360.35</v>
+        <v>181.08</v>
       </c>
       <c r="M102" s="154">
-        <v>464.85</v>
+        <v>362.67</v>
       </c>
       <c r="N102" s="154">
-        <v>323.91000000000003</v>
+        <v>302.35000000000002</v>
       </c>
       <c r="O102" s="109"/>
       <c r="P102" s="109"/>
@@ -5323,35 +5315,35 @@
       <c r="C103" s="109"/>
       <c r="D103" s="109"/>
       <c r="E103" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F103" s="132">
         <f>F98/F11</f>
-        <v>1.2478374347501861E-2</v>
+        <v>1.6130064628386773E-2</v>
       </c>
       <c r="G103" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H103" s="152">
-        <v>42324</v>
+        <v>42373</v>
       </c>
       <c r="I103" s="153">
         <v>1</v>
       </c>
       <c r="J103" s="154">
-        <v>492.87</v>
+        <v>412.18</v>
       </c>
       <c r="K103" s="154">
-        <v>506.63</v>
+        <v>391.83</v>
       </c>
       <c r="L103" s="154">
-        <v>360.35</v>
+        <v>181.91</v>
       </c>
       <c r="M103" s="154">
-        <v>464.85</v>
+        <v>382.67</v>
       </c>
       <c r="N103" s="154">
-        <v>323.08999999999997</v>
+        <v>303.18</v>
       </c>
       <c r="O103" s="109"/>
       <c r="P103" s="109"/>
@@ -5370,26 +5362,26 @@
       <c r="C104" s="109"/>
       <c r="D104" s="109"/>
       <c r="E104" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F104" s="132">
         <f>F99/F17</f>
-        <v>1.0346075762984113E-2</v>
+        <v>1.5214672943066214E-2</v>
       </c>
       <c r="G104" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H104" s="152">
-        <v>42317</v>
+        <v>42352</v>
       </c>
       <c r="I104" s="153">
         <v>1</v>
       </c>
       <c r="J104" s="154">
-        <v>478</v>
+        <v>435.02</v>
       </c>
       <c r="K104" s="154">
-        <v>503.33</v>
+        <v>444.65</v>
       </c>
       <c r="L104" s="154">
         <v>360.35</v>
@@ -5398,7 +5390,7 @@
         <v>464.85</v>
       </c>
       <c r="N104" s="154">
-        <v>319.77999999999997</v>
+        <v>318.95999999999998</v>
       </c>
       <c r="O104" s="109"/>
       <c r="P104" s="109"/>
@@ -5417,26 +5409,26 @@
       <c r="C105" s="109"/>
       <c r="D105" s="109"/>
       <c r="E105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F105" s="132">
         <f>F100/F23</f>
-        <v>1.2118486558247593E-2</v>
+        <v>1.5188765350149352E-2</v>
       </c>
       <c r="G105" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H105" s="152">
-        <v>42310</v>
+        <v>42345</v>
       </c>
       <c r="I105" s="153">
         <v>1</v>
       </c>
       <c r="J105" s="154">
-        <v>449.07</v>
+        <v>452.38</v>
       </c>
       <c r="K105" s="154">
-        <v>481.01</v>
+        <v>467.79</v>
       </c>
       <c r="L105" s="154">
         <v>360.35</v>
@@ -5445,7 +5437,7 @@
         <v>464.85</v>
       </c>
       <c r="N105" s="154">
-        <v>308.20999999999998</v>
+        <v>323.91000000000003</v>
       </c>
       <c r="O105" s="109"/>
       <c r="P105" s="109"/>
@@ -5464,26 +5456,26 @@
       <c r="C106" s="109"/>
       <c r="D106" s="109"/>
       <c r="E106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F106" s="132">
         <f>F96/(F27*1000)</f>
-        <v>8.7029629629629644E-3</v>
+        <v>1.4813827160493825E-2</v>
       </c>
       <c r="G106" s="109" t="s">
         <v>44</v>
       </c>
       <c r="H106" s="152">
-        <v>42303</v>
+        <v>42338</v>
       </c>
       <c r="I106" s="153">
         <v>1</v>
       </c>
       <c r="J106" s="154">
-        <v>439.98</v>
+        <v>459.81</v>
       </c>
       <c r="K106" s="154">
-        <v>478.54</v>
+        <v>486.8</v>
       </c>
       <c r="L106" s="154">
         <v>360.35</v>
@@ -5492,7 +5484,7 @@
         <v>464.85</v>
       </c>
       <c r="N106" s="154">
-        <v>304.91000000000003</v>
+        <v>321.44</v>
       </c>
       <c r="O106" s="109"/>
       <c r="P106" s="109"/>
@@ -5514,16 +5506,16 @@
       <c r="F107" s="109"/>
       <c r="G107" s="109"/>
       <c r="H107" s="152">
-        <v>42296</v>
+        <v>42331</v>
       </c>
       <c r="I107" s="153">
         <v>1</v>
       </c>
       <c r="J107" s="154">
-        <v>454.03</v>
+        <v>469.73</v>
       </c>
       <c r="K107" s="154">
-        <v>493.41</v>
+        <v>491.76</v>
       </c>
       <c r="L107" s="154">
         <v>360.35</v>
@@ -5532,7 +5524,7 @@
         <v>464.85</v>
       </c>
       <c r="N107" s="154">
-        <v>305.73</v>
+        <v>323.91000000000003</v>
       </c>
       <c r="O107" s="109"/>
       <c r="P107" s="109"/>
@@ -5554,16 +5546,16 @@
       <c r="F108" s="109"/>
       <c r="G108" s="109"/>
       <c r="H108" s="152">
-        <v>42289</v>
+        <v>42324</v>
       </c>
       <c r="I108" s="153">
         <v>1</v>
       </c>
       <c r="J108" s="154">
-        <v>462.29</v>
+        <v>492.87</v>
       </c>
       <c r="K108" s="154">
-        <v>501.68</v>
+        <v>506.63</v>
       </c>
       <c r="L108" s="154">
         <v>360.35</v>
@@ -5572,7 +5564,7 @@
         <v>464.85</v>
       </c>
       <c r="N108" s="154">
-        <v>302.43</v>
+        <v>323.08999999999997</v>
       </c>
       <c r="O108" s="109"/>
       <c r="P108" s="109"/>
@@ -5594,16 +5586,16 @@
       <c r="F109" s="109"/>
       <c r="G109" s="109"/>
       <c r="H109" s="152">
-        <v>42282</v>
+        <v>42317</v>
       </c>
       <c r="I109" s="153">
         <v>1</v>
       </c>
       <c r="J109" s="154">
-        <v>451.55</v>
+        <v>478</v>
       </c>
       <c r="K109" s="154">
-        <v>489.28</v>
+        <v>503.33</v>
       </c>
       <c r="L109" s="154">
         <v>360.35</v>
@@ -5612,7 +5604,7 @@
         <v>464.85</v>
       </c>
       <c r="N109" s="154">
-        <v>296.64</v>
+        <v>319.77999999999997</v>
       </c>
       <c r="O109" s="109"/>
       <c r="P109" s="109"/>
@@ -5634,16 +5626,16 @@
       <c r="F110" s="109"/>
       <c r="G110" s="109"/>
       <c r="H110" s="152">
-        <v>42275</v>
+        <v>42310</v>
       </c>
       <c r="I110" s="153">
         <v>1</v>
       </c>
       <c r="J110" s="154">
-        <v>463.12</v>
+        <v>449.07</v>
       </c>
       <c r="K110" s="154">
-        <v>490.11</v>
+        <v>481.01</v>
       </c>
       <c r="L110" s="154">
         <v>360.35</v>
@@ -5652,7 +5644,7 @@
         <v>464.85</v>
       </c>
       <c r="N110" s="154">
-        <v>287.55</v>
+        <v>308.20999999999998</v>
       </c>
       <c r="O110" s="109"/>
       <c r="P110" s="109"/>
@@ -5674,16 +5666,16 @@
       <c r="F111" s="109"/>
       <c r="G111" s="109"/>
       <c r="H111" s="152">
-        <v>42268</v>
+        <v>42303</v>
       </c>
       <c r="I111" s="153">
         <v>1</v>
       </c>
       <c r="J111" s="154">
-        <v>472.21</v>
+        <v>439.98</v>
       </c>
       <c r="K111" s="154">
-        <v>498.37</v>
+        <v>478.54</v>
       </c>
       <c r="L111" s="154">
         <v>360.35</v>
@@ -5692,7 +5684,7 @@
         <v>464.85</v>
       </c>
       <c r="N111" s="154">
-        <v>284.25</v>
+        <v>304.91000000000003</v>
       </c>
       <c r="O111" s="109"/>
       <c r="P111" s="109"/>
@@ -5712,16 +5704,16 @@
       <c r="F112" s="109"/>
       <c r="G112" s="109"/>
       <c r="H112" s="152">
-        <v>42261</v>
+        <v>42296</v>
       </c>
       <c r="I112" s="153">
         <v>1</v>
       </c>
       <c r="J112" s="154">
-        <v>481.3</v>
+        <v>454.03</v>
       </c>
       <c r="K112" s="154">
-        <v>502.5</v>
+        <v>493.41</v>
       </c>
       <c r="L112" s="154">
         <v>360.35</v>
@@ -5730,7 +5722,7 @@
         <v>464.85</v>
       </c>
       <c r="N112" s="154">
-        <v>285.07</v>
+        <v>305.73</v>
       </c>
     </row>
     <row r="113" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5738,16 +5730,16 @@
       <c r="F113" s="109"/>
       <c r="G113" s="109"/>
       <c r="H113" s="152">
-        <v>42254</v>
+        <v>42289</v>
       </c>
       <c r="I113" s="153">
         <v>1</v>
       </c>
       <c r="J113" s="154">
-        <v>482.13</v>
+        <v>462.29</v>
       </c>
       <c r="K113" s="154">
-        <v>493.41</v>
+        <v>501.68</v>
       </c>
       <c r="L113" s="154">
         <v>360.35</v>
@@ -5756,7 +5748,7 @@
         <v>464.85</v>
       </c>
       <c r="N113" s="154">
-        <v>284.25</v>
+        <v>302.43</v>
       </c>
     </row>
     <row r="114" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5764,16 +5756,16 @@
       <c r="F114" s="109"/>
       <c r="G114" s="109"/>
       <c r="H114" s="152">
-        <v>42247</v>
+        <v>42282</v>
       </c>
       <c r="I114" s="153">
         <v>1</v>
       </c>
       <c r="J114" s="154">
-        <v>482.95</v>
+        <v>451.55</v>
       </c>
       <c r="K114" s="154">
-        <v>466.06</v>
+        <v>489.28</v>
       </c>
       <c r="L114" s="154">
         <v>360.35</v>
@@ -5782,7 +5774,7 @@
         <v>464.85</v>
       </c>
       <c r="N114" s="154">
-        <v>276.88</v>
+        <v>296.64</v>
       </c>
     </row>
     <row r="115" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5790,16 +5782,16 @@
       <c r="F115" s="109"/>
       <c r="G115" s="109"/>
       <c r="H115" s="152">
-        <v>42240</v>
+        <v>42275</v>
       </c>
       <c r="I115" s="153">
         <v>1</v>
       </c>
       <c r="J115" s="154">
-        <v>513.53</v>
+        <v>463.12</v>
       </c>
       <c r="K115" s="154">
-        <v>485.97</v>
+        <v>490.11</v>
       </c>
       <c r="L115" s="154">
         <v>360.35</v>
@@ -5816,16 +5808,16 @@
       <c r="F116" s="109"/>
       <c r="G116" s="109"/>
       <c r="H116" s="152">
-        <v>42233</v>
+        <v>42268</v>
       </c>
       <c r="I116" s="153">
         <v>1</v>
       </c>
       <c r="J116" s="154">
-        <v>542.46</v>
+        <v>472.21</v>
       </c>
       <c r="K116" s="154">
-        <v>496.72</v>
+        <v>498.37</v>
       </c>
       <c r="L116" s="154">
         <v>360.35</v>
@@ -5834,7 +5826,7 @@
         <v>464.85</v>
       </c>
       <c r="N116" s="154">
-        <v>302.43</v>
+        <v>284.25</v>
       </c>
     </row>
     <row r="117" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5842,16 +5834,16 @@
       <c r="F117" s="109"/>
       <c r="G117" s="109"/>
       <c r="H117" s="152">
-        <v>42226</v>
+        <v>42261</v>
       </c>
       <c r="I117" s="153">
         <v>1</v>
       </c>
       <c r="J117" s="154">
-        <v>562.29</v>
+        <v>481.3</v>
       </c>
       <c r="K117" s="154">
-        <v>504.98</v>
+        <v>502.5</v>
       </c>
       <c r="L117" s="154">
         <v>360.35</v>
@@ -5860,7 +5852,7 @@
         <v>464.85</v>
       </c>
       <c r="N117" s="154">
-        <v>308.20999999999998</v>
+        <v>285.07</v>
       </c>
     </row>
     <row r="118" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5868,16 +5860,16 @@
       <c r="F118" s="109"/>
       <c r="G118" s="109"/>
       <c r="H118" s="152">
-        <v>42219</v>
+        <v>42254</v>
       </c>
       <c r="I118" s="153">
         <v>1</v>
       </c>
       <c r="J118" s="154">
-        <v>573.86</v>
+        <v>482.13</v>
       </c>
       <c r="K118" s="154">
-        <v>518.20000000000005</v>
+        <v>493.41</v>
       </c>
       <c r="L118" s="154">
         <v>360.35</v>
@@ -5886,7 +5878,7 @@
         <v>464.85</v>
       </c>
       <c r="N118" s="154">
-        <v>312.33999999999997</v>
+        <v>284.25</v>
       </c>
     </row>
     <row r="119" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5894,16 +5886,16 @@
       <c r="F119" s="109"/>
       <c r="G119" s="109"/>
       <c r="H119" s="152">
-        <v>42212</v>
+        <v>42247</v>
       </c>
       <c r="I119" s="153">
         <v>1</v>
       </c>
       <c r="J119" s="154">
-        <v>586.26</v>
+        <v>482.95</v>
       </c>
       <c r="K119" s="154">
-        <v>533.91</v>
+        <v>466.06</v>
       </c>
       <c r="L119" s="154">
         <v>360.35</v>
@@ -5912,7 +5904,7 @@
         <v>464.85</v>
       </c>
       <c r="N119" s="154">
-        <v>315.64999999999998</v>
+        <v>276.88</v>
       </c>
     </row>
     <row r="120" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5920,16 +5912,16 @@
       <c r="F120" s="109"/>
       <c r="G120" s="109"/>
       <c r="H120" s="152">
-        <v>42205</v>
+        <v>42240</v>
       </c>
       <c r="I120" s="153">
         <v>1</v>
       </c>
       <c r="J120" s="154">
-        <v>599.48</v>
+        <v>513.53</v>
       </c>
       <c r="K120" s="154">
-        <v>547.13</v>
+        <v>485.97</v>
       </c>
       <c r="L120" s="154">
         <v>360.35</v>
@@ -5938,7 +5930,7 @@
         <v>464.85</v>
       </c>
       <c r="N120" s="154">
-        <v>310.69</v>
+        <v>287.55</v>
       </c>
     </row>
     <row r="121" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5946,16 +5938,16 @@
       <c r="F121" s="109"/>
       <c r="G121" s="109"/>
       <c r="H121" s="152">
-        <v>42198</v>
+        <v>42233</v>
       </c>
       <c r="I121" s="153">
         <v>1</v>
       </c>
       <c r="J121" s="154">
-        <v>617.66999999999996</v>
+        <v>542.46</v>
       </c>
       <c r="K121" s="154">
-        <v>568.62</v>
+        <v>496.72</v>
       </c>
       <c r="L121" s="154">
         <v>360.35</v>
@@ -5964,7 +5956,7 @@
         <v>464.85</v>
       </c>
       <c r="N121" s="154">
-        <v>318.95999999999998</v>
+        <v>302.43</v>
       </c>
     </row>
     <row r="122" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5972,16 +5964,16 @@
       <c r="F122" s="109"/>
       <c r="G122" s="109"/>
       <c r="H122" s="152">
-        <v>42191</v>
+        <v>42226</v>
       </c>
       <c r="I122" s="153">
         <v>1</v>
       </c>
       <c r="J122" s="154">
-        <v>601.14</v>
+        <v>562.29</v>
       </c>
       <c r="K122" s="154">
-        <v>580.19000000000005</v>
+        <v>504.98</v>
       </c>
       <c r="L122" s="154">
         <v>360.35</v>
@@ -5990,7 +5982,7 @@
         <v>464.85</v>
       </c>
       <c r="N122" s="154">
-        <v>314.82</v>
+        <v>308.20999999999998</v>
       </c>
     </row>
     <row r="123" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -5998,16 +5990,16 @@
       <c r="F123" s="109"/>
       <c r="G123" s="109"/>
       <c r="H123" s="152">
-        <v>42184</v>
+        <v>42219</v>
       </c>
       <c r="I123" s="153">
         <v>1</v>
       </c>
       <c r="J123" s="154">
-        <v>593.70000000000005</v>
+        <v>573.86</v>
       </c>
       <c r="K123" s="154">
-        <v>580.19000000000005</v>
+        <v>518.20000000000005</v>
       </c>
       <c r="L123" s="154">
         <v>360.35</v>
@@ -6016,7 +6008,7 @@
         <v>464.85</v>
       </c>
       <c r="N123" s="154">
-        <v>318.13</v>
+        <v>312.33999999999997</v>
       </c>
     </row>
     <row r="124" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6024,16 +6016,16 @@
       <c r="F124" s="109"/>
       <c r="G124" s="109"/>
       <c r="H124" s="152">
-        <v>42177</v>
+        <v>42212</v>
       </c>
       <c r="I124" s="153">
         <v>1</v>
       </c>
       <c r="J124" s="154">
-        <v>604.44000000000005</v>
+        <v>586.26</v>
       </c>
       <c r="K124" s="154">
-        <v>585.15</v>
+        <v>533.91</v>
       </c>
       <c r="L124" s="154">
         <v>360.35</v>
@@ -6042,7 +6034,7 @@
         <v>464.85</v>
       </c>
       <c r="N124" s="154">
-        <v>317.3</v>
+        <v>315.64999999999998</v>
       </c>
     </row>
     <row r="125" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6050,16 +6042,16 @@
       <c r="F125" s="109"/>
       <c r="G125" s="109"/>
       <c r="H125" s="152">
-        <v>42170</v>
+        <v>42205</v>
       </c>
       <c r="I125" s="153">
         <v>1</v>
       </c>
       <c r="J125" s="154">
-        <v>601.14</v>
+        <v>599.48</v>
       </c>
       <c r="K125" s="154">
-        <v>587.63</v>
+        <v>547.13</v>
       </c>
       <c r="L125" s="154">
         <v>360.35</v>
@@ -6068,7 +6060,7 @@
         <v>464.85</v>
       </c>
       <c r="N125" s="154">
-        <v>326.39</v>
+        <v>310.69</v>
       </c>
     </row>
     <row r="126" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6076,16 +6068,16 @@
       <c r="F126" s="109"/>
       <c r="G126" s="109"/>
       <c r="H126" s="152">
-        <v>42163</v>
+        <v>42198</v>
       </c>
       <c r="I126" s="153">
         <v>1</v>
       </c>
       <c r="J126" s="154">
-        <v>585.42999999999995</v>
+        <v>617.66999999999996</v>
       </c>
       <c r="K126" s="154">
-        <v>587.63</v>
+        <v>568.62</v>
       </c>
       <c r="L126" s="154">
         <v>360.35</v>
@@ -6094,7 +6086,7 @@
         <v>464.85</v>
       </c>
       <c r="N126" s="154">
-        <v>337.14</v>
+        <v>318.95999999999998</v>
       </c>
     </row>
     <row r="127" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6102,16 +6094,16 @@
       <c r="F127" s="109"/>
       <c r="G127" s="109"/>
       <c r="H127" s="152">
-        <v>42156</v>
+        <v>42191</v>
       </c>
       <c r="I127" s="153">
         <v>1</v>
       </c>
       <c r="J127" s="154">
-        <v>579.65</v>
+        <v>601.14</v>
       </c>
       <c r="K127" s="154">
-        <v>587.63</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="L127" s="154">
         <v>360.35</v>
@@ -6120,7 +6112,7 @@
         <v>464.85</v>
       </c>
       <c r="N127" s="154">
-        <v>342.1</v>
+        <v>314.82</v>
       </c>
     </row>
     <row r="128" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6128,16 +6120,16 @@
       <c r="F128" s="109"/>
       <c r="G128" s="109"/>
       <c r="H128" s="152">
-        <v>42149</v>
+        <v>42184</v>
       </c>
       <c r="I128" s="153">
         <v>1</v>
       </c>
       <c r="J128" s="154">
-        <v>578</v>
+        <v>593.70000000000005</v>
       </c>
       <c r="K128" s="154">
-        <v>591.76</v>
+        <v>580.19000000000005</v>
       </c>
       <c r="L128" s="154">
         <v>360.35</v>
@@ -6146,7 +6138,7 @@
         <v>464.85</v>
       </c>
       <c r="N128" s="154">
-        <v>338.79</v>
+        <v>318.13</v>
       </c>
     </row>
     <row r="129" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6154,16 +6146,16 @@
       <c r="F129" s="109"/>
       <c r="G129" s="109"/>
       <c r="H129" s="152">
-        <v>42142</v>
+        <v>42177</v>
       </c>
       <c r="I129" s="153">
         <v>1</v>
       </c>
       <c r="J129" s="154">
-        <v>582.13</v>
+        <v>604.44000000000005</v>
       </c>
       <c r="K129" s="154">
-        <v>594.24</v>
+        <v>585.15</v>
       </c>
       <c r="L129" s="154">
         <v>360.35</v>
@@ -6172,7 +6164,7 @@
         <v>464.85</v>
       </c>
       <c r="N129" s="154">
-        <v>354.49</v>
+        <v>317.3</v>
       </c>
     </row>
     <row r="130" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6180,16 +6172,16 @@
       <c r="F130" s="109"/>
       <c r="G130" s="109"/>
       <c r="H130" s="152">
-        <v>42135</v>
+        <v>42170</v>
       </c>
       <c r="I130" s="153">
         <v>1</v>
       </c>
       <c r="J130" s="154">
-        <v>587.91</v>
+        <v>601.14</v>
       </c>
       <c r="K130" s="154">
-        <v>595.05999999999995</v>
+        <v>587.63</v>
       </c>
       <c r="L130" s="154">
         <v>360.35</v>
@@ -6198,7 +6190,7 @@
         <v>464.85</v>
       </c>
       <c r="N130" s="154">
-        <v>361.1</v>
+        <v>326.39</v>
       </c>
     </row>
     <row r="131" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6206,16 +6198,16 @@
       <c r="F131" s="109"/>
       <c r="G131" s="109"/>
       <c r="H131" s="152">
-        <v>42128</v>
+        <v>42163</v>
       </c>
       <c r="I131" s="153">
         <v>1</v>
       </c>
       <c r="J131" s="154">
-        <v>584.61</v>
+        <v>585.42999999999995</v>
       </c>
       <c r="K131" s="154">
-        <v>590.11</v>
+        <v>587.63</v>
       </c>
       <c r="L131" s="154">
         <v>360.35</v>
@@ -6224,7 +6216,7 @@
         <v>464.85</v>
       </c>
       <c r="N131" s="154">
-        <v>365.24</v>
+        <v>337.14</v>
       </c>
     </row>
     <row r="132" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6232,16 +6224,16 @@
       <c r="F132" s="109"/>
       <c r="G132" s="109"/>
       <c r="H132" s="152">
-        <v>42121</v>
+        <v>42156</v>
       </c>
       <c r="I132" s="153">
         <v>1</v>
       </c>
       <c r="J132" s="154">
-        <v>583.78</v>
+        <v>579.65</v>
       </c>
       <c r="K132" s="154">
-        <v>591.76</v>
+        <v>587.63</v>
       </c>
       <c r="L132" s="154">
         <v>360.35</v>
@@ -6250,7 +6242,7 @@
         <v>464.85</v>
       </c>
       <c r="N132" s="154">
-        <v>366.06</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="133" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6258,16 +6250,16 @@
       <c r="F133" s="109"/>
       <c r="G133" s="109"/>
       <c r="H133" s="152">
-        <v>42114</v>
+        <v>42149</v>
       </c>
       <c r="I133" s="153">
         <v>1</v>
       </c>
       <c r="J133" s="154">
-        <v>567.25</v>
+        <v>578</v>
       </c>
       <c r="K133" s="154">
-        <v>576.88</v>
+        <v>591.76</v>
       </c>
       <c r="L133" s="154">
         <v>360.35</v>
@@ -6276,7 +6268,7 @@
         <v>464.85</v>
       </c>
       <c r="N133" s="154">
-        <v>361.1</v>
+        <v>338.79</v>
       </c>
     </row>
     <row r="134" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6284,16 +6276,16 @@
       <c r="F134" s="109"/>
       <c r="G134" s="109"/>
       <c r="H134" s="152">
-        <v>42107</v>
+        <v>42142</v>
       </c>
       <c r="I134" s="153">
         <v>1</v>
       </c>
       <c r="J134" s="154">
-        <v>544.11</v>
+        <v>582.13</v>
       </c>
       <c r="K134" s="154">
-        <v>553.74</v>
+        <v>594.24</v>
       </c>
       <c r="L134" s="154">
         <v>360.35</v>
@@ -6302,7 +6294,7 @@
         <v>464.85</v>
       </c>
       <c r="N134" s="154">
-        <v>366.89</v>
+        <v>354.49</v>
       </c>
     </row>
     <row r="135" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6310,16 +6302,16 @@
       <c r="F135" s="109"/>
       <c r="G135" s="109"/>
       <c r="H135" s="152">
-        <v>42093</v>
+        <v>42135</v>
       </c>
       <c r="I135" s="153">
         <v>1</v>
       </c>
       <c r="J135" s="154">
-        <v>550.72</v>
+        <v>587.91</v>
       </c>
       <c r="K135" s="154">
-        <v>566.14</v>
+        <v>595.05999999999995</v>
       </c>
       <c r="L135" s="154">
         <v>360.35</v>
@@ -6328,7 +6320,7 @@
         <v>464.85</v>
       </c>
       <c r="N135" s="154">
-        <v>377.63</v>
+        <v>361.1</v>
       </c>
     </row>
     <row r="136" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6336,16 +6328,16 @@
       <c r="F136" s="109"/>
       <c r="G136" s="109"/>
       <c r="H136" s="152">
-        <v>42086</v>
+        <v>42128</v>
       </c>
       <c r="I136" s="153">
         <v>1</v>
       </c>
       <c r="J136" s="154">
-        <v>539.98</v>
+        <v>584.61</v>
       </c>
       <c r="K136" s="154">
-        <v>567.79</v>
+        <v>590.11</v>
       </c>
       <c r="L136" s="154">
         <v>360.35</v>
@@ -6354,7 +6346,7 @@
         <v>464.85</v>
       </c>
       <c r="N136" s="154">
-        <v>380.94</v>
+        <v>365.24</v>
       </c>
     </row>
     <row r="137" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6362,16 +6354,16 @@
       <c r="F137" s="109"/>
       <c r="G137" s="109"/>
       <c r="H137" s="152">
-        <v>42079</v>
+        <v>42121</v>
       </c>
       <c r="I137" s="153">
         <v>1</v>
       </c>
       <c r="J137" s="154">
-        <v>543.29</v>
+        <v>583.78</v>
       </c>
       <c r="K137" s="154">
-        <v>578.54</v>
+        <v>591.76</v>
       </c>
       <c r="L137" s="154">
         <v>360.35</v>
@@ -6380,7 +6372,7 @@
         <v>464.85</v>
       </c>
       <c r="N137" s="154">
-        <v>377.63</v>
+        <v>366.06</v>
       </c>
     </row>
     <row r="138" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6388,16 +6380,16 @@
       <c r="F138" s="109"/>
       <c r="G138" s="109"/>
       <c r="H138" s="152">
-        <v>42072</v>
+        <v>42114</v>
       </c>
       <c r="I138" s="153">
         <v>1</v>
       </c>
       <c r="J138" s="154">
-        <v>533.37</v>
+        <v>567.25</v>
       </c>
       <c r="K138" s="154">
-        <v>579.36</v>
+        <v>576.88</v>
       </c>
       <c r="L138" s="154">
         <v>360.35</v>
@@ -6406,7 +6398,7 @@
         <v>464.85</v>
       </c>
       <c r="N138" s="154">
-        <v>379.29</v>
+        <v>361.1</v>
       </c>
     </row>
     <row r="139" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6414,16 +6406,16 @@
       <c r="F139" s="109"/>
       <c r="G139" s="109"/>
       <c r="H139" s="152">
-        <v>42065</v>
+        <v>42107</v>
       </c>
       <c r="I139" s="153">
         <v>1</v>
       </c>
       <c r="J139" s="154">
-        <v>515.19000000000005</v>
+        <v>544.11</v>
       </c>
       <c r="K139" s="154">
-        <v>578.54</v>
+        <v>553.74</v>
       </c>
       <c r="L139" s="154">
         <v>360.35</v>
@@ -6432,7 +6424,7 @@
         <v>464.85</v>
       </c>
       <c r="N139" s="154">
-        <v>359.45</v>
+        <v>366.89</v>
       </c>
     </row>
     <row r="140" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6440,16 +6432,16 @@
       <c r="F140" s="109"/>
       <c r="G140" s="109"/>
       <c r="H140" s="152">
-        <v>42058</v>
+        <v>42093</v>
       </c>
       <c r="I140" s="153">
         <v>1</v>
       </c>
       <c r="J140" s="154">
-        <v>502.79</v>
+        <v>550.72</v>
       </c>
       <c r="K140" s="154">
-        <v>569.44000000000005</v>
+        <v>566.14</v>
       </c>
       <c r="L140" s="154">
         <v>360.35</v>
@@ -6458,7 +6450,7 @@
         <v>464.85</v>
       </c>
       <c r="N140" s="154">
-        <v>338.79</v>
+        <v>377.63</v>
       </c>
     </row>
     <row r="141" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6466,16 +6458,16 @@
       <c r="F141" s="109"/>
       <c r="G141" s="109"/>
       <c r="H141" s="152">
-        <v>42051</v>
+        <v>42086</v>
       </c>
       <c r="I141" s="153">
         <v>1</v>
       </c>
       <c r="J141" s="154">
-        <v>497</v>
+        <v>539.98</v>
       </c>
       <c r="K141" s="154">
-        <v>560.35</v>
+        <v>567.79</v>
       </c>
       <c r="L141" s="154">
         <v>360.35</v>
@@ -6484,7 +6476,7 @@
         <v>464.85</v>
       </c>
       <c r="N141" s="154">
-        <v>338.79</v>
+        <v>380.94</v>
       </c>
     </row>
     <row r="142" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6492,16 +6484,16 @@
       <c r="F142" s="109"/>
       <c r="G142" s="109"/>
       <c r="H142" s="152">
-        <v>42044</v>
+        <v>42079</v>
       </c>
       <c r="I142" s="153">
         <v>1</v>
       </c>
       <c r="J142" s="154">
-        <v>463.12</v>
+        <v>543.29</v>
       </c>
       <c r="K142" s="154">
-        <v>525.64</v>
+        <v>578.54</v>
       </c>
       <c r="L142" s="154">
         <v>360.35</v>
@@ -6510,7 +6502,7 @@
         <v>464.85</v>
       </c>
       <c r="N142" s="154">
-        <v>342.1</v>
+        <v>377.63</v>
       </c>
     </row>
     <row r="143" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6518,16 +6510,16 @@
       <c r="F143" s="109"/>
       <c r="G143" s="109"/>
       <c r="H143" s="152">
-        <v>42037</v>
+        <v>42072</v>
       </c>
       <c r="I143" s="153">
         <v>1</v>
       </c>
       <c r="J143" s="154">
-        <v>435.02</v>
+        <v>533.37</v>
       </c>
       <c r="K143" s="154">
-        <v>496.72</v>
+        <v>579.36</v>
       </c>
       <c r="L143" s="154">
         <v>360.35</v>
@@ -6536,7 +6528,7 @@
         <v>464.85</v>
       </c>
       <c r="N143" s="154">
-        <v>322.26</v>
+        <v>379.29</v>
       </c>
     </row>
     <row r="144" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6544,16 +6536,16 @@
       <c r="F144" s="109"/>
       <c r="G144" s="109"/>
       <c r="H144" s="152">
-        <v>42030</v>
+        <v>42065</v>
       </c>
       <c r="I144" s="153">
         <v>1</v>
       </c>
       <c r="J144" s="154">
-        <v>434.19</v>
+        <v>515.19000000000005</v>
       </c>
       <c r="K144" s="154">
-        <v>490.93</v>
+        <v>578.54</v>
       </c>
       <c r="L144" s="154">
         <v>360.35</v>
@@ -6562,7 +6554,7 @@
         <v>464.85</v>
       </c>
       <c r="N144" s="154">
-        <v>317.3</v>
+        <v>359.45</v>
       </c>
     </row>
     <row r="145" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
@@ -6570,16 +6562,16 @@
       <c r="F145" s="109"/>
       <c r="G145" s="109"/>
       <c r="H145" s="152">
-        <v>42023</v>
+        <v>42058</v>
       </c>
       <c r="I145" s="153">
         <v>1</v>
       </c>
       <c r="J145" s="154">
-        <v>435.02</v>
+        <v>502.79</v>
       </c>
       <c r="K145" s="154">
-        <v>490.93</v>
+        <v>569.44000000000005</v>
       </c>
       <c r="L145" s="154">
         <v>360.35</v>
@@ -6588,22 +6580,22 @@
         <v>464.85</v>
       </c>
       <c r="N145" s="154">
-        <v>313.17</v>
+        <v>338.79</v>
       </c>
     </row>
     <row r="146" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="99"/>
       <c r="H146" s="152">
-        <v>42016</v>
+        <v>42051</v>
       </c>
       <c r="I146" s="153">
         <v>1</v>
       </c>
       <c r="J146" s="154">
-        <v>448.24</v>
+        <v>497</v>
       </c>
       <c r="K146" s="154">
-        <v>502.5</v>
+        <v>560.35</v>
       </c>
       <c r="L146" s="154">
         <v>360.35</v>
@@ -6612,22 +6604,22 @@
         <v>464.85</v>
       </c>
       <c r="N146" s="154">
-        <v>329.7</v>
+        <v>338.79</v>
       </c>
     </row>
     <row r="147" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="99"/>
       <c r="H147" s="152">
-        <v>42009</v>
+        <v>42044</v>
       </c>
       <c r="I147" s="153">
         <v>1</v>
       </c>
       <c r="J147" s="154">
-        <v>466.43</v>
+        <v>463.12</v>
       </c>
       <c r="K147" s="154">
-        <v>508.29</v>
+        <v>525.64</v>
       </c>
       <c r="L147" s="154">
         <v>360.35</v>
@@ -6636,58 +6628,128 @@
         <v>464.85</v>
       </c>
       <c r="N147" s="154">
-        <v>351.19</v>
+        <v>342.1</v>
       </c>
     </row>
     <row r="148" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="99"/>
-      <c r="H148" s="152"/>
-      <c r="I148" s="155"/>
-      <c r="J148" s="154"/>
-      <c r="K148" s="154"/>
-      <c r="L148" s="154"/>
-      <c r="M148" s="154"/>
-      <c r="N148" s="154"/>
+      <c r="H148" s="152">
+        <v>42037</v>
+      </c>
+      <c r="I148" s="153">
+        <v>1</v>
+      </c>
+      <c r="J148" s="154">
+        <v>435.02</v>
+      </c>
+      <c r="K148" s="154">
+        <v>496.72</v>
+      </c>
+      <c r="L148" s="154">
+        <v>360.35</v>
+      </c>
+      <c r="M148" s="154">
+        <v>464.85</v>
+      </c>
+      <c r="N148" s="154">
+        <v>322.26</v>
+      </c>
     </row>
     <row r="149" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="99"/>
-      <c r="H149" s="152"/>
-      <c r="I149" s="155"/>
-      <c r="J149" s="154"/>
-      <c r="K149" s="154"/>
-      <c r="L149" s="154"/>
-      <c r="M149" s="154"/>
-      <c r="N149" s="154"/>
+      <c r="H149" s="152">
+        <v>42030</v>
+      </c>
+      <c r="I149" s="153">
+        <v>1</v>
+      </c>
+      <c r="J149" s="154">
+        <v>434.19</v>
+      </c>
+      <c r="K149" s="154">
+        <v>490.93</v>
+      </c>
+      <c r="L149" s="154">
+        <v>360.35</v>
+      </c>
+      <c r="M149" s="154">
+        <v>464.85</v>
+      </c>
+      <c r="N149" s="154">
+        <v>317.3</v>
+      </c>
     </row>
     <row r="150" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="99"/>
-      <c r="H150" s="152"/>
-      <c r="I150" s="155"/>
-      <c r="J150" s="154"/>
-      <c r="K150" s="154"/>
-      <c r="L150" s="154"/>
-      <c r="M150" s="154"/>
-      <c r="N150" s="154"/>
+      <c r="H150" s="152">
+        <v>42023</v>
+      </c>
+      <c r="I150" s="153">
+        <v>1</v>
+      </c>
+      <c r="J150" s="154">
+        <v>435.02</v>
+      </c>
+      <c r="K150" s="154">
+        <v>490.93</v>
+      </c>
+      <c r="L150" s="154">
+        <v>360.35</v>
+      </c>
+      <c r="M150" s="154">
+        <v>464.85</v>
+      </c>
+      <c r="N150" s="154">
+        <v>313.17</v>
+      </c>
     </row>
     <row r="151" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="99"/>
-      <c r="H151" s="152"/>
-      <c r="I151" s="155"/>
-      <c r="J151" s="154"/>
-      <c r="K151" s="154"/>
-      <c r="L151" s="154"/>
-      <c r="M151" s="154"/>
-      <c r="N151" s="154"/>
+      <c r="H151" s="152">
+        <v>42016</v>
+      </c>
+      <c r="I151" s="153">
+        <v>1</v>
+      </c>
+      <c r="J151" s="154">
+        <v>448.24</v>
+      </c>
+      <c r="K151" s="154">
+        <v>502.5</v>
+      </c>
+      <c r="L151" s="154">
+        <v>360.35</v>
+      </c>
+      <c r="M151" s="154">
+        <v>464.85</v>
+      </c>
+      <c r="N151" s="154">
+        <v>329.7</v>
+      </c>
     </row>
     <row r="152" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="99"/>
-      <c r="H152" s="152"/>
-      <c r="I152" s="155"/>
-      <c r="J152" s="154"/>
-      <c r="K152" s="154"/>
-      <c r="L152" s="154"/>
-      <c r="M152" s="154"/>
-      <c r="N152" s="154"/>
+      <c r="H152" s="152">
+        <v>42009</v>
+      </c>
+      <c r="I152" s="153">
+        <v>1</v>
+      </c>
+      <c r="J152" s="154">
+        <v>466.43</v>
+      </c>
+      <c r="K152" s="154">
+        <v>508.29</v>
+      </c>
+      <c r="L152" s="154">
+        <v>360.35</v>
+      </c>
+      <c r="M152" s="154">
+        <v>464.85</v>
+      </c>
+      <c r="N152" s="154">
+        <v>351.19</v>
+      </c>
     </row>
     <row r="153" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="99"/>
@@ -6881,18 +6943,53 @@
     </row>
     <row r="172" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="99"/>
+      <c r="H172" s="152"/>
+      <c r="I172" s="155"/>
+      <c r="J172" s="154"/>
+      <c r="K172" s="154"/>
+      <c r="L172" s="154"/>
+      <c r="M172" s="154"/>
+      <c r="N172" s="154"/>
     </row>
     <row r="173" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="99"/>
+      <c r="H173" s="152"/>
+      <c r="I173" s="155"/>
+      <c r="J173" s="154"/>
+      <c r="K173" s="154"/>
+      <c r="L173" s="154"/>
+      <c r="M173" s="154"/>
+      <c r="N173" s="154"/>
     </row>
     <row r="174" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="99"/>
+      <c r="H174" s="152"/>
+      <c r="I174" s="155"/>
+      <c r="J174" s="154"/>
+      <c r="K174" s="154"/>
+      <c r="L174" s="154"/>
+      <c r="M174" s="154"/>
+      <c r="N174" s="154"/>
     </row>
     <row r="175" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="99"/>
+      <c r="H175" s="152"/>
+      <c r="I175" s="155"/>
+      <c r="J175" s="154"/>
+      <c r="K175" s="154"/>
+      <c r="L175" s="154"/>
+      <c r="M175" s="154"/>
+      <c r="N175" s="154"/>
     </row>
     <row r="176" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="99"/>
+      <c r="H176" s="152"/>
+      <c r="I176" s="155"/>
+      <c r="J176" s="154"/>
+      <c r="K176" s="154"/>
+      <c r="L176" s="154"/>
+      <c r="M176" s="154"/>
+      <c r="N176" s="154"/>
     </row>
     <row r="177" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="99"/>
@@ -6990,43 +7087,86 @@
     <row r="208" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="99"/>
     </row>
-    <row r="209" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="99"/>
     </row>
-    <row r="210" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="99"/>
     </row>
-    <row r="211" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="99"/>
     </row>
-    <row r="212" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="99"/>
     </row>
-    <row r="213" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="99"/>
     </row>
-    <row r="214" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="99"/>
     </row>
-    <row r="215" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="99"/>
     </row>
-    <row r="216" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="99"/>
     </row>
-    <row r="217" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="99"/>
     </row>
-    <row r="218" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="99"/>
     </row>
-    <row r="219" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="99"/>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.2">
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+      <c r="K220"/>
+      <c r="L220"/>
+      <c r="M220"/>
+      <c r="N220"/>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+      <c r="K221"/>
+      <c r="L221"/>
+      <c r="M221"/>
+      <c r="N221"/>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+      <c r="K222"/>
+      <c r="L222"/>
+      <c r="M222"/>
+      <c r="N222"/>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+      <c r="K223"/>
+      <c r="L223"/>
+      <c r="M223"/>
+      <c r="N223"/>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+      <c r="K224"/>
+      <c r="L224"/>
+      <c r="M224"/>
+      <c r="N224"/>
     </row>
   </sheetData>
   <hyperlinks>
